--- a/pre_data/Score_Scale.xlsx
+++ b/pre_data/Score_Scale.xlsx
@@ -642,112 +642,112 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.08056683515121023</v>
+        <v>0.3070112912592966</v>
       </c>
       <c r="C2">
-        <v>0.07885312681181332</v>
+        <v>0.2333926351549105</v>
       </c>
       <c r="D2">
-        <v>0.1815397011145085</v>
+        <v>0.1960035248577824</v>
       </c>
       <c r="E2">
-        <v>0.1036858034228613</v>
+        <v>0.2950866503875182</v>
       </c>
       <c r="F2">
-        <v>0.1770606462826077</v>
+        <v>0.2475241843709874</v>
       </c>
       <c r="G2">
-        <v>0.1620934382420385</v>
+        <v>0.2541437224133202</v>
       </c>
       <c r="H2">
-        <v>0.1945111175452947</v>
+        <v>0.1724651752119116</v>
       </c>
       <c r="I2">
-        <v>0.1521871631481815</v>
+        <v>0.1839842725413024</v>
       </c>
       <c r="J2">
-        <v>0.02396067770425133</v>
+        <v>0.1826180688728523</v>
       </c>
       <c r="K2">
-        <v>0.01955448771726185</v>
+        <v>0.2615402678997855</v>
       </c>
       <c r="L2">
-        <v>0.01513286624890542</v>
+        <v>0.2420745348769827</v>
       </c>
       <c r="M2">
-        <v>0.01069573209012977</v>
+        <v>0.2476034272576969</v>
       </c>
       <c r="N2">
-        <v>0.006243003461058155</v>
+        <v>0.1583552053409004</v>
       </c>
       <c r="O2">
-        <v>0.00177459800596496</v>
+        <v>0.2143889193960805</v>
       </c>
       <c r="P2">
-        <v>0.02265471243358295</v>
+        <v>0.1522649758295229</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.2104972697778758</v>
       </c>
       <c r="R2">
-        <v>0.05939426122064809</v>
+        <v>0.2404729103765695</v>
       </c>
       <c r="S2">
-        <v>0.07147447055299712</v>
+        <v>0.2356077990986132</v>
       </c>
       <c r="T2">
-        <v>0.1022810839050679</v>
+        <v>0.1546855667102844</v>
       </c>
       <c r="U2">
-        <v>0.0242773527328482</v>
+        <v>0.169486132975134</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.1150519966151045</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.236994235253714</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.2046901215642048</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.1326819400835796</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.2205060234452617</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.2079232512829032</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.1523297297443875</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.215729292747766</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.193495447319696</v>
       </c>
       <c r="AE2">
-        <v>0.03678874164901219</v>
+        <v>0.1919080299733176</v>
       </c>
       <c r="AF2">
-        <v>0.03780566031396581</v>
+        <v>0.1740534630406464</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.1894515235933228</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.1562908224849946</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.1573948354369426</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>0.2251777126743637</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>0.1607619250290599</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -755,112 +755,112 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4434598414500321</v>
+        <v>0.4434849460714937</v>
       </c>
       <c r="C3">
-        <v>0.4380454472378287</v>
+        <v>0.443683535227423</v>
       </c>
       <c r="D3">
-        <v>0.4265387816419545</v>
+        <v>0.4471197180723026</v>
       </c>
       <c r="E3">
-        <v>0.444611772584242</v>
+        <v>0.4466133884734232</v>
       </c>
       <c r="F3">
-        <v>0.441076203792687</v>
+        <v>0.4082449605798585</v>
       </c>
       <c r="G3">
-        <v>0.4446697976737947</v>
+        <v>0.4449096105525699</v>
       </c>
       <c r="H3">
-        <v>0.4435210736656234</v>
+        <v>0.4162930360686479</v>
       </c>
       <c r="I3">
-        <v>0.4428833774309701</v>
+        <v>0.4263398701562403</v>
       </c>
       <c r="J3">
-        <v>0.431124537122371</v>
+        <v>0.4289073406022245</v>
       </c>
       <c r="K3">
-        <v>0.4372004041636807</v>
+        <v>0.4438527897321081</v>
       </c>
       <c r="L3">
-        <v>0.4339223756227176</v>
+        <v>0.4407316518381272</v>
       </c>
       <c r="M3">
-        <v>0.4391383959490792</v>
+        <v>0.4415809947134791</v>
       </c>
       <c r="N3">
-        <v>0.4406066982584511</v>
+        <v>0.4217879028937228</v>
       </c>
       <c r="O3">
-        <v>0.4345830084643904</v>
+        <v>0.4425785043272495</v>
       </c>
       <c r="P3">
-        <v>0.4232873725831781</v>
+        <v>0.4431532962172207</v>
       </c>
       <c r="Q3">
-        <v>0.4424240092848909</v>
+        <v>0.4432636727400862</v>
       </c>
       <c r="R3">
-        <v>0.4303115371437054</v>
+        <v>0.4418448498754285</v>
       </c>
       <c r="S3">
-        <v>0.4425391659087614</v>
+        <v>0.4427556284544493</v>
       </c>
       <c r="T3">
-        <v>0.4415479140970877</v>
+        <v>0.4201788117757469</v>
       </c>
       <c r="U3">
-        <v>0.4397222908721073</v>
+        <v>0.4243582359088433</v>
       </c>
       <c r="V3">
-        <v>0.4337762159611017</v>
+        <v>0.4201982579960468</v>
       </c>
       <c r="W3">
-        <v>0.4392265438295279</v>
+        <v>0.4420686143955867</v>
       </c>
       <c r="X3">
-        <v>0.4363608286727282</v>
+        <v>0.4367680950672336</v>
       </c>
       <c r="Y3">
-        <v>0.4405980808823274</v>
+        <v>0.408349906697287</v>
       </c>
       <c r="Z3">
-        <v>0.441676908117044</v>
+        <v>0.4396476624783878</v>
       </c>
       <c r="AA3">
-        <v>0.4383681295124704</v>
+        <v>0.4441794341016467</v>
       </c>
       <c r="AB3">
-        <v>0.4349823581914999</v>
+        <v>0.444255649959395</v>
       </c>
       <c r="AC3">
-        <v>0.4436364198399756</v>
+        <v>0.444329576388494</v>
       </c>
       <c r="AD3">
-        <v>0.437416031761358</v>
+        <v>0.4170112755021698</v>
       </c>
       <c r="AE3">
-        <v>0.4429667839464402</v>
+        <v>0.4355563876841967</v>
       </c>
       <c r="AF3">
-        <v>0.4413599228695801</v>
+        <v>0.4268374275914377</v>
       </c>
       <c r="AG3">
-        <v>0.441126433948438</v>
+        <v>0.4307702168157432</v>
       </c>
       <c r="AH3">
-        <v>0.4369991987663584</v>
+        <v>0.4288872357433264</v>
       </c>
       <c r="AI3">
-        <v>0.4413960792999127</v>
+        <v>0.4190414928010895</v>
       </c>
       <c r="AJ3">
-        <v>0.4389890746739833</v>
+        <v>0.4416533005953277</v>
       </c>
       <c r="AK3">
-        <v>0.442235010560411</v>
+        <v>0.4204876780359053</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -868,112 +868,112 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3627011598959272</v>
+        <v>0.3661319566235381</v>
       </c>
       <c r="C4">
-        <v>0.3492232880254285</v>
+        <v>0.345686312221811</v>
       </c>
       <c r="D4">
-        <v>0.3471666824903355</v>
+        <v>0.3676145769900255</v>
       </c>
       <c r="E4">
-        <v>0.3627618119355529</v>
+        <v>0.3648482094759967</v>
       </c>
       <c r="F4">
-        <v>0.3359507456867055</v>
+        <v>0.338105351150836</v>
       </c>
       <c r="G4">
-        <v>0.3411305206354546</v>
+        <v>0.3513198019433721</v>
       </c>
       <c r="H4">
-        <v>0.3434497993225744</v>
+        <v>0.3201245940577527</v>
       </c>
       <c r="I4">
-        <v>0.3408598649298673</v>
+        <v>0.3323088785541427</v>
       </c>
       <c r="J4">
-        <v>0.3445903029430736</v>
+        <v>0.353548806165307</v>
       </c>
       <c r="K4">
-        <v>0.3384059114547153</v>
+        <v>0.3526994652586991</v>
       </c>
       <c r="L4">
-        <v>0.3438041704068066</v>
+        <v>0.3523601446702672</v>
       </c>
       <c r="M4">
-        <v>0.3441830047209267</v>
+        <v>0.3499228624795268</v>
       </c>
       <c r="N4">
-        <v>0.3485312505142898</v>
+        <v>0.3344120015165032</v>
       </c>
       <c r="O4">
-        <v>0.338348304740889</v>
+        <v>0.3442788698340988</v>
       </c>
       <c r="P4">
-        <v>0.3314940799232262</v>
+        <v>0.3513600035572688</v>
       </c>
       <c r="Q4">
-        <v>0.3520874159514841</v>
+        <v>0.3529909375722666</v>
       </c>
       <c r="R4">
-        <v>0.3264114114293784</v>
+        <v>0.3535993064836926</v>
       </c>
       <c r="S4">
-        <v>0.3375522310855022</v>
+        <v>0.3539663022703989</v>
       </c>
       <c r="T4">
-        <v>0.3412899381064236</v>
+        <v>0.3284936388554374</v>
       </c>
       <c r="U4">
-        <v>0.3385340291497248</v>
+        <v>0.3370735999275238</v>
       </c>
       <c r="V4">
-        <v>0.3526005171597507</v>
+        <v>0.3603041550088087</v>
       </c>
       <c r="W4">
-        <v>0.3542414351665797</v>
+        <v>0.3600176786841985</v>
       </c>
       <c r="X4">
-        <v>0.356366820464757</v>
+        <v>0.3628884520465767</v>
       </c>
       <c r="Y4">
-        <v>0.3612866212368882</v>
+        <v>0.3467994628053599</v>
       </c>
       <c r="Z4">
-        <v>0.3632421733940935</v>
+        <v>0.3653058614855648</v>
       </c>
       <c r="AA4">
-        <v>0.3612262580661633</v>
+        <v>0.3664569000138623</v>
       </c>
       <c r="AB4">
-        <v>0.3582985829564809</v>
+        <v>0.3675718747243761</v>
       </c>
       <c r="AC4">
-        <v>0.3679122233279523</v>
+        <v>0.368652435628562</v>
       </c>
       <c r="AD4">
-        <v>0.3528683562502607</v>
+        <v>0.3530811679720989</v>
       </c>
       <c r="AE4">
-        <v>0.3532888125389238</v>
+        <v>0.3532263887609016</v>
       </c>
       <c r="AF4">
-        <v>0.3525085613426973</v>
+        <v>0.3498442192157489</v>
       </c>
       <c r="AG4">
-        <v>0.3550120639683464</v>
+        <v>0.3572381603705856</v>
       </c>
       <c r="AH4">
-        <v>0.3674204032455173</v>
+        <v>0.3735902740533681</v>
       </c>
       <c r="AI4">
-        <v>0.3719361656435229</v>
+        <v>0.3582207101193355</v>
       </c>
       <c r="AJ4">
-        <v>0.3704432557756838</v>
+        <v>0.3760151746855341</v>
       </c>
       <c r="AK4">
-        <v>0.3745984876516368</v>
+        <v>0.3769283586918604</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -981,112 +981,112 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4543467623361379</v>
+        <v>0.4579127469619844</v>
       </c>
       <c r="C5">
-        <v>0.4454577180413948</v>
+        <v>0.3632274932368585</v>
       </c>
       <c r="D5">
-        <v>0.4331044160555931</v>
+        <v>0.2201309953140229</v>
       </c>
       <c r="E5">
-        <v>0.4507607184715564</v>
+        <v>0.451137954956202</v>
       </c>
       <c r="F5">
-        <v>0.4524105308357877</v>
+        <v>0.3663864122842226</v>
       </c>
       <c r="G5">
-        <v>0.4563937539427357</v>
+        <v>0.4120340352382286</v>
       </c>
       <c r="H5">
-        <v>0.4561920754396978</v>
+        <v>0.3198634118439835</v>
       </c>
       <c r="I5">
-        <v>0.4562022475671803</v>
+        <v>0.3497855476523064</v>
       </c>
       <c r="J5">
-        <v>0.4437220278520571</v>
+        <v>0.3664740644540286</v>
       </c>
       <c r="K5">
-        <v>0.4513914028898044</v>
+        <v>0.4558924132914642</v>
       </c>
       <c r="L5">
-        <v>0.4457076025326115</v>
+        <v>0.43430644875317</v>
       </c>
       <c r="M5">
-        <v>0.4508843167308513</v>
+        <v>0.4487042903218176</v>
       </c>
       <c r="N5">
-        <v>0.4509014042782611</v>
+        <v>0.3142372253061059</v>
       </c>
       <c r="O5">
-        <v>0.4427866560734988</v>
+        <v>0.4135751403728055</v>
       </c>
       <c r="P5">
-        <v>0.427486912568135</v>
+        <v>0.2728856503307063</v>
       </c>
       <c r="Q5">
-        <v>0.4464461005815531</v>
+        <v>0.4141273495137306</v>
       </c>
       <c r="R5">
-        <v>0.4394392748667982</v>
+        <v>0.4516004703046665</v>
       </c>
       <c r="S5">
-        <v>0.4536960213858384</v>
+        <v>0.4441403900985229</v>
       </c>
       <c r="T5">
-        <v>0.4536854794123869</v>
+        <v>0.313736364604992</v>
       </c>
       <c r="U5">
-        <v>0.4518043327855291</v>
+        <v>0.3452507851395772</v>
       </c>
       <c r="V5">
-        <v>0.4427742022187549</v>
+        <v>0.2786848275501679</v>
       </c>
       <c r="W5">
-        <v>0.4490665272005607</v>
+        <v>0.4474167824999381</v>
       </c>
       <c r="X5">
-        <v>0.4440825462099334</v>
+        <v>0.3897034082885262</v>
       </c>
       <c r="Y5">
-        <v>0.4477875003629259</v>
+        <v>0.269167681920632</v>
       </c>
       <c r="Z5">
-        <v>0.4464097107821799</v>
+        <v>0.413762419096339</v>
       </c>
       <c r="AA5">
-        <v>0.4401307500118989</v>
+        <v>0.394546142195013</v>
       </c>
       <c r="AB5">
-        <v>0.4284724868735737</v>
+        <v>0.2493864290896607</v>
       </c>
       <c r="AC5">
-        <v>0.4381985761437824</v>
+        <v>0.4103045678049184</v>
       </c>
       <c r="AD5">
-        <v>0.4346947935039473</v>
+        <v>0.3353099373441185</v>
       </c>
       <c r="AE5">
-        <v>0.447966734137444</v>
+        <v>0.3527327387298776</v>
       </c>
       <c r="AF5">
-        <v>0.4472881281985693</v>
+        <v>0.3187693482985841</v>
       </c>
       <c r="AG5">
-        <v>0.4466917818591474</v>
+        <v>0.3554807579493969</v>
       </c>
       <c r="AH5">
-        <v>0.437186728933926</v>
+        <v>0.3029602563898062</v>
       </c>
       <c r="AI5">
-        <v>0.4416987961662972</v>
+        <v>0.2886045158563513</v>
       </c>
       <c r="AJ5">
-        <v>0.4375689193635879</v>
+        <v>0.4183266107958252</v>
       </c>
       <c r="AK5">
-        <v>0.4397200509254038</v>
+        <v>0.2830314386958063</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1094,112 +1094,112 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4242953312621173</v>
+        <v>0.4146279023572185</v>
       </c>
       <c r="C6">
-        <v>0.4133379590210584</v>
+        <v>0.3501828906593545</v>
       </c>
       <c r="D6">
-        <v>0.4298328728009454</v>
+        <v>0.4504138092312935</v>
       </c>
       <c r="E6">
-        <v>0.448260853374274</v>
+        <v>0.4503472509147178</v>
       </c>
       <c r="F6">
-        <v>0.4158930010955532</v>
+        <v>0.3624463068117637</v>
       </c>
       <c r="G6">
-        <v>0.4052504826397224</v>
+        <v>0.3989422719161125</v>
       </c>
       <c r="H6">
-        <v>0.4308807292752391</v>
+        <v>0.3366481205160751</v>
       </c>
       <c r="I6">
-        <v>0.4360921002656269</v>
+        <v>0.3616594590405072</v>
       </c>
       <c r="J6">
-        <v>0.4397889362777401</v>
+        <v>0.4503796238041891</v>
       </c>
       <c r="K6">
-        <v>0.4477399203023267</v>
+        <v>0.4505521467377425</v>
       </c>
       <c r="L6">
-        <v>0.4334846394079754</v>
+        <v>0.4348253168487013</v>
       </c>
       <c r="M6">
-        <v>0.4478205665512927</v>
+        <v>0.4508990084284409</v>
       </c>
       <c r="N6">
-        <v>0.4360008290961289</v>
+        <v>0.2604984457049591</v>
       </c>
       <c r="O6">
-        <v>0.427083367731361</v>
+        <v>0.4192374524254456</v>
       </c>
       <c r="P6">
-        <v>0.4316636335865122</v>
+        <v>0.4515295572205548</v>
       </c>
       <c r="Q6">
-        <v>0.4509664262234788</v>
+        <v>0.4518699478442613</v>
       </c>
       <c r="R6">
-        <v>0.4163564529553425</v>
+        <v>0.4486867321335122</v>
       </c>
       <c r="S6">
-        <v>0.4022464967736287</v>
+        <v>0.4415830497618461</v>
       </c>
       <c r="T6">
-        <v>0.426470338639506</v>
+        <v>0.3605554421734975</v>
       </c>
       <c r="U6">
-        <v>0.4315759210765253</v>
+        <v>0.3819678370034464</v>
       </c>
       <c r="V6">
-        <v>0.4453210887205035</v>
+        <v>0.4534005078405627</v>
       </c>
       <c r="W6">
-        <v>0.452324144970779</v>
+        <v>0.4536763020552432</v>
       </c>
       <c r="X6">
-        <v>0.443699072031164</v>
+        <v>0.4279549501519532</v>
       </c>
       <c r="Y6">
-        <v>0.451834720351137</v>
+        <v>0.4542014483734426</v>
       </c>
       <c r="Z6">
-        <v>0.4459720251955404</v>
+        <v>0.4107425316800565</v>
       </c>
       <c r="AA6">
-        <v>0.4409396092058996</v>
+        <v>0.4258870960858319</v>
       </c>
       <c r="AB6">
-        <v>0.4456558188006249</v>
+        <v>0.45492911056852</v>
       </c>
       <c r="AC6">
-        <v>0.4544168802939439</v>
+        <v>0.4551570925945536</v>
       </c>
       <c r="AD6">
-        <v>0.4312191769791709</v>
+        <v>0.3949666678331206</v>
       </c>
       <c r="AE6">
-        <v>0.4053015365735226</v>
+        <v>0.3824082670641644</v>
       </c>
       <c r="AF6">
-        <v>0.4238753220416199</v>
+        <v>0.3865187626252323</v>
       </c>
       <c r="AG6">
-        <v>0.4374418307152207</v>
+        <v>0.4071701755167535</v>
       </c>
       <c r="AH6">
-        <v>0.4500315829389382</v>
+        <v>0.4562014537467891</v>
       </c>
       <c r="AI6">
-        <v>0.4557331741573575</v>
+        <v>0.4563930592143924</v>
       </c>
       <c r="AJ6">
-        <v>0.4515543651412357</v>
+        <v>0.4544875792401861</v>
       </c>
       <c r="AK6">
-        <v>0.4549458712302308</v>
+        <v>0.4567608555300102</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1207,112 +1207,112 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4313056733383926</v>
+        <v>0.4439814773921383</v>
       </c>
       <c r="C7">
-        <v>0.4259583679138709</v>
+        <v>0.420899044185475</v>
       </c>
       <c r="D7">
-        <v>0.3826722279179548</v>
+        <v>0.3285846156833978</v>
       </c>
       <c r="E7">
-        <v>0.4281222893599137</v>
+        <v>0.4521180031281782</v>
       </c>
       <c r="F7">
-        <v>0.4407324096323826</v>
+        <v>0.4054618816932766</v>
       </c>
       <c r="G7">
-        <v>0.4509108704319139</v>
+        <v>0.4442316469344164</v>
       </c>
       <c r="H7">
-        <v>0.4507063364119909</v>
+        <v>0.4040585353344923</v>
       </c>
       <c r="I7">
-        <v>0.4447528513589969</v>
+        <v>0.3924155954517703</v>
       </c>
       <c r="J7">
-        <v>0.4357067341848402</v>
+        <v>0.408511728582691</v>
       </c>
       <c r="K7">
-        <v>0.4411821473185065</v>
+        <v>0.4539387298686512</v>
       </c>
       <c r="L7">
-        <v>0.4453843200508299</v>
+        <v>0.4517323581852664</v>
       </c>
       <c r="M7">
-        <v>0.4394319409506369</v>
+        <v>0.4492014690448784</v>
       </c>
       <c r="N7">
-        <v>0.4317463417141595</v>
+        <v>0.3734823682050116</v>
       </c>
       <c r="O7">
-        <v>0.4260884573725396</v>
+        <v>0.4391804130832169</v>
       </c>
       <c r="P7">
-        <v>0.3846442427486289</v>
+        <v>0.3690930674698366</v>
       </c>
       <c r="Q7">
-        <v>0.4307735697244344</v>
+        <v>0.4276387716334583</v>
       </c>
       <c r="R7">
-        <v>0.4287042272088736</v>
+        <v>0.4514995424488619</v>
       </c>
       <c r="S7">
-        <v>0.4478426840082487</v>
+        <v>0.4507673505568701</v>
       </c>
       <c r="T7">
-        <v>0.4473185275687281</v>
+        <v>0.4082658927270694</v>
       </c>
       <c r="U7">
-        <v>0.4362132709520995</v>
+        <v>0.3979088874115418</v>
       </c>
       <c r="V7">
-        <v>0.438376655313697</v>
+        <v>0.371661797817199</v>
       </c>
       <c r="W7">
-        <v>0.4433016500178222</v>
+        <v>0.4514389384781026</v>
       </c>
       <c r="X7">
-        <v>0.4468459441236154</v>
+        <v>0.4404450733740822</v>
       </c>
       <c r="Y7">
-        <v>0.4415262561117845</v>
+        <v>0.3574782668124159</v>
       </c>
       <c r="Z7">
-        <v>0.435053871583739</v>
+        <v>0.4343056911351687</v>
       </c>
       <c r="AA7">
-        <v>0.4321929960653355</v>
+        <v>0.4369625699764418</v>
       </c>
       <c r="AB7">
-        <v>0.4060868867762057</v>
+        <v>0.3741127268590502</v>
       </c>
       <c r="AC7">
-        <v>0.4365332321922062</v>
+        <v>0.4299017186912852</v>
       </c>
       <c r="AD7">
-        <v>0.4336403221880196</v>
+        <v>0.4019083091937483</v>
       </c>
       <c r="AE7">
-        <v>0.4473441439794236</v>
+        <v>0.4270038705331951</v>
       </c>
       <c r="AF7">
-        <v>0.4451275871770691</v>
+        <v>0.4171853725251024</v>
       </c>
       <c r="AG7">
-        <v>0.4369738311918088</v>
+        <v>0.4126700206890453</v>
       </c>
       <c r="AH7">
-        <v>0.4414219806214744</v>
+        <v>0.3913371263793072</v>
       </c>
       <c r="AI7">
-        <v>0.4453670822398684</v>
+        <v>0.404581606090021</v>
       </c>
       <c r="AJ7">
-        <v>0.4485659701155514</v>
+        <v>0.4456670443396244</v>
       </c>
       <c r="AK7">
-        <v>0.4434753494399711</v>
+        <v>0.3777649098303988</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -1320,112 +1320,112 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4525338701638065</v>
+        <v>0.454075951907429</v>
       </c>
       <c r="C8">
-        <v>0.4428667498467023</v>
+        <v>0.4336147870177804</v>
       </c>
       <c r="D8">
-        <v>0.4298644177435844</v>
+        <v>0.3970552870027582</v>
       </c>
       <c r="E8">
-        <v>0.447346491417199</v>
+        <v>0.4543453816583506</v>
       </c>
       <c r="F8">
-        <v>0.4500748029586145</v>
+        <v>0.4312592020228552</v>
       </c>
       <c r="G8">
-        <v>0.4547138272577878</v>
+        <v>0.4479752649100122</v>
       </c>
       <c r="H8">
-        <v>0.4547447245614194</v>
+        <v>0.415147330147731</v>
       </c>
       <c r="I8">
-        <v>0.4548381706253354</v>
+        <v>0.4273550056230027</v>
       </c>
       <c r="J8">
-        <v>0.4419484827450906</v>
+        <v>0.4266255396443445</v>
       </c>
       <c r="K8">
-        <v>0.4497644494110329</v>
+        <v>0.4557370882458743</v>
       </c>
       <c r="L8">
-        <v>0.4443280394658137</v>
+        <v>0.4481526237087198</v>
       </c>
       <c r="M8">
-        <v>0.4496676363562758</v>
+        <v>0.4532299054411768</v>
       </c>
       <c r="N8">
-        <v>0.4497201885806899</v>
+        <v>0.4009838520832507</v>
       </c>
       <c r="O8">
-        <v>0.4416766417964095</v>
+        <v>0.4388882443995669</v>
       </c>
       <c r="P8">
-        <v>0.4258841984129383</v>
+        <v>0.3784857028133139</v>
       </c>
       <c r="Q8">
-        <v>0.445252613127989</v>
+        <v>0.4377695333534574</v>
       </c>
       <c r="R8">
-        <v>0.4389874514279497</v>
+        <v>0.4544419403078641</v>
       </c>
       <c r="S8">
-        <v>0.4538029038758027</v>
+        <v>0.4512268185591319</v>
       </c>
       <c r="T8">
-        <v>0.4540288786101815</v>
+        <v>0.3844937466780218</v>
       </c>
       <c r="U8">
-        <v>0.4523201835980896</v>
+        <v>0.3980329447643942</v>
       </c>
       <c r="V8">
-        <v>0.4435301163940916</v>
+        <v>0.3584962400890773</v>
       </c>
       <c r="W8">
-        <v>0.4501189482379608</v>
+        <v>0.4520525514851251</v>
       </c>
       <c r="X8">
-        <v>0.4454082649679363</v>
+        <v>0.4168857742948243</v>
       </c>
       <c r="Y8">
-        <v>0.449430644317974</v>
+        <v>0.3386205590693662</v>
       </c>
       <c r="Z8">
-        <v>0.4485401931321027</v>
+        <v>0.429276155107386</v>
       </c>
       <c r="AA8">
-        <v>0.4428549271094333</v>
+        <v>0.4147405293819875</v>
       </c>
       <c r="AB8">
-        <v>0.4331283598715029</v>
+        <v>0.307498740157039</v>
       </c>
       <c r="AC8">
-        <v>0.4431960631984613</v>
+        <v>0.4228743929730355</v>
       </c>
       <c r="AD8">
-        <v>0.440012592746781</v>
+        <v>0.3618335346027592</v>
       </c>
       <c r="AE8">
-        <v>0.4515694830830421</v>
+        <v>0.3719887845382848</v>
       </c>
       <c r="AF8">
-        <v>0.4511436454169423</v>
+        <v>0.3386582073980798</v>
       </c>
       <c r="AG8">
-        <v>0.4510903875975698</v>
+        <v>0.366602214724704</v>
       </c>
       <c r="AH8">
-        <v>0.4433200253830504</v>
+        <v>0.3126419268653406</v>
       </c>
       <c r="AI8">
-        <v>0.448552223991908</v>
+        <v>0.2918123232938453</v>
       </c>
       <c r="AJ8">
-        <v>0.4447296296036332</v>
+        <v>0.4189207391800252</v>
       </c>
       <c r="AK8">
-        <v>0.4476556025937907</v>
+        <v>0.2703371995408196</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -1433,112 +1433,112 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4523399168568091</v>
+        <v>0.451969283448706</v>
       </c>
       <c r="C9">
-        <v>0.4360133076912344</v>
+        <v>0.3974960377783498</v>
       </c>
       <c r="D9">
-        <v>0.4187499273963874</v>
+        <v>0.3145098360949598</v>
       </c>
       <c r="E9">
-        <v>0.4371659489068462</v>
+        <v>0.4545314855872739</v>
       </c>
       <c r="F9">
-        <v>0.4476857556972853</v>
+        <v>0.4092296355131635</v>
       </c>
       <c r="G9">
-        <v>0.4557195790191486</v>
+        <v>0.4386665911026169</v>
       </c>
       <c r="H9">
-        <v>0.4565675271976875</v>
+        <v>0.3925441811078829</v>
       </c>
       <c r="I9">
-        <v>0.4567836792662929</v>
+        <v>0.4136769237555772</v>
       </c>
       <c r="J9">
-        <v>0.443265227121176</v>
+        <v>0.4199310663382691</v>
       </c>
       <c r="K9">
-        <v>0.4516939506585806</v>
+        <v>0.45828171099288</v>
       </c>
       <c r="L9">
-        <v>0.4468585847945561</v>
+        <v>0.4502333364258491</v>
       </c>
       <c r="M9">
-        <v>0.4527002501235072</v>
+        <v>0.4560195891797272</v>
       </c>
       <c r="N9">
-        <v>0.4534042052098582</v>
+        <v>0.4107765465401998</v>
       </c>
       <c r="O9">
-        <v>0.4461625664291383</v>
+        <v>0.4453769833053898</v>
       </c>
       <c r="P9">
-        <v>0.4330257662226571</v>
+        <v>0.4038477648141811</v>
       </c>
       <c r="Q9">
-        <v>0.4530709270128437</v>
+        <v>0.4472929373839017</v>
       </c>
       <c r="R9">
-        <v>0.4454079544715653</v>
+        <v>0.4581579359719696</v>
       </c>
       <c r="S9">
-        <v>0.4583600301557225</v>
+        <v>0.4570093093944515</v>
       </c>
       <c r="T9">
-        <v>0.4582942171020817</v>
+        <v>0.4255522187101644</v>
       </c>
       <c r="U9">
-        <v>0.4573280501669161</v>
+        <v>0.4346969572788323</v>
       </c>
       <c r="V9">
-        <v>0.4503902042946569</v>
+        <v>0.4220350089645102</v>
       </c>
       <c r="W9">
-        <v>0.4573284881562998</v>
+        <v>0.4573130719954717</v>
       </c>
       <c r="X9">
-        <v>0.4523998848378068</v>
+        <v>0.4464822352899266</v>
       </c>
       <c r="Y9">
-        <v>0.4566561871965446</v>
+        <v>0.4256311485934267</v>
       </c>
       <c r="Z9">
-        <v>0.4568977101954344</v>
+        <v>0.4519623082974373</v>
       </c>
       <c r="AA9">
-        <v>0.4524146775526686</v>
+        <v>0.4493186180958466</v>
       </c>
       <c r="AB9">
-        <v>0.4490194700929221</v>
+        <v>0.4280476875958888</v>
       </c>
       <c r="AC9">
-        <v>0.4579215105939569</v>
+        <v>0.452662578339534</v>
       </c>
       <c r="AD9">
-        <v>0.4537380435387737</v>
+        <v>0.4429955472928583</v>
       </c>
       <c r="AE9">
-        <v>0.4588785913732916</v>
+        <v>0.4461245583386999</v>
       </c>
       <c r="AF9">
-        <v>0.4581858024396436</v>
+        <v>0.4428219947355252</v>
       </c>
       <c r="AG9">
-        <v>0.4585299780347154</v>
+        <v>0.4478921953820694</v>
       </c>
       <c r="AH9">
-        <v>0.4534324914499894</v>
+        <v>0.4429622242848454</v>
       </c>
       <c r="AI9">
-        <v>0.4589876197118976</v>
+        <v>0.4424515701517959</v>
       </c>
       <c r="AJ9">
-        <v>0.4547109806442026</v>
+        <v>0.4556856555306954</v>
       </c>
       <c r="AK9">
-        <v>0.4579349308719368</v>
+        <v>0.4438161175561494</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -1546,94 +1546,94 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4728931228045622</v>
+        <v>0.4744271599127278</v>
       </c>
       <c r="C10">
-        <v>0.4531697616705359</v>
+        <v>0.4200634470924008</v>
       </c>
       <c r="D10">
-        <v>0.4658426349247223</v>
+        <v>0.4802518359539932</v>
       </c>
       <c r="E10">
-        <v>0.4596735334678869</v>
+        <v>0.4796277805435023</v>
       </c>
       <c r="F10">
-        <v>0.4789037792714488</v>
+        <v>0.4789797647524041</v>
       </c>
       <c r="G10">
-        <v>0.4698951484456899</v>
+        <v>0.4630613377236301</v>
       </c>
       <c r="H10">
-        <v>0.4744254605339623</v>
+        <v>0.4374550960540322</v>
       </c>
       <c r="I10">
-        <v>0.4769678215929086</v>
+        <v>0.4731702292779644</v>
       </c>
       <c r="J10">
-        <v>0.4663338203828096</v>
+        <v>0.4770758386004722</v>
       </c>
       <c r="K10">
-        <v>0.4764140933953585</v>
+        <v>0.4769143392856303</v>
       </c>
       <c r="L10">
-        <v>0.4607779596307489</v>
+        <v>0.3215344117311235</v>
       </c>
       <c r="M10">
-        <v>0.4734336318679554</v>
+        <v>0.4759510537092214</v>
       </c>
       <c r="N10">
-        <v>0.4751492325870679</v>
+        <v>0.4764401097007395</v>
       </c>
       <c r="O10">
-        <v>0.4620285286967006</v>
+        <v>0.4620309475340438</v>
       </c>
       <c r="P10">
-        <v>0.460227567315856</v>
+        <v>0.4764104675426828</v>
       </c>
       <c r="Q10">
-        <v>0.4758049822680648</v>
+        <v>0.4767085038888473</v>
       </c>
       <c r="R10">
-        <v>0.4676516901373378</v>
+        <v>0.4769944253526081</v>
       </c>
       <c r="S10">
-        <v>0.4711358968669249</v>
+        <v>0.4745053292344971</v>
       </c>
       <c r="T10">
-        <v>0.4756455907493631</v>
+        <v>0.4587365679745092</v>
       </c>
       <c r="U10">
         <v>0.4777860802465497</v>
       </c>
       <c r="V10">
-        <v>0.4699504750441198</v>
+        <v>0.4780298941641791</v>
       </c>
       <c r="W10">
         <v>0.4782645547618973</v>
       </c>
       <c r="X10">
-        <v>0.4714019798667243</v>
+        <v>0.4784905380260395</v>
       </c>
       <c r="Y10">
-        <v>0.4784741080146757</v>
+        <v>0.4787082884369913</v>
       </c>
       <c r="Z10">
-        <v>0.4769857806078404</v>
+        <v>0.4789182214950746</v>
       </c>
       <c r="AA10">
-        <v>0.4731248582356701</v>
+        <v>0.4791207260092014</v>
       </c>
       <c r="AB10">
-        <v>0.4716386799793323</v>
+        <v>0.4793161661737745</v>
       </c>
       <c r="AC10">
-        <v>0.4787646711556321</v>
+        <v>0.4795048834562419</v>
       </c>
       <c r="AD10">
-        <v>0.4753657692882104</v>
+        <v>0.4796871983150489</v>
       </c>
       <c r="AE10">
-        <v>0.4767865211053447</v>
+        <v>0.4665076819335016</v>
       </c>
       <c r="AF10">
         <v>0.4800338068083901</v>
@@ -1642,16 +1642,16 @@
         <v>0.4801986497367497</v>
       </c>
       <c r="AH10">
-        <v>0.4741883205221829</v>
+        <v>0.4803581913300337</v>
       </c>
       <c r="AI10">
         <v>0.4805126679493418</v>
       </c>
       <c r="AJ10">
-        <v>0.4756581557686995</v>
+        <v>0.4806623025415994</v>
       </c>
       <c r="AK10">
-        <v>0.4804031452709837</v>
+        <v>0.480807305561831</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -1659,112 +1659,112 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2607964469848619</v>
+        <v>0.335733533650149</v>
       </c>
       <c r="C11">
-        <v>0.2565386596549764</v>
+        <v>0.2722304726327976</v>
       </c>
       <c r="D11">
-        <v>0.2030092825829737</v>
+        <v>0.1010423946691935</v>
       </c>
       <c r="E11">
-        <v>0.3230648603234632</v>
+        <v>0.3375083040431987</v>
       </c>
       <c r="F11">
-        <v>0.2406292957119588</v>
+        <v>0.2787669478604933</v>
       </c>
       <c r="G11">
-        <v>0.2669594532925547</v>
+        <v>0.3017361445730986</v>
       </c>
       <c r="H11">
-        <v>0.2802553765624345</v>
+        <v>0.2503726353196256</v>
       </c>
       <c r="I11">
-        <v>0.2655716217465407</v>
+        <v>0.2615559068041513</v>
       </c>
       <c r="J11">
-        <v>0.2388849275578409</v>
+        <v>0.2679982116528914</v>
       </c>
       <c r="K11">
-        <v>0.227003810299775</v>
+        <v>0.3051083889485453</v>
       </c>
       <c r="L11">
-        <v>0.229156605832251</v>
+        <v>0.2898380584950171</v>
       </c>
       <c r="M11">
-        <v>0.2334089645430744</v>
+        <v>0.2953050742605196</v>
       </c>
       <c r="N11">
-        <v>0.2057445667334913</v>
+        <v>0.1860988605447229</v>
       </c>
       <c r="O11">
-        <v>0.2015114406908866</v>
+        <v>0.2632600210549426</v>
       </c>
       <c r="P11">
-        <v>0.1361862664472238</v>
+        <v>0.1406600619877715</v>
       </c>
       <c r="Q11">
-        <v>0.2494726655896038</v>
+        <v>0.2940634496576738</v>
       </c>
       <c r="R11">
-        <v>0.1795808963519785</v>
+        <v>0.2928215118510026</v>
       </c>
       <c r="S11">
-        <v>0.2215528356002043</v>
+        <v>0.2910667405885455</v>
       </c>
       <c r="T11">
-        <v>0.23869928849254</v>
+        <v>0.2394502475764285</v>
       </c>
       <c r="U11">
-        <v>0.215235694341201</v>
+        <v>0.2519270209785383</v>
       </c>
       <c r="V11">
-        <v>0.2296327425292631</v>
+        <v>0.2283408724341633</v>
       </c>
       <c r="W11">
-        <v>0.2233637005837771</v>
+        <v>0.2975092698381142</v>
       </c>
       <c r="X11">
-        <v>0.2286536510484817</v>
+        <v>0.2696084563549624</v>
       </c>
       <c r="Y11">
-        <v>0.2355530280849465</v>
+        <v>0.2196578385395192</v>
       </c>
       <c r="Z11">
-        <v>0.2155227501759207</v>
+        <v>0.2767033105819414</v>
       </c>
       <c r="AA11">
-        <v>0.2166677085065504</v>
+        <v>0.2687632538581432</v>
       </c>
       <c r="AB11">
-        <v>0.1672338871994424</v>
+        <v>0.1668231149065111</v>
       </c>
       <c r="AC11">
-        <v>0.2510292229425787</v>
+        <v>0.06385008408241832</v>
       </c>
       <c r="AD11">
-        <v>0.1760367170986978</v>
+        <v>0.2557225391527915</v>
       </c>
       <c r="AE11">
-        <v>0.2211632273706798</v>
+        <v>0.267513475968182</v>
       </c>
       <c r="AF11">
-        <v>0.2253366611124128</v>
+        <v>0.2618507847920341</v>
       </c>
       <c r="AG11">
-        <v>0.2190820841079297</v>
+        <v>0.2742896921965158</v>
       </c>
       <c r="AH11">
-        <v>0.2401774973788339</v>
+        <v>0.2568428552783527</v>
       </c>
       <c r="AI11">
-        <v>0.2344722954573134</v>
+        <v>0.2573924216815033</v>
       </c>
       <c r="AJ11">
-        <v>0.2390583123272311</v>
+        <v>0.2966367044922568</v>
       </c>
       <c r="AK11">
-        <v>0.2446364945071677</v>
+        <v>0.2471857134776186</v>
       </c>
     </row>
     <row r="12" spans="1:37">
@@ -1772,112 +1772,112 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4128100011255043</v>
+        <v>0.1971747575191442</v>
       </c>
       <c r="C12">
-        <v>0.4094921864145525</v>
+        <v>0.3659178944642886</v>
       </c>
       <c r="D12">
-        <v>0.4215332168074313</v>
+        <v>0.4421141532377794</v>
       </c>
       <c r="E12">
-        <v>0.4411775422305235</v>
+        <v>0.4432639397709673</v>
       </c>
       <c r="F12">
-        <v>0.4316395396560643</v>
+        <v>0.4444725851947608</v>
       </c>
       <c r="G12">
-        <v>0.4225922235881516</v>
+        <v>0.4205094571312887</v>
       </c>
       <c r="H12">
-        <v>0.4263056676461063</v>
+        <v>0.3529272131621792</v>
       </c>
       <c r="I12">
-        <v>0.4227961794053231</v>
+        <v>0.3530454451694855</v>
       </c>
       <c r="J12">
-        <v>0.4298203204205565</v>
+        <v>0.4207801770210993</v>
       </c>
       <c r="K12">
-        <v>0.437759549382302</v>
+        <v>0.4521503029402429</v>
       </c>
       <c r="L12">
-        <v>0.4453337795491705</v>
+        <v>0.4538897538126311</v>
       </c>
       <c r="M12">
-        <v>0.439722511223916</v>
+        <v>0.4556353073247582</v>
       </c>
       <c r="N12">
-        <v>0.4514590265324255</v>
+        <v>0.4573869956485498</v>
       </c>
       <c r="O12">
-        <v>0.4486721599051811</v>
+        <v>0.459144851182469</v>
       </c>
       <c r="P12">
-        <v>0.4401340763659574</v>
+        <v>0.4584753686265834</v>
       </c>
       <c r="Q12">
-        <v>0.4590964783792175</v>
+        <v>0.4585033021624605</v>
       </c>
       <c r="R12">
-        <v>0.4489197168101556</v>
+        <v>0.45853023054561</v>
       </c>
       <c r="S12">
-        <v>0.4394213004813308</v>
+        <v>0.4527919185955516</v>
       </c>
       <c r="T12">
-        <v>0.4343969153050465</v>
+        <v>0.3775232681135602</v>
       </c>
       <c r="U12">
-        <v>0.423412239754688</v>
+        <v>0.3692278403844154</v>
       </c>
       <c r="V12">
-        <v>0.4529976148826512</v>
+        <v>0.4586289047777827</v>
       </c>
       <c r="W12">
-        <v>0.4586478429155357</v>
+        <v>0.4586515373271361</v>
       </c>
       <c r="X12">
-        <v>0.4534783684181803</v>
+        <v>0.4586734348229149</v>
       </c>
       <c r="Y12">
-        <v>0.4575011407830554</v>
+        <v>0.4586946325022042</v>
       </c>
       <c r="Z12">
-        <v>0.4579363119085288</v>
+        <v>0.4587151633852463</v>
       </c>
       <c r="AA12">
-        <v>0.4534850922686322</v>
+        <v>0.4587350584470754</v>
       </c>
       <c r="AB12">
-        <v>0.4507267082321048</v>
+        <v>0.4587543467734472</v>
       </c>
       <c r="AC12">
-        <v>0.4592597876993902</v>
+        <v>0.4587730557027185</v>
       </c>
       <c r="AD12">
-        <v>0.4547949227170515</v>
+        <v>0.4587912109551293</v>
       </c>
       <c r="AE12">
-        <v>0.4448792155453766</v>
+        <v>0.4178324773429678</v>
       </c>
       <c r="AF12">
-        <v>0.4328726737316889</v>
+        <v>0.393323612525639</v>
       </c>
       <c r="AG12">
-        <v>0.4303768450681951</v>
+        <v>0.3809741114924372</v>
       </c>
       <c r="AH12">
-        <v>0.4538301291921492</v>
+        <v>0.4588587592964219</v>
       </c>
       <c r="AI12">
-        <v>0.459340114942965</v>
+        <v>0.4588744830497535</v>
       </c>
       <c r="AJ12">
-        <v>0.4549958532271001</v>
+        <v>0.458889779414988</v>
       </c>
       <c r="AK12">
-        <v>0.4581850157002205</v>
+        <v>0.4589046655837666</v>
       </c>
     </row>
     <row r="13" spans="1:37">
@@ -1885,112 +1885,112 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3328910375311212</v>
+        <v>0.3267511311416535</v>
       </c>
       <c r="C13">
-        <v>0.2722569985063594</v>
+        <v>0.1113817545546245</v>
       </c>
       <c r="D13">
-        <v>0.3332188661583214</v>
+        <v>0.3537998025886695</v>
       </c>
       <c r="E13">
-        <v>0.3513123884924155</v>
+        <v>0.3533987860328593</v>
       </c>
       <c r="F13">
-        <v>0.2878570047315856</v>
+        <v>0.3001958732579012</v>
       </c>
       <c r="G13">
-        <v>0.2769326083531283</v>
+        <v>0.3241811645001614</v>
       </c>
       <c r="H13">
-        <v>0.2969759260991617</v>
+        <v>0.2693156300892006</v>
       </c>
       <c r="I13">
-        <v>0.2860459600396972</v>
+        <v>0.2790712327174428</v>
       </c>
       <c r="J13">
-        <v>0.3057488341370331</v>
+        <v>0.2084751680900125</v>
       </c>
       <c r="K13">
-        <v>0.3034785377858908</v>
+        <v>0.3473756748215033</v>
       </c>
       <c r="L13">
-        <v>0.3484257888153983</v>
+        <v>0.3602058545253363</v>
       </c>
       <c r="M13">
-        <v>0.3543828444762793</v>
+        <v>0.3625058357018943</v>
       </c>
       <c r="N13">
-        <v>0.3626397826042056</v>
+        <v>0.3648139002464227</v>
       </c>
       <c r="O13">
-        <v>0.3281921528498308</v>
+        <v>0.367130090847876</v>
       </c>
       <c r="P13">
-        <v>0.3507041638726298</v>
+        <v>0.3705700875066724</v>
       </c>
       <c r="Q13">
-        <v>0.3737175071161772</v>
+        <v>0.3746210287369597</v>
       </c>
       <c r="R13">
-        <v>0.3301111076218525</v>
+        <v>0.3758465177910236</v>
       </c>
       <c r="S13">
-        <v>0.3034167081726932</v>
+        <v>0.3754090056702005</v>
       </c>
       <c r="T13">
-        <v>0.3124308290773961</v>
+        <v>0.3140350718660658</v>
       </c>
       <c r="U13">
-        <v>0.289310293681795</v>
+        <v>0.321370442758103</v>
       </c>
       <c r="V13">
-        <v>0.3699275337426647</v>
+        <v>0.3928360092993864</v>
       </c>
       <c r="W13">
-        <v>0.3706309472189616</v>
+        <v>0.396118197695643</v>
       </c>
       <c r="X13">
-        <v>0.3927721565181613</v>
+        <v>0.399293788099981</v>
       </c>
       <c r="Y13">
-        <v>0.4000011625971994</v>
+        <v>0.4023678906195051</v>
       </c>
       <c r="Z13">
-        <v>0.4032816057818041</v>
+        <v>0.4053452938732752</v>
       </c>
       <c r="AA13">
-        <v>0.4002384371600491</v>
+        <v>0.4082304898827256</v>
       </c>
       <c r="AB13">
-        <v>0.4017544049169562</v>
+        <v>0.4110276966848514</v>
       </c>
       <c r="AC13">
-        <v>0.4130006666069698</v>
+        <v>0.4137408789075795</v>
       </c>
       <c r="AD13">
-        <v>0.39723613824222</v>
+        <v>0.1735737665184019</v>
       </c>
       <c r="AE13">
-        <v>0.3465668875254936</v>
+        <v>0.3659948925299632</v>
       </c>
       <c r="AF13">
-        <v>0.3361650633602816</v>
+        <v>0.3629686631544192</v>
       </c>
       <c r="AG13">
-        <v>0.3340963594455776</v>
+        <v>0.3695602980308544</v>
       </c>
       <c r="AH13">
-        <v>0.4199998041835743</v>
+        <v>0.4261696749914251</v>
       </c>
       <c r="AI13">
-        <v>0.4237532000402313</v>
+        <v>0.4284499448772741</v>
       </c>
       <c r="AJ13">
-        <v>0.4256640878645582</v>
+        <v>0.4306682346374581</v>
       </c>
       <c r="AK13">
-        <v>0.4310120531162378</v>
+        <v>0.4328270374160172</v>
       </c>
     </row>
     <row r="14" spans="1:37">
@@ -1998,112 +1998,112 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5136309012030111</v>
+        <v>0.5251002044135358</v>
       </c>
       <c r="C14">
-        <v>0.4740276514293271</v>
+        <v>0.4257696228298464</v>
       </c>
       <c r="D14">
-        <v>0.5219068985696783</v>
+        <v>0.5418842442885924</v>
       </c>
       <c r="E14">
-        <v>0.5105945672007551</v>
+        <v>0.5407286229359398</v>
       </c>
       <c r="F14">
         <v>0.5396345166515704</v>
       </c>
       <c r="G14">
-        <v>0.5080893480296657</v>
+        <v>0.5129146677341248</v>
       </c>
       <c r="H14">
-        <v>0.5272549180289254</v>
+        <v>0.4856407887088022</v>
       </c>
       <c r="I14">
-        <v>0.5243135810097842</v>
+        <v>0.496561080819422</v>
       </c>
       <c r="J14">
-        <v>0.5037278964069517</v>
+        <v>0.5359910283095969</v>
       </c>
       <c r="K14">
         <v>0.5352361425601238</v>
       </c>
       <c r="L14">
-        <v>0.5131641003830657</v>
+        <v>0.5345136424834278</v>
       </c>
       <c r="M14">
-        <v>0.5186579205748271</v>
+        <v>0.5303058707032818</v>
       </c>
       <c r="N14">
-        <v>0.5116233566811001</v>
+        <v>0.3464922261465587</v>
       </c>
       <c r="O14">
-        <v>0.4797908579528702</v>
+        <v>0.4633723458804718</v>
       </c>
       <c r="P14">
-        <v>0.5101254977448415</v>
+        <v>0.5289107153238362</v>
       </c>
       <c r="Q14">
-        <v>0.5158304931537321</v>
+        <v>0.5276530256301635</v>
       </c>
       <c r="R14">
-        <v>0.5174471351990613</v>
+        <v>0.526419581557084</v>
       </c>
       <c r="S14">
-        <v>0.4917485544981042</v>
+        <v>0.5188060698831616</v>
       </c>
       <c r="T14">
-        <v>0.5108151277253103</v>
+        <v>0.4785005547437218</v>
       </c>
       <c r="U14">
-        <v>0.5037977111359497</v>
+        <v>0.4836579026656331</v>
       </c>
       <c r="V14">
-        <v>0.5000041667270558</v>
+        <v>0.5217149009788842</v>
       </c>
       <c r="W14">
-        <v>0.5214681047530028</v>
+        <v>0.5205928733659441</v>
       </c>
       <c r="X14">
-        <v>0.5059585243578038</v>
+        <v>0.5194913279989957</v>
       </c>
       <c r="Y14">
-        <v>0.5086662753011006</v>
+        <v>0.4306866911116647</v>
       </c>
       <c r="Z14">
-        <v>0.5030585007692959</v>
+        <v>0.5173474987704881</v>
       </c>
       <c r="AA14">
-        <v>0.4790909714463399</v>
+        <v>0.2735041697464177</v>
       </c>
       <c r="AB14">
-        <v>0.5068888969656041</v>
+        <v>0.5152792310508111</v>
       </c>
       <c r="AC14">
-        <v>0.5117764263524847</v>
+        <v>0.5142722040392466</v>
       </c>
       <c r="AD14">
-        <v>0.5089343762613512</v>
+        <v>0.5132826263381666</v>
       </c>
       <c r="AE14">
-        <v>0.4780664667837433</v>
+        <v>0.4625109227731136</v>
       </c>
       <c r="AF14">
-        <v>0.4946639719057617</v>
+        <v>0.474031111667166</v>
       </c>
       <c r="AG14">
-        <v>0.4929891371638547</v>
+        <v>0.4795727395850759</v>
       </c>
       <c r="AH14">
-        <v>0.4944873387896433</v>
+        <v>0.5094900939333419</v>
       </c>
       <c r="AI14">
-        <v>0.5088809485028505</v>
+        <v>0.5085813514060216</v>
       </c>
       <c r="AJ14">
-        <v>0.49913079421297</v>
+        <v>0.5076875901783172</v>
       </c>
       <c r="AK14">
-        <v>0.5002658411002676</v>
+        <v>0.3372622495075954</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -2111,112 +2111,112 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4137516287514929</v>
+        <v>0.452639339563814</v>
       </c>
       <c r="C15">
-        <v>0.327803648169544</v>
+        <v>0.3454757355795843</v>
       </c>
       <c r="D15">
         <v>0.4602887965087483</v>
       </c>
       <c r="E15">
-        <v>0.2284051552380428</v>
+        <v>0.2157644989347552</v>
       </c>
       <c r="F15">
-        <v>0.4330684459061954</v>
+        <v>0.4262480154770539</v>
       </c>
       <c r="G15">
-        <v>0.3811027614665896</v>
+        <v>0.3970720717611199</v>
       </c>
       <c r="H15">
-        <v>0.4217358520088902</v>
+        <v>0.3245764789031274</v>
       </c>
       <c r="I15">
-        <v>0.4289886347604623</v>
+        <v>0.3939131219912141</v>
       </c>
       <c r="J15">
-        <v>0.3816995830423155</v>
+        <v>0.3114499675639203</v>
       </c>
       <c r="K15">
-        <v>0.4001799395446078</v>
+        <v>0.4493998404182377</v>
       </c>
       <c r="L15">
-        <v>0.311020675018871</v>
+        <v>0.3717430215809332</v>
       </c>
       <c r="M15">
-        <v>0.3761999592255219</v>
+        <v>0.4366115192356034</v>
       </c>
       <c r="N15">
-        <v>0.3928117994240994</v>
+        <v>0.3749274907808858</v>
       </c>
       <c r="O15">
-        <v>0.3236437701705265</v>
+        <v>0.403049429308883</v>
       </c>
       <c r="P15">
         <v>0.4469873342998466</v>
       </c>
       <c r="Q15">
-        <v>0.2494829518522306</v>
+        <v>0.2043700970477647</v>
       </c>
       <c r="R15">
-        <v>0.3963559850945737</v>
+        <v>0.4453475548300603</v>
       </c>
       <c r="S15">
-        <v>0.3523596070695179</v>
+        <v>0.4348918394502106</v>
       </c>
       <c r="T15">
-        <v>0.395462191926872</v>
+        <v>0.3354135274836973</v>
       </c>
       <c r="U15">
-        <v>0.4014446839811212</v>
+        <v>0.3912148776550897</v>
       </c>
       <c r="V15">
-        <v>0.377745202665893</v>
+        <v>0.2336712001401112</v>
       </c>
       <c r="W15">
-        <v>0.3940924180399648</v>
+        <v>0.4411308360767364</v>
       </c>
       <c r="X15">
-        <v>0.3190148394425362</v>
+        <v>0.2883392378749765</v>
       </c>
       <c r="Y15">
-        <v>0.3751265160701368</v>
+        <v>0.2277947129708353</v>
       </c>
       <c r="Z15">
-        <v>0.3890864438255891</v>
+        <v>0.4280135109683794</v>
       </c>
       <c r="AA15">
-        <v>0.334203182956081</v>
+        <v>0.395871390603998</v>
       </c>
       <c r="AB15">
-        <v>0.4329362716406048</v>
+        <v>0.4312746532886614</v>
       </c>
       <c r="AC15">
-        <v>0.2858244021075214</v>
+        <v>0.3126405987211555</v>
       </c>
       <c r="AD15">
-        <v>0.3828728811090603</v>
+        <v>0.3997160923087394</v>
       </c>
       <c r="AE15">
-        <v>0.3402497470275886</v>
+        <v>0.3627778309731738</v>
       </c>
       <c r="AF15">
-        <v>0.3733808361436371</v>
+        <v>0.3584178357883684</v>
       </c>
       <c r="AG15">
-        <v>0.394820852094207</v>
+        <v>0.4037889108634135</v>
       </c>
       <c r="AH15">
-        <v>0.3780602059165957</v>
+        <v>0.3024572281978084</v>
       </c>
       <c r="AI15">
-        <v>0.3918595566153052</v>
+        <v>0.3403907435347655</v>
       </c>
       <c r="AJ15">
-        <v>0.3267247671870455</v>
+        <v>0.3828197799185055</v>
       </c>
       <c r="AK15">
-        <v>0.3753517149525994</v>
+        <v>0.2874523589699648</v>
       </c>
     </row>
     <row r="16" spans="1:37">
@@ -2224,112 +2224,112 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5039776161605852</v>
+        <v>0.5303192499821981</v>
       </c>
       <c r="C16">
-        <v>0.4520341277716592</v>
+        <v>0.4789460921701372</v>
       </c>
       <c r="D16">
-        <v>0.3869237757253323</v>
+        <v>0.3938117749623275</v>
       </c>
       <c r="E16">
-        <v>0.391515193647795</v>
+        <v>0.5263387074925275</v>
       </c>
       <c r="F16">
-        <v>0.4633482511828675</v>
+        <v>0.4761247364307037</v>
       </c>
       <c r="G16">
-        <v>0.5021939569919346</v>
+        <v>0.5022030430858967</v>
       </c>
       <c r="H16">
-        <v>0.5072207795810492</v>
+        <v>0.4472630258630224</v>
       </c>
       <c r="I16">
-        <v>0.5030978373671224</v>
+        <v>0.4661015719850501</v>
       </c>
       <c r="J16">
-        <v>0.4583723001785757</v>
+        <v>0.4718156310050631</v>
       </c>
       <c r="K16">
-        <v>0.4659298038284364</v>
+        <v>0.5165288972632521</v>
       </c>
       <c r="L16">
-        <v>0.4653137031261072</v>
+        <v>0.5052634256229319</v>
       </c>
       <c r="M16">
-        <v>0.470209027104466</v>
+        <v>0.5115445517030253</v>
       </c>
       <c r="N16">
-        <v>0.4617543124486033</v>
+        <v>0.4485274700708636</v>
       </c>
       <c r="O16">
-        <v>0.4458885406898482</v>
+        <v>0.494206720192338</v>
       </c>
       <c r="P16">
-        <v>0.3841318192726185</v>
+        <v>0.4329981543566777</v>
       </c>
       <c r="Q16">
-        <v>0.4130022959300311</v>
+        <v>0.4972735618460957</v>
       </c>
       <c r="R16">
-        <v>0.4443497834943297</v>
+        <v>0.514851101426285</v>
       </c>
       <c r="S16">
-        <v>0.4919553187418321</v>
+        <v>0.5135546637578488</v>
       </c>
       <c r="T16">
-        <v>0.4993956668290949</v>
+        <v>0.4619825865341766</v>
       </c>
       <c r="U16">
-        <v>0.4933827142670328</v>
+        <v>0.4769152643751841</v>
       </c>
       <c r="V16">
-        <v>0.471746193154044</v>
+        <v>0.4535175646072894</v>
       </c>
       <c r="W16">
-        <v>0.4798962374073698</v>
+        <v>0.5195593289177847</v>
       </c>
       <c r="X16">
-        <v>0.4802242324361536</v>
+        <v>0.4995684327740272</v>
       </c>
       <c r="Y16">
-        <v>0.4857128964891303</v>
+        <v>0.4580171577713598</v>
       </c>
       <c r="Z16">
-        <v>0.4808834544159699</v>
+        <v>0.5111870578995985</v>
       </c>
       <c r="AA16">
-        <v>0.471703879004049</v>
+        <v>0.5059563208563878</v>
       </c>
       <c r="AB16">
-        <v>0.4329575675213845</v>
+        <v>0.4589372069607573</v>
       </c>
       <c r="AC16">
-        <v>0.4540769679155318</v>
+        <v>0.5139587870733168</v>
       </c>
       <c r="AD16">
-        <v>0.4599809394387668</v>
+        <v>0.4913154360217085</v>
       </c>
       <c r="AE16">
-        <v>0.5019291471395327</v>
+        <v>0.4985102607364866</v>
       </c>
       <c r="AF16">
-        <v>0.504483678972079</v>
+        <v>0.4897828198199183</v>
       </c>
       <c r="AG16">
-        <v>0.5048064059310899</v>
+        <v>0.5024853167488699</v>
       </c>
       <c r="AH16">
-        <v>0.48992694300436</v>
+        <v>0.4887446544279074</v>
       </c>
       <c r="AI16">
-        <v>0.4964748833257573</v>
+        <v>0.4864890561134415</v>
       </c>
       <c r="AJ16">
-        <v>0.4962538850367401</v>
+        <v>0.5242735980500531</v>
       </c>
       <c r="AK16">
-        <v>0.5004552774608043</v>
+        <v>0.4886610347285614</v>
       </c>
     </row>
     <row r="17" spans="1:37">
@@ -2337,112 +2337,112 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4564340153741535</v>
+        <v>0.46</v>
       </c>
       <c r="C17">
-        <v>0.4499028619549525</v>
+        <v>0.4436035645864613</v>
       </c>
       <c r="D17">
-        <v>0.4395734793789301</v>
+        <v>0.4216131985637915</v>
       </c>
       <c r="E17">
-        <v>0.4580902142459091</v>
+        <v>0.4590321259113905</v>
       </c>
       <c r="F17">
-        <v>0.4573395129439885</v>
+        <v>0.4472185015259863</v>
       </c>
       <c r="G17">
         <v>0.46</v>
       </c>
       <c r="H17">
-        <v>0.459617111287258</v>
+        <v>0.4432565101883283</v>
       </c>
       <c r="I17">
-        <v>0.4599062739039655</v>
+        <v>0.453871809737805</v>
       </c>
       <c r="J17">
-        <v>0.4493390324576775</v>
+        <v>0.4504111541438521</v>
       </c>
       <c r="K17">
-        <v>0.4572721821387896</v>
+        <v>0.4598997501002067</v>
       </c>
       <c r="L17">
-        <v>0.451521812011876</v>
+        <v>0.4579268446906147</v>
       </c>
       <c r="M17">
-        <v>0.4569739555506385</v>
+        <v>0.4593093181957837</v>
       </c>
       <c r="N17">
-        <v>0.45792864784194</v>
+        <v>0.4486110536538992</v>
       </c>
       <c r="O17">
-        <v>0.450822861730279</v>
+        <v>0.456793468073014</v>
       </c>
       <c r="P17">
-        <v>0.4403815170214988</v>
+        <v>0.4472415035942745</v>
       </c>
       <c r="Q17">
-        <v>0.4593365239230777</v>
+        <v>0.4572527211545077</v>
       </c>
       <c r="R17">
-        <v>0.4490723710908863</v>
+        <v>0.4597009015787084</v>
       </c>
       <c r="S17">
         <v>0.46</v>
       </c>
       <c r="T17">
-        <v>0.4594354620021038</v>
+        <v>0.4525138203089499</v>
       </c>
       <c r="U17">
-        <v>0.4585559249780695</v>
+        <v>0.4545624589081407</v>
       </c>
       <c r="V17">
-        <v>0.4520480356463902</v>
+        <v>0.4519007537911826</v>
       </c>
       <c r="W17">
-        <v>0.4587809067298591</v>
+        <v>0.4596131120290019</v>
       </c>
       <c r="X17">
-        <v>0.4536034992931556</v>
+        <v>0.4573563561056197</v>
       </c>
       <c r="Y17">
-        <v>0.457763857056574</v>
+        <v>0.453091557712498</v>
       </c>
       <c r="Z17">
-        <v>0.4580964251072145</v>
+        <v>0.4585305512918436</v>
       </c>
       <c r="AA17">
-        <v>0.4536757296702303</v>
+        <v>0.458014964407752</v>
       </c>
       <c r="AB17">
-        <v>0.4510785529932122</v>
+        <v>0.4538159523843314</v>
       </c>
       <c r="AC17">
-        <v>0.4595795279245223</v>
+        <v>0.4587142887296349</v>
       </c>
       <c r="AD17">
-        <v>0.4550882445781089</v>
+        <v>0.4568565676642626</v>
       </c>
       <c r="AE17">
-        <v>0.459428184235099</v>
+        <v>0.4574914303683458</v>
       </c>
       <c r="AF17">
-        <v>0.4586560028701163</v>
+        <v>0.4568966618886269</v>
       </c>
       <c r="AG17">
-        <v>0.4589863333632189</v>
+        <v>0.4578785893789755</v>
       </c>
       <c r="AH17">
-        <v>0.4540361445279958</v>
+        <v>0.4569947068819989</v>
       </c>
       <c r="AI17">
-        <v>0.4595552599739796</v>
+        <v>0.4569370348149541</v>
       </c>
       <c r="AJ17">
-        <v>0.4552014996976929</v>
+        <v>0.4593511599292586</v>
       </c>
       <c r="AK17">
-        <v>0.4583995169311249</v>
+        <v>0.4572508740049762</v>
       </c>
     </row>
     <row r="18" spans="1:37">
@@ -2450,112 +2450,112 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2950084752952711</v>
+        <v>0.3090154769750706</v>
       </c>
       <c r="C18">
-        <v>0.2831723328697192</v>
+        <v>0.2863381878951787</v>
       </c>
       <c r="D18">
-        <v>0.2673542190239245</v>
+        <v>0.2039104409364361</v>
       </c>
       <c r="E18">
-        <v>0.2974963564415273</v>
+        <v>0.2995827539819711</v>
       </c>
       <c r="F18">
-        <v>0.2710390201595924</v>
+        <v>0.2805728257734499</v>
       </c>
       <c r="G18">
-        <v>0.2703653366255885</v>
+        <v>0.2865485457931021</v>
       </c>
       <c r="H18">
-        <v>0.2710590082034262</v>
+        <v>0.2611532916010945</v>
       </c>
       <c r="I18">
-        <v>0.2652783200250079</v>
+        <v>0.2673311488882902</v>
       </c>
       <c r="J18">
-        <v>0.2645159436200303</v>
+        <v>0.2654161223412503</v>
       </c>
       <c r="K18">
-        <v>0.2638671183433613</v>
+        <v>0.279684007111621</v>
       </c>
       <c r="L18">
-        <v>0.2684452914118145</v>
+        <v>0.276064618395622</v>
       </c>
       <c r="M18">
-        <v>0.2685519387549226</v>
+        <v>0.2776368225066675</v>
       </c>
       <c r="N18">
-        <v>0.2650586496482416</v>
+        <v>0.2476016289914606</v>
       </c>
       <c r="O18">
-        <v>0.257592853949752</v>
+        <v>0.2681436322827333</v>
       </c>
       <c r="P18">
-        <v>0.2488480100440837</v>
+        <v>0.2805588621627146</v>
       </c>
       <c r="Q18">
-        <v>0.2835829024272966</v>
+        <v>0.2844864240480791</v>
       </c>
       <c r="R18">
-        <v>0.2581371936612409</v>
+        <v>0.2876513513309628</v>
       </c>
       <c r="S18">
-        <v>0.2705729228072588</v>
+        <v>0.2907550692949611</v>
       </c>
       <c r="T18">
-        <v>0.2780020001167217</v>
+        <v>0.2767560587971981</v>
       </c>
       <c r="U18">
-        <v>0.2729757720710182</v>
+        <v>0.2825911426646396</v>
       </c>
       <c r="V18">
-        <v>0.29049679624158</v>
+        <v>0.274399361344109</v>
       </c>
       <c r="W18">
-        <v>0.293529591512553</v>
+        <v>0.3037406114468928</v>
       </c>
       <c r="X18">
-        <v>0.3002762849872367</v>
+        <v>0.2971590229108143</v>
       </c>
       <c r="Y18">
-        <v>0.3031543708166748</v>
+        <v>0.2808848816217005</v>
       </c>
       <c r="Z18">
-        <v>0.3032664782612393</v>
+        <v>0.3047610307712869</v>
       </c>
       <c r="AA18">
-        <v>0.3018986389441496</v>
+        <v>0.3002749971696772</v>
       </c>
       <c r="AB18">
-        <v>0.306001651083059</v>
+        <v>0.3194706276470631</v>
       </c>
       <c r="AC18">
-        <v>0.3213127262378374</v>
+        <v>0.3220529385384471</v>
       </c>
       <c r="AD18">
-        <v>0.3009937401899514</v>
+        <v>0.3121815898016884</v>
       </c>
       <c r="AE18">
-        <v>0.30457893612121</v>
+        <v>0.3147172209770048</v>
       </c>
       <c r="AF18">
-        <v>0.3067831533772615</v>
+        <v>0.3146299238714741</v>
       </c>
       <c r="AG18">
-        <v>0.3066511276848335</v>
+        <v>0.3195219758462295</v>
       </c>
       <c r="AH18">
-        <v>0.3252862089157195</v>
+        <v>0.3026173709456693</v>
       </c>
       <c r="AI18">
-        <v>0.3270614993614383</v>
+        <v>0.3113083072075129</v>
       </c>
       <c r="AJ18">
-        <v>0.3327974237351654</v>
+        <v>0.3380753794730833</v>
       </c>
       <c r="AK18">
-        <v>0.3338828496453306</v>
+        <v>0.3111243909116157</v>
       </c>
     </row>
     <row r="19" spans="1:37">
@@ -2563,112 +2563,112 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3343156565002143</v>
+        <v>0.3826854314793562</v>
       </c>
       <c r="C19">
-        <v>0.3283667286098862</v>
+        <v>0.3212569017260638</v>
       </c>
       <c r="D19">
-        <v>0.3812922141615662</v>
+        <v>0.4018731505919143</v>
       </c>
       <c r="E19">
-        <v>0.3010271379100681</v>
+        <v>0.3916363039862591</v>
       </c>
       <c r="F19">
-        <v>0.352695110298777</v>
+        <v>0.332155338326013</v>
       </c>
       <c r="G19">
-        <v>0.3540094530300154</v>
+        <v>0.3625745220453871</v>
       </c>
       <c r="H19">
-        <v>0.374467744958764</v>
+        <v>0.3103411061324057</v>
       </c>
       <c r="I19">
-        <v>0.3732852511122395</v>
+        <v>0.3320332920406205</v>
       </c>
       <c r="J19">
-        <v>0.3540675430600952</v>
+        <v>0.3476410877533683</v>
       </c>
       <c r="K19">
-        <v>0.3662368117633555</v>
+        <v>0.3893220884122244</v>
       </c>
       <c r="L19">
-        <v>0.3180991105046432</v>
+        <v>0.3717310274984819</v>
       </c>
       <c r="M19">
-        <v>0.3411478170599844</v>
+        <v>0.3827597662838</v>
       </c>
       <c r="N19">
-        <v>0.327882336367236</v>
+        <v>0.2632197510487146</v>
       </c>
       <c r="O19">
-        <v>0.3230251624120056</v>
+        <v>0.3561594708060997</v>
       </c>
       <c r="P19">
-        <v>0.3669202627984773</v>
+        <v>0.3867861864325199</v>
       </c>
       <c r="Q19">
-        <v>0.309858944820757</v>
+        <v>0.3454765261709214</v>
       </c>
       <c r="R19">
-        <v>0.3316062797691774</v>
+        <v>0.3851838611573899</v>
       </c>
       <c r="S19">
-        <v>0.3383431399985564</v>
+        <v>0.3813644391215967</v>
       </c>
       <c r="T19">
-        <v>0.3609064100546956</v>
+        <v>0.3189261062578436</v>
       </c>
       <c r="U19">
-        <v>0.3574492052897406</v>
+        <v>0.3367416247428101</v>
       </c>
       <c r="V19">
-        <v>0.3579716012742934</v>
+        <v>0.3188148653021844</v>
       </c>
       <c r="W19">
-        <v>0.3694410057515054</v>
+        <v>0.3865611709000261</v>
       </c>
       <c r="X19">
-        <v>0.3292070642855195</v>
+        <v>0.3498124498300889</v>
       </c>
       <c r="Y19">
-        <v>0.3496538111269104</v>
+        <v>0.2869059768275471</v>
       </c>
       <c r="Z19">
-        <v>0.3401302393142046</v>
+        <v>0.3626600159677573</v>
       </c>
       <c r="AA19">
-        <v>0.3392586087455995</v>
+        <v>0.3573745447521662</v>
       </c>
       <c r="AB19">
-        <v>0.384271159940285</v>
+        <v>0.3935444517081802</v>
       </c>
       <c r="AC19">
-        <v>0.3341116638051043</v>
+        <v>0.3581335427652979</v>
       </c>
       <c r="AD19">
-        <v>0.3386205626323731</v>
+        <v>0.3356370232447998</v>
       </c>
       <c r="AE19">
-        <v>0.3398486694447239</v>
+        <v>0.3428213434491718</v>
       </c>
       <c r="AF19">
-        <v>0.3564962072189748</v>
+        <v>0.3396478473257379</v>
       </c>
       <c r="AG19">
-        <v>0.3618962845016782</v>
+        <v>0.3560295991066581</v>
       </c>
       <c r="AH19">
-        <v>0.366492898078188</v>
+        <v>0.3440376166108957</v>
       </c>
       <c r="AI19">
-        <v>0.3760019659237094</v>
+        <v>0.3275515085165934</v>
       </c>
       <c r="AJ19">
-        <v>0.3408918856876751</v>
+        <v>0.3775079504011967</v>
       </c>
       <c r="AK19">
-        <v>0.3582561815871789</v>
+        <v>0.3179090047323264</v>
       </c>
     </row>
     <row r="20" spans="1:37">
@@ -2676,112 +2676,112 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3427091706931097</v>
+        <v>0.413014229510183</v>
       </c>
       <c r="C20">
-        <v>0.3435172149838311</v>
+        <v>0.3527329792653416</v>
       </c>
       <c r="D20">
-        <v>0.2511484861288993</v>
+        <v>0.20586078938878</v>
       </c>
       <c r="E20">
-        <v>0.430997874839314</v>
+        <v>0.4330842723797578</v>
       </c>
       <c r="F20">
-        <v>0.4309322708211508</v>
+        <v>0.4336756491425319</v>
       </c>
       <c r="G20">
-        <v>0.4092564943473157</v>
+        <v>0.4004872259084822</v>
       </c>
       <c r="H20">
-        <v>0.4177248872488269</v>
+        <v>0.3214688867245121</v>
       </c>
       <c r="I20">
-        <v>0.4063391040389451</v>
+        <v>0.3387112178385174</v>
       </c>
       <c r="J20">
-        <v>0.4119492057973069</v>
+        <v>0.4373712721692435</v>
       </c>
       <c r="K20">
-        <v>0.4017151522538418</v>
+        <v>0.436422444501931</v>
       </c>
       <c r="L20">
-        <v>0.4314783782274934</v>
+        <v>0.4400343524909541</v>
       </c>
       <c r="M20">
-        <v>0.434912475575485</v>
+        <v>0.4385316337324591</v>
       </c>
       <c r="N20">
-        <v>0.3831476402879092</v>
+        <v>0.3422188514286875</v>
       </c>
       <c r="O20">
-        <v>0.3863597396863091</v>
+        <v>0.4150592023810949</v>
       </c>
       <c r="P20">
-        <v>0.3114077625654048</v>
+        <v>0.2999513512985955</v>
       </c>
       <c r="Q20">
-        <v>0.4462957588557465</v>
+        <v>0.447199280476529</v>
       </c>
       <c r="R20">
-        <v>0.4376640545864957</v>
+        <v>0.44874433777634</v>
       </c>
       <c r="S20">
-        <v>0.4260711088691712</v>
+        <v>0.4427191251750411</v>
       </c>
       <c r="T20">
-        <v>0.4302763185846006</v>
+        <v>0.3552055603769291</v>
       </c>
       <c r="U20">
-        <v>0.4089837069470492</v>
+        <v>0.3689366366742896</v>
       </c>
       <c r="V20">
-        <v>0.4435654294493874</v>
+        <v>0.4544059232445342</v>
       </c>
       <c r="W20">
-        <v>0.4341174253442208</v>
+        <v>0.2129045004891296</v>
       </c>
       <c r="X20">
-        <v>0.4504392713252612</v>
+        <v>0.4569609029070808</v>
       </c>
       <c r="Y20">
-        <v>0.4558104242578946</v>
+        <v>0.4581771522802003</v>
       </c>
       <c r="Z20">
-        <v>0.4184006240413617</v>
+        <v>0.434957917015189</v>
       </c>
       <c r="AA20">
-        <v>0.4239672786823703</v>
+        <v>0.4251815244808663</v>
       </c>
       <c r="AB20">
-        <v>0.3814028241451327</v>
+        <v>0.3201733004842522</v>
       </c>
       <c r="AC20">
-        <v>0.4592597876993902</v>
+        <v>0.458696247412699</v>
       </c>
       <c r="AD20">
-        <v>0.4547949227170515</v>
+        <v>0.4587155392072461</v>
       </c>
       <c r="AE20">
-        <v>0.4397211349524636</v>
+        <v>0.406475703004669</v>
       </c>
       <c r="AF20">
-        <v>0.4369650690991103</v>
+        <v>0.3823558153168116</v>
       </c>
       <c r="AG20">
-        <v>0.4215695236509124</v>
+        <v>0.3950795405012821</v>
       </c>
       <c r="AH20">
-        <v>0.4538301291921492</v>
+        <v>0.4587873161615245</v>
       </c>
       <c r="AI20">
-        <v>0.4499999140125232</v>
+        <v>0.4588040242420245</v>
       </c>
       <c r="AJ20">
-        <v>0.4549958532271001</v>
+        <v>0.4588202781793833</v>
       </c>
       <c r="AK20">
-        <v>0.4581850157002205</v>
+        <v>0.4588360962414609</v>
       </c>
     </row>
     <row r="21" spans="1:37">
@@ -2789,112 +2789,112 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3657948872074273</v>
+        <v>0.3665011470507845</v>
       </c>
       <c r="C21">
-        <v>0.3577063238587215</v>
+        <v>0.3613739899858419</v>
       </c>
       <c r="D21">
-        <v>0.3457590944356661</v>
+        <v>0.3663400308660142</v>
       </c>
       <c r="E21">
-        <v>0.3636926783766497</v>
+        <v>0.3657790759170935</v>
       </c>
       <c r="F21">
-        <v>0.3468806933431037</v>
+        <v>0.3445770110752769</v>
       </c>
       <c r="G21">
-        <v>0.3403763014968059</v>
+        <v>0.3583824020339664</v>
       </c>
       <c r="H21">
-        <v>0.3455943071496461</v>
+        <v>0.3295212681389122</v>
       </c>
       <c r="I21">
-        <v>0.3456268456404255</v>
+        <v>0.3438027047214472</v>
       </c>
       <c r="J21">
-        <v>0.3546674512178635</v>
+        <v>0.3519162119449066</v>
       </c>
       <c r="K21">
-        <v>0.3684023013579434</v>
+        <v>0.3698025801725011</v>
       </c>
       <c r="L21">
-        <v>0.3634871745693904</v>
+        <v>0.3720431488328511</v>
       </c>
       <c r="M21">
-        <v>0.3708740961394237</v>
+        <v>0.3743027189941626</v>
       </c>
       <c r="N21">
-        <v>0.3744069328312338</v>
+        <v>0.3765810504734509</v>
       </c>
       <c r="O21">
-        <v>0.3695758744383764</v>
+        <v>0.3788779151210314</v>
       </c>
       <c r="P21">
-        <v>0.3623770790474798</v>
+        <v>0.3822430026815224</v>
       </c>
       <c r="Q21">
-        <v>0.3852720174884079</v>
+        <v>0.3861755391091904</v>
       </c>
       <c r="R21">
-        <v>0.3715499073011844</v>
+        <v>0.3890591705791827</v>
       </c>
       <c r="S21">
-        <v>0.3683510556202201</v>
+        <v>0.3916149204765714</v>
       </c>
       <c r="T21">
-        <v>0.3723136533063693</v>
+        <v>0.3674889959472881</v>
       </c>
       <c r="U21">
-        <v>0.3705862133833513</v>
+        <v>0.3776461858021224</v>
       </c>
       <c r="V21">
-        <v>0.3956860092312217</v>
+        <v>0.4037654283512809</v>
       </c>
       <c r="W21">
-        <v>0.4055657806946278</v>
+        <v>0.4069179377790921</v>
       </c>
       <c r="X21">
-        <v>0.4034412016502358</v>
+        <v>0.4099628332320555</v>
       </c>
       <c r="Y21">
-        <v>0.4105386866007771</v>
+        <v>0.4129054146230827</v>
       </c>
       <c r="Z21">
-        <v>0.41368695531117</v>
+        <v>0.4157506434026412</v>
       </c>
       <c r="AA21">
-        <v>0.4119882612544787</v>
+        <v>0.4185031689858465</v>
       </c>
       <c r="AB21">
-        <v>0.4118940609821377</v>
+        <v>0.4211673527500328</v>
       </c>
       <c r="AC21">
-        <v>0.4230070775583321</v>
+        <v>0.4237472898589418</v>
       </c>
       <c r="AD21">
-        <v>0.4210417518563527</v>
+        <v>0.4262468291393012</v>
       </c>
       <c r="AE21">
-        <v>0.4052274228950716</v>
+        <v>0.4108306519596879</v>
       </c>
       <c r="AF21">
-        <v>0.4017796204993841</v>
+        <v>0.4074222813918832</v>
       </c>
       <c r="AG21">
-        <v>0.4071034551280688</v>
+        <v>0.4160921781865515</v>
       </c>
       <c r="AH21">
-        <v>0.4293872756597907</v>
+        <v>0.4365401846498954</v>
       </c>
       <c r="AI21">
-        <v>0.4373464399505779</v>
+        <v>0.4389811280214979</v>
       </c>
       <c r="AJ21">
-        <v>0.4353847855347512</v>
+        <v>0.4413556369832312</v>
       </c>
       <c r="AK21">
-        <v>0.4408926618891057</v>
+        <v>0.4436663859741063</v>
       </c>
     </row>
     <row r="22" spans="1:37">
@@ -2902,112 +2902,112 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4302992653019297</v>
+        <v>0.4239330315664338</v>
       </c>
       <c r="C22">
-        <v>0.3623927756760738</v>
+        <v>0.2708512441182657</v>
       </c>
       <c r="D22">
-        <v>0.4337452695040395</v>
+        <v>0.4543262059343876</v>
       </c>
       <c r="E22">
-        <v>0.3778500017434181</v>
+        <v>0.4185916776003531</v>
       </c>
       <c r="F22">
-        <v>0.4533351933225434</v>
+        <v>0.4551920404054434</v>
       </c>
       <c r="G22">
-        <v>0.4158373276741363</v>
+        <v>0.3938599506017186</v>
       </c>
       <c r="H22">
-        <v>0.4500933733646618</v>
+        <v>0.3834785412431493</v>
       </c>
       <c r="I22">
-        <v>0.4450865261337651</v>
+        <v>0.3522258451197795</v>
       </c>
       <c r="J22">
-        <v>0.4465948111838649</v>
+        <v>0.4573368294015275</v>
       </c>
       <c r="K22">
-        <v>0.4551380383136514</v>
+        <v>0.4579502647490672</v>
       </c>
       <c r="L22">
-        <v>0.4504648864267317</v>
+        <v>0.4585658484869766</v>
       </c>
       <c r="M22">
-        <v>0.451336493304744</v>
+        <v>0.2163835919212828</v>
       </c>
       <c r="N22">
-        <v>0.4442494015340244</v>
+        <v>0.2170035064374838</v>
       </c>
       <c r="O22">
-        <v>0.390564010918893</v>
+        <v>0.3800306482631389</v>
       </c>
       <c r="P22">
-        <v>0.4401340763659574</v>
+        <v>0.4586733531676206</v>
       </c>
       <c r="Q22">
-        <v>0.4097618794154906</v>
+        <v>0.4586976593294474</v>
       </c>
       <c r="R22">
-        <v>0.4491704195385794</v>
+        <v>0.458721090864984</v>
       </c>
       <c r="S22">
-        <v>0.4142995379568921</v>
+        <v>0.4446990048058773</v>
       </c>
       <c r="T22">
-        <v>0.4519359378765552</v>
+        <v>0.3966265992746246</v>
       </c>
       <c r="U22">
-        <v>0.4410226895464777</v>
+        <v>0.3630125227530911</v>
       </c>
       <c r="V22">
-        <v>0.4519205808799407</v>
+        <v>0.4588069515260145</v>
       </c>
       <c r="W22">
-        <v>0.4586478429155357</v>
+        <v>0.4588266450732101</v>
       </c>
       <c r="X22">
-        <v>0.4534988441146084</v>
+        <v>0.458845699018917</v>
       </c>
       <c r="Y22">
-        <v>0.4555597775114239</v>
+        <v>0.4588641440244266</v>
       </c>
       <c r="Z22">
-        <v>0.4487470963710994</v>
+        <v>0.2160820088220615</v>
       </c>
       <c r="AA22">
-        <v>0.4068605191334317</v>
+        <v>0.3465208248416077</v>
       </c>
       <c r="AB22">
-        <v>0.4507267082321048</v>
+        <v>0.4589161039605618</v>
       </c>
       <c r="AC22">
-        <v>0.4282891834479764</v>
+        <v>0.4589323833984559</v>
       </c>
       <c r="AD22">
-        <v>0.4547949227170515</v>
+        <v>0.4589481810584817</v>
       </c>
       <c r="AE22">
-        <v>0.4129404325174146</v>
+        <v>0.3587747655977421</v>
       </c>
       <c r="AF22">
-        <v>0.4500967371031051</v>
+        <v>0.4094889333176361</v>
       </c>
       <c r="AG22">
-        <v>0.4425612023341126</v>
+        <v>0.3804636793373734</v>
       </c>
       <c r="AH22">
-        <v>0.4538301291921492</v>
+        <v>0.459006957753341</v>
       </c>
       <c r="AI22">
-        <v>0.459340114942965</v>
+        <v>0.4590206396622367</v>
       </c>
       <c r="AJ22">
-        <v>0.4549958532271001</v>
+        <v>0.4590339496825072</v>
       </c>
       <c r="AK22">
-        <v>0.4581073083314667</v>
+        <v>0.4590469027733334</v>
       </c>
     </row>
     <row r="23" spans="1:37">
@@ -3015,112 +3015,112 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4273800565974785</v>
+        <v>0.4312913312960151</v>
       </c>
       <c r="C23">
-        <v>0.4075783412026535</v>
+        <v>0.4034605072588808</v>
       </c>
       <c r="D23">
-        <v>0.4094139020307062</v>
+        <v>0.4385548029571786</v>
       </c>
       <c r="E23">
-        <v>0.4160485465655261</v>
+        <v>0.4351477524800526</v>
       </c>
       <c r="F23">
-        <v>0.4253448113572532</v>
+        <v>0.4083508740864191</v>
       </c>
       <c r="G23">
-        <v>0.4233352915376367</v>
+        <v>0.4242165399161954</v>
       </c>
       <c r="H23">
-        <v>0.4267505426795306</v>
+        <v>0.3840835312037488</v>
       </c>
       <c r="I23">
-        <v>0.4236684481088674</v>
+        <v>0.3954951992807715</v>
       </c>
       <c r="J23">
-        <v>0.4103207778252214</v>
+        <v>0.4083566548698681</v>
       </c>
       <c r="K23">
-        <v>0.4225233610601976</v>
+        <v>0.4334309284212747</v>
       </c>
       <c r="L23">
-        <v>0.4197202406726324</v>
+        <v>0.4287965304913771</v>
       </c>
       <c r="M23">
-        <v>0.4227777377406149</v>
+        <v>0.43061954866543</v>
       </c>
       <c r="N23">
-        <v>0.4215631700965141</v>
+        <v>0.3871061503753466</v>
       </c>
       <c r="O23">
-        <v>0.4044494276678989</v>
+        <v>0.4192954022175559</v>
       </c>
       <c r="P23">
-        <v>0.401205453010737</v>
+        <v>0.2738609378195229</v>
       </c>
       <c r="Q23">
-        <v>0.4141671309207481</v>
+        <v>0.4193879051442251</v>
       </c>
       <c r="R23">
-        <v>0.4110220673528061</v>
+        <v>0.431387771691005</v>
       </c>
       <c r="S23">
-        <v>0.4171174041237126</v>
+        <v>0.4298127756157331</v>
       </c>
       <c r="T23">
-        <v>0.4202416676383354</v>
+        <v>0.3907362610519302</v>
       </c>
       <c r="U23">
-        <v>0.4136863784744672</v>
+        <v>0.3977393189698688</v>
       </c>
       <c r="V23">
-        <v>0.4130976099766049</v>
+        <v>0.3924598146737586</v>
       </c>
       <c r="W23">
-        <v>0.4238525732261279</v>
+        <v>0.4315034905716325</v>
       </c>
       <c r="X23">
-        <v>0.4216590053357578</v>
+        <v>0.4221845341721682</v>
       </c>
       <c r="Y23">
-        <v>0.4242484081339449</v>
+        <v>0.3899018837585313</v>
       </c>
       <c r="Z23">
-        <v>0.4232215989477943</v>
+        <v>0.4232762395410147</v>
       </c>
       <c r="AA23">
-        <v>0.4110900205601729</v>
+        <v>0.419233882491407</v>
       </c>
       <c r="AB23">
-        <v>0.4139055953173719</v>
+        <v>0.3482762797230879</v>
       </c>
       <c r="AC23">
-        <v>0.4190837967333712</v>
+        <v>0.4233031201579393</v>
       </c>
       <c r="AD23">
-        <v>0.4165843692454798</v>
+        <v>0.4098597720609531</v>
       </c>
       <c r="AE23">
-        <v>0.4167839484328287</v>
+        <v>0.4109095265100777</v>
       </c>
       <c r="AF23">
-        <v>0.4169664428800444</v>
+        <v>0.4021924461296336</v>
       </c>
       <c r="AG23">
-        <v>0.4149983310120273</v>
+        <v>0.4093013003356247</v>
       </c>
       <c r="AH23">
-        <v>0.4172640296381529</v>
+        <v>0.4064436900323984</v>
       </c>
       <c r="AI23">
-        <v>0.426213718742265</v>
+        <v>0.4050259613046499</v>
       </c>
       <c r="AJ23">
-        <v>0.424426528425612</v>
+        <v>0.4297359182166371</v>
       </c>
       <c r="AK23">
-        <v>0.4262367183240438</v>
+        <v>0.4027730893854219</v>
       </c>
     </row>
     <row r="24" spans="1:37">
@@ -3128,22 +3128,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.450224459221101</v>
+        <v>0.45288909548863</v>
       </c>
       <c r="C24">
-        <v>0.4434878024115613</v>
+        <v>0.4526374565292109</v>
       </c>
       <c r="D24">
-        <v>0.4323507876344272</v>
+        <v>0.4523735631983336</v>
       </c>
       <c r="E24">
-        <v>0.4505159794984237</v>
+        <v>0.4517934472289107</v>
       </c>
       <c r="F24">
-        <v>0.4492349366065979</v>
+        <v>0.451805249530273</v>
       </c>
       <c r="G24">
-        <v>0.4507581699143633</v>
+        <v>0.4497922085282035</v>
       </c>
       <c r="H24">
         <v>0.4511756113330458</v>
@@ -3152,88 +3152,88 @@
         <v>0.4509852087772286</v>
       </c>
       <c r="J24">
-        <v>0.4415084557786827</v>
+        <v>0.4508745433874881</v>
       </c>
       <c r="K24">
-        <v>0.4485717072974345</v>
+        <v>0.4507634910998379</v>
       </c>
       <c r="L24">
-        <v>0.4420722048819593</v>
+        <v>0.448801776971087</v>
       </c>
       <c r="M24">
-        <v>0.447845364131427</v>
+        <v>0.4505402176865189</v>
       </c>
       <c r="N24">
-        <v>0.4490426552506681</v>
+        <v>0.4504279924529261</v>
       </c>
       <c r="O24">
-        <v>0.441893135677824</v>
+        <v>0.4503153721053238</v>
       </c>
       <c r="P24">
-        <v>0.4310872725113769</v>
+        <v>0.4503230740800303</v>
       </c>
       <c r="Q24">
         <v>0.4504073490339152</v>
       </c>
       <c r="R24">
-        <v>0.4396636767027673</v>
+        <v>0.4504885914608715</v>
       </c>
       <c r="S24">
-        <v>0.4503382692662836</v>
+        <v>0.4502251156187582</v>
       </c>
       <c r="T24">
         <v>0.4506426107224252</v>
       </c>
       <c r="U24">
-        <v>0.4498899101847668</v>
+        <v>0.4507156765803799</v>
       </c>
       <c r="V24">
-        <v>0.4439143790335878</v>
+        <v>0.4507862897688327</v>
       </c>
       <c r="W24">
-        <v>0.4500795909464135</v>
+        <v>0.4508545717457886</v>
       </c>
       <c r="X24">
-        <v>0.4452747605978339</v>
+        <v>0.4509206360798949</v>
       </c>
       <c r="Y24">
-        <v>0.449020934111657</v>
+        <v>0.4509845890807761</v>
       </c>
       <c r="Z24">
-        <v>0.4496948482099868</v>
+        <v>0.451046530369885</v>
       </c>
       <c r="AA24">
-        <v>0.4453718108859219</v>
+        <v>0.4511065533983178</v>
       </c>
       <c r="AB24">
-        <v>0.4424844800327133</v>
+        <v>0.4511647459172547</v>
       </c>
       <c r="AC24">
         <v>0.4512211904060052</v>
       </c>
       <c r="AD24">
-        <v>0.4464193765744642</v>
+        <v>0.451275964462051</v>
       </c>
       <c r="AE24">
-        <v>0.4511588745155231</v>
+        <v>0.4483376772596962</v>
       </c>
       <c r="AF24">
-        <v>0.4507340223256206</v>
+        <v>0.4513807893616375</v>
       </c>
       <c r="AG24">
-        <v>0.4510045358929574</v>
+        <v>0.4514309740438584</v>
       </c>
       <c r="AH24">
-        <v>0.4463966059850157</v>
+        <v>0.4514797565409516</v>
       </c>
       <c r="AI24">
-        <v>0.4514125153213221</v>
+        <v>0.451527194809875</v>
       </c>
       <c r="AJ24">
-        <v>0.447378590754262</v>
+        <v>0.4515733436569245</v>
       </c>
       <c r="AK24">
-        <v>0.450199377524537</v>
+        <v>0.4516182549489594</v>
       </c>
     </row>
     <row r="25" spans="1:37">
@@ -3241,112 +3241,112 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4322085972628992</v>
+        <v>0.4225085068063094</v>
       </c>
       <c r="C25">
-        <v>0.4276597614082839</v>
+        <v>0.3780269530190632</v>
       </c>
       <c r="D25">
-        <v>0.4190878471284238</v>
+        <v>0.4396687835587719</v>
       </c>
       <c r="E25">
-        <v>0.4370698724569552</v>
+        <v>0.439156269997399</v>
       </c>
       <c r="F25">
-        <v>0.4262813415783998</v>
+        <v>0.3922806411794529</v>
       </c>
       <c r="G25">
-        <v>0.431507786351376</v>
+        <v>0.4276652285308182</v>
       </c>
       <c r="H25">
-        <v>0.4328663229972151</v>
+        <v>0.3953636281279751</v>
       </c>
       <c r="I25">
-        <v>0.4295208592853836</v>
+        <v>0.4025072253100915</v>
       </c>
       <c r="J25">
-        <v>0.4076530850906466</v>
+        <v>0.3658422030700701</v>
       </c>
       <c r="K25">
-        <v>0.405812367936478</v>
+        <v>0.4363810589218288</v>
       </c>
       <c r="L25">
-        <v>0.4128338629272115</v>
+        <v>0.4146450651245405</v>
       </c>
       <c r="M25">
-        <v>0.4227911449652997</v>
+        <v>0.431947612831064</v>
       </c>
       <c r="N25">
-        <v>0.429281088739864</v>
+        <v>0.2492757316703986</v>
       </c>
       <c r="O25">
-        <v>0.4239251274602581</v>
+        <v>0.3442669085095827</v>
       </c>
       <c r="P25">
-        <v>0.4147877428380581</v>
+        <v>0.4371667331999257</v>
       </c>
       <c r="Q25">
-        <v>0.4366760691152587</v>
+        <v>0.4375795907360412</v>
       </c>
       <c r="R25">
-        <v>0.415514381453672</v>
+        <v>0.4353875097313015</v>
       </c>
       <c r="S25">
-        <v>0.4297853622997948</v>
+        <v>0.4352232733054006</v>
       </c>
       <c r="T25">
-        <v>0.4313378759652131</v>
+        <v>0.4000547916594691</v>
       </c>
       <c r="U25">
-        <v>0.4245298075548282</v>
+        <v>0.4040705036515132</v>
       </c>
       <c r="V25">
-        <v>0.4143327673128299</v>
+        <v>0.3099893383594005</v>
       </c>
       <c r="W25">
-        <v>0.4132253758290489</v>
+        <v>0.4340035530216642</v>
       </c>
       <c r="X25">
-        <v>0.4189830903764882</v>
+        <v>0.3767635980807346</v>
       </c>
       <c r="Y25">
-        <v>0.427361398626973</v>
+        <v>0.3269793520608177</v>
       </c>
       <c r="Z25">
-        <v>0.4327043699824457</v>
+        <v>0.3435186549653402</v>
       </c>
       <c r="AA25">
-        <v>0.429958157169629</v>
+        <v>0.4410049475926318</v>
       </c>
       <c r="AB25">
-        <v>0.4276297909336449</v>
+        <v>0.4412900289706821</v>
       </c>
       <c r="AC25">
-        <v>0.4408263345615522</v>
+        <v>0.441566546862162</v>
       </c>
       <c r="AD25">
-        <v>0.4229715962042132</v>
+        <v>0.377504470068721</v>
       </c>
       <c r="AE25">
-        <v>0.431635260333045</v>
+        <v>0.4148869369592656</v>
       </c>
       <c r="AF25">
-        <v>0.4313926301248426</v>
+        <v>0.4095096836549951</v>
       </c>
       <c r="AG25">
-        <v>0.4275966618972225</v>
+        <v>0.41516433628203</v>
       </c>
       <c r="AH25">
-        <v>0.4208864380603535</v>
+        <v>0.3396101320786034</v>
       </c>
       <c r="AI25">
-        <v>0.4196193228362285</v>
+        <v>0.3497597891691968</v>
       </c>
       <c r="AJ25">
-        <v>0.4245089851849295</v>
+        <v>0.4087212828184644</v>
       </c>
       <c r="AK25">
-        <v>0.4313472441278061</v>
+        <v>0.34279639112015</v>
       </c>
     </row>
     <row r="26" spans="1:37">
@@ -3354,112 +3354,112 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.4193865075950545</v>
+        <v>0.4277288113131883</v>
       </c>
       <c r="C26">
-        <v>0.3734476983512825</v>
+        <v>0.3445540487970652</v>
       </c>
       <c r="D26">
-        <v>0.395755711744457</v>
+        <v>0.3028732374605322</v>
       </c>
       <c r="E26">
-        <v>0.4329025493586224</v>
+        <v>0.4351652979694007</v>
       </c>
       <c r="F26">
-        <v>0.431854281352723</v>
+        <v>0.434597659674104</v>
       </c>
       <c r="G26">
-        <v>0.4114571747069908</v>
+        <v>0.3863646180780038</v>
       </c>
       <c r="H26">
-        <v>0.4190016344333219</v>
+        <v>0.3116864887328865</v>
       </c>
       <c r="I26">
-        <v>0.4148607922169959</v>
+        <v>0.3474033829903677</v>
       </c>
       <c r="J26">
-        <v>0.4238452466237793</v>
+        <v>0.4331801260031253</v>
       </c>
       <c r="K26">
-        <v>0.4312944294381474</v>
+        <v>0.4332059637617925</v>
       </c>
       <c r="L26">
-        <v>0.4256811457174587</v>
+        <v>0.4332318920101783</v>
       </c>
       <c r="M26">
-        <v>0.431205291105721</v>
+        <v>0.4329276594285396</v>
       </c>
       <c r="N26">
-        <v>0.4285757276934417</v>
+        <v>0.4124235493034978</v>
       </c>
       <c r="O26">
-        <v>0.3931372153023089</v>
+        <v>0.4045137469268935</v>
       </c>
       <c r="P26">
-        <v>0.4155432113757168</v>
+        <v>0.4294746475426773</v>
       </c>
       <c r="Q26">
-        <v>0.4333151519897431</v>
+        <v>0.4342186736105256</v>
       </c>
       <c r="R26">
-        <v>0.4236720948387316</v>
+        <v>0.434752378028576</v>
       </c>
       <c r="S26">
-        <v>0.4130250690070969</v>
+        <v>0.4258646364918672</v>
       </c>
       <c r="T26">
-        <v>0.4178156137482707</v>
+        <v>0.3427756304640905</v>
       </c>
       <c r="U26">
-        <v>0.4095952371041311</v>
+        <v>0.3695693451988567</v>
       </c>
       <c r="V26">
-        <v>0.4295229358576175</v>
+        <v>0.4367080421828535</v>
       </c>
       <c r="W26">
-        <v>0.4362802916340631</v>
+        <v>0.4371566057492048</v>
       </c>
       <c r="X26">
-        <v>0.4316795921320598</v>
+        <v>0.4375906009941655</v>
       </c>
       <c r="Y26">
-        <v>0.4372775292132504</v>
+        <v>0.4380107262956442</v>
       </c>
       <c r="Z26">
         <v>0.4384176360950635</v>
       </c>
       <c r="AA26">
-        <v>0.4151333288346222</v>
+        <v>0.4123146091208438</v>
       </c>
       <c r="AB26">
-        <v>0.4312519795876182</v>
+        <v>0.4391942273698093</v>
       </c>
       <c r="AC26">
-        <v>0.4388248148366278</v>
+        <v>0.4395650271372376</v>
       </c>
       <c r="AD26">
-        <v>0.4347197760781157</v>
+        <v>0.4399248533610642</v>
       </c>
       <c r="AE26">
-        <v>0.4209382731474425</v>
+        <v>0.3828717338012675</v>
       </c>
       <c r="AF26">
-        <v>0.4210297211020022</v>
+        <v>0.3763998566073365</v>
       </c>
       <c r="AG26">
-        <v>0.4189132912361854</v>
+        <v>0.3972025063986133</v>
       </c>
       <c r="AH26">
-        <v>0.4356202772088056</v>
+        <v>0.4412636210092958</v>
       </c>
       <c r="AI26">
-        <v>0.4410849738860209</v>
+        <v>0.4415752563783704</v>
       </c>
       <c r="AJ26">
-        <v>0.4371905477545408</v>
+        <v>0.4418784211714589</v>
       </c>
       <c r="AK26">
-        <v>0.4415692642604272</v>
+        <v>0.44217345611659</v>
       </c>
     </row>
     <row r="27" spans="1:37">
@@ -3467,112 +3467,112 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.4246606177405078</v>
+        <v>0.4095067707229958</v>
       </c>
       <c r="C27">
-        <v>0.4169847270029853</v>
+        <v>0.4001950741036353</v>
       </c>
       <c r="D27">
-        <v>0.3998382902684437</v>
+        <v>0.4386351531701361</v>
       </c>
       <c r="E27">
-        <v>0.4368909029268336</v>
+        <v>0.4389773004672775</v>
       </c>
       <c r="F27">
-        <v>0.4333457762135997</v>
+        <v>0.4393369626767544</v>
       </c>
       <c r="G27">
-        <v>0.4355821295745574</v>
+        <v>0.435241976740726</v>
       </c>
       <c r="H27">
-        <v>0.4367803301340777</v>
+        <v>0.4052332206668001</v>
       </c>
       <c r="I27">
-        <v>0.436621107833181</v>
+        <v>0.4085627469548053</v>
       </c>
       <c r="J27">
-        <v>0.4316958209823596</v>
+        <v>0.4417801380970804</v>
       </c>
       <c r="K27">
-        <v>0.4338269809987018</v>
+        <v>0.4427080734610304</v>
       </c>
       <c r="L27">
-        <v>0.4356641954760943</v>
+        <v>0.4436392586660721</v>
       </c>
       <c r="M27">
-        <v>0.4377326931327055</v>
+        <v>0.4445737108146802</v>
       </c>
       <c r="N27">
-        <v>0.4427525568285078</v>
+        <v>0.4455114471295437</v>
       </c>
       <c r="O27">
-        <v>0.4349189945474721</v>
+        <v>0.4464524849546241</v>
       </c>
       <c r="P27">
-        <v>0.4276862051557364</v>
+        <v>0.447552128789779</v>
       </c>
       <c r="Q27">
-        <v>0.4478154670276027</v>
+        <v>0.4487189886483851</v>
       </c>
       <c r="R27">
-        <v>0.4387635773506163</v>
+        <v>0.4498438605404607</v>
       </c>
       <c r="S27">
-        <v>0.4487868604836388</v>
+        <v>0.4497897400175762</v>
       </c>
       <c r="T27">
-        <v>0.4490894027407332</v>
+        <v>0.4246002761205102</v>
       </c>
       <c r="U27">
-        <v>0.4475174086101277</v>
+        <v>0.4143452605576732</v>
       </c>
       <c r="V27">
-        <v>0.4458863327952612</v>
+        <v>0.4539657519153205</v>
       </c>
       <c r="W27">
-        <v>0.4535590180474016</v>
+        <v>0.4549111751318659</v>
       </c>
       <c r="X27">
-        <v>0.4493042615771783</v>
+        <v>0.455825893158998</v>
       </c>
       <c r="Y27">
-        <v>0.4543446499234015</v>
+        <v>0.4567113779457072</v>
       </c>
       <c r="Z27">
-        <v>0.4555053207459734</v>
+        <v>0.4575690088374447</v>
       </c>
       <c r="AA27">
-        <v>0.4518851720143554</v>
+        <v>0.4584000797457233</v>
       </c>
       <c r="AB27">
-        <v>0.4499325138938738</v>
+        <v>0.4592058056617689</v>
       </c>
       <c r="AC27">
-        <v>0.4592471162825768</v>
+        <v>0.4599873285831865</v>
       </c>
       <c r="AD27">
-        <v>0.4547949227170515</v>
+        <v>0.4588122445414697</v>
       </c>
       <c r="AE27">
-        <v>0.46</v>
+        <v>0.4578541371570635</v>
       </c>
       <c r="AF27">
-        <v>0.4582315673345295</v>
+        <v>0.4464063819604613</v>
       </c>
       <c r="AG27">
-        <v>0.4578232789108293</v>
+        <v>0.458862729552281</v>
       </c>
       <c r="AH27">
-        <v>0.4538301291921492</v>
+        <v>0.4588786175049123</v>
       </c>
       <c r="AI27">
-        <v>0.459340114942965</v>
+        <v>0.4588940676563903</v>
       </c>
       <c r="AJ27">
-        <v>0.4549958532271001</v>
+        <v>0.4589090978565563</v>
       </c>
       <c r="AK27">
-        <v>0.4581850157002205</v>
+        <v>0.4589237249979078</v>
       </c>
     </row>
     <row r="28" spans="1:37">
@@ -3580,112 +3580,112 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.4561671290475633</v>
+        <v>0.4559521942355521</v>
       </c>
       <c r="C28">
-        <v>0.44883127215213</v>
+        <v>0.4433835236478588</v>
       </c>
       <c r="D28">
-        <v>0.4377236629036765</v>
+        <v>0.4187385177242215</v>
       </c>
       <c r="E28">
-        <v>0.4560561015869221</v>
+        <v>0.4588965436183216</v>
       </c>
       <c r="F28">
-        <v>0.4564215808272976</v>
+        <v>0.4445442000463813</v>
       </c>
       <c r="G28">
-        <v>0.4596710737394381</v>
+        <v>0.458074396246278</v>
       </c>
       <c r="H28">
-        <v>0.4594193513074664</v>
+        <v>0.4372226857373195</v>
       </c>
       <c r="I28">
-        <v>0.4596652523418038</v>
+        <v>0.4481271758148909</v>
       </c>
       <c r="J28">
-        <v>0.4485713282570034</v>
+        <v>0.4453252846749561</v>
       </c>
       <c r="K28">
-        <v>0.4565031172923372</v>
+        <v>0.4598372725933861</v>
       </c>
       <c r="L28">
-        <v>0.4508399948055618</v>
+        <v>0.4564307086267363</v>
       </c>
       <c r="M28">
-        <v>0.4562888859070424</v>
+        <v>0.4587387488159155</v>
       </c>
       <c r="N28">
-        <v>0.4570946727237434</v>
+        <v>0.4379412688678327</v>
       </c>
       <c r="O28">
-        <v>0.4498473405391149</v>
+        <v>0.4534127225358958</v>
       </c>
       <c r="P28">
-        <v>0.4385213066242846</v>
+        <v>0.4322000962645418</v>
       </c>
       <c r="Q28">
-        <v>0.4575992074930281</v>
+        <v>0.4536507862722935</v>
       </c>
       <c r="R28">
-        <v>0.4480085666366699</v>
+        <v>0.4592668299201854</v>
       </c>
       <c r="S28">
-        <v>0.4595410116075762</v>
+        <v>0.4588166234058172</v>
       </c>
       <c r="T28">
-        <v>0.4590901896371809</v>
+        <v>0.4393558181444707</v>
       </c>
       <c r="U28">
-        <v>0.4580926982369743</v>
+        <v>0.4440957428553269</v>
       </c>
       <c r="V28">
-        <v>0.4512831499592355</v>
+        <v>0.4348736823245128</v>
       </c>
       <c r="W28">
-        <v>0.4580112476423491</v>
+        <v>0.4587269575660078</v>
       </c>
       <c r="X28">
-        <v>0.4529057487425671</v>
+        <v>0.450773563111081</v>
       </c>
       <c r="Y28">
-        <v>0.4570617063414308</v>
+        <v>0.4344268277879405</v>
       </c>
       <c r="Z28">
-        <v>0.4572660518377174</v>
+        <v>0.4542305779657225</v>
       </c>
       <c r="AA28">
-        <v>0.4527218870543256</v>
+        <v>0.4517335397122925</v>
       </c>
       <c r="AB28">
-        <v>0.4493796849544091</v>
+        <v>0.4326852318514177</v>
       </c>
       <c r="AC28">
-        <v>0.4580892475823539</v>
+        <v>0.4539766021081636</v>
       </c>
       <c r="AD28">
-        <v>0.4537681528466537</v>
+        <v>0.4443801943386438</v>
       </c>
       <c r="AE28">
-        <v>0.4588447692330748</v>
+        <v>0.4467787938065556</v>
       </c>
       <c r="AF28">
-        <v>0.4581152322482213</v>
+        <v>0.4426520795919524</v>
       </c>
       <c r="AG28">
-        <v>0.4584191315876646</v>
+        <v>0.4474218585902271</v>
       </c>
       <c r="AH28">
-        <v>0.4532276508684239</v>
+        <v>0.4411004275726031</v>
       </c>
       <c r="AI28">
-        <v>0.4587386752564645</v>
+        <v>0.4395694240049929</v>
       </c>
       <c r="AJ28">
-        <v>0.4544463403262495</v>
+        <v>0.4554096096133282</v>
       </c>
       <c r="AK28">
-        <v>0.4576371682612981</v>
+        <v>0.4393709128337062</v>
       </c>
     </row>
     <row r="29" spans="1:37">
@@ -3693,112 +3693,112 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.4480292801955121</v>
+        <v>0.4539544513663454</v>
       </c>
       <c r="C29">
-        <v>0.4395334511239262</v>
+        <v>0.3820328866294425</v>
       </c>
       <c r="D29">
-        <v>0.4248591342474215</v>
+        <v>0.251418088066527</v>
       </c>
       <c r="E29">
-        <v>0.4516936009040884</v>
+        <v>0.4537799984445322</v>
       </c>
       <c r="F29">
-        <v>0.4505999027817663</v>
+        <v>0.4437714308314059</v>
       </c>
       <c r="G29">
-        <v>0.4522141804006582</v>
+        <v>0.4507707030222776</v>
       </c>
       <c r="H29">
-        <v>0.4526899308004229</v>
+        <v>0.4356124890202772</v>
       </c>
       <c r="I29">
-        <v>0.4520688008663349</v>
+        <v>0.4392871498783247</v>
       </c>
       <c r="J29">
-        <v>0.4438063165409736</v>
+        <v>0.45369936214935</v>
       </c>
       <c r="K29">
-        <v>0.4503598369477803</v>
+        <v>0.4535775163225682</v>
       </c>
       <c r="L29">
-        <v>0.4453250202686639</v>
+        <v>0.4538809945321246</v>
       </c>
       <c r="M29">
-        <v>0.4508650120602055</v>
+        <v>0.4539722886489083</v>
       </c>
       <c r="N29">
-        <v>0.4507660855413874</v>
+        <v>0.4540639036222046</v>
       </c>
       <c r="O29">
-        <v>0.4422257606376234</v>
+        <v>0.4044158102181545</v>
       </c>
       <c r="P29">
-        <v>0.4284274838152951</v>
+        <v>0.2115189736588486</v>
       </c>
       <c r="Q29">
-        <v>0.453618984920481</v>
+        <v>0.4545225065412635</v>
       </c>
       <c r="R29">
-        <v>0.4438985811823388</v>
+        <v>0.454431051787902</v>
       </c>
       <c r="S29">
-        <v>0.4534546673281006</v>
+        <v>0.4537575384754798</v>
       </c>
       <c r="T29">
-        <v>0.453956682204614</v>
+        <v>0.4411384048161494</v>
       </c>
       <c r="U29">
-        <v>0.4517129567909665</v>
+        <v>0.4390690819929527</v>
       </c>
       <c r="V29">
-        <v>0.4478767721421628</v>
+        <v>0.4554376882944037</v>
       </c>
       <c r="W29">
-        <v>0.4541513012605947</v>
+        <v>0.4545798102353567</v>
       </c>
       <c r="X29">
-        <v>0.4492405171919057</v>
+        <v>0.4557621487737253</v>
       </c>
       <c r="Y29">
-        <v>0.4535498739787239</v>
+        <v>0.4559166020010296</v>
       </c>
       <c r="Z29">
-        <v>0.4536962045435515</v>
+        <v>0.4560661967326985</v>
       </c>
       <c r="AA29">
-        <v>0.4481200536514702</v>
+        <v>0.4562111586629641</v>
       </c>
       <c r="AB29">
-        <v>0.4434880436376452</v>
+        <v>0.4563516997201611</v>
       </c>
       <c r="AC29">
-        <v>0.4557478067998919</v>
+        <v>0.4564880191005016</v>
       </c>
       <c r="AD29">
-        <v>0.4523182959380312</v>
+        <v>0.4555021116472663</v>
       </c>
       <c r="AE29">
-        <v>0.454875789006854</v>
+        <v>0.4453701780336682</v>
       </c>
       <c r="AF29">
-        <v>0.454991756678337</v>
+        <v>0.4470334942401002</v>
       </c>
       <c r="AG29">
-        <v>0.4540690877989167</v>
+        <v>0.4455200239007325</v>
       </c>
       <c r="AH29">
-        <v>0.4512241112701784</v>
+        <v>0.4571124835269364</v>
       </c>
       <c r="AI29">
-        <v>0.4565671668815784</v>
+        <v>0.4572270519386133</v>
       </c>
       <c r="AJ29">
-        <v>0.452334359487871</v>
+        <v>0.4573385062607709</v>
       </c>
       <c r="AK29">
-        <v>0.4556319874575532</v>
+        <v>0.4574469717573326</v>
       </c>
     </row>
     <row r="30" spans="1:37">
@@ -3806,112 +3806,112 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.3423551592620596</v>
+        <v>0.3535035521686327</v>
       </c>
       <c r="C30">
-        <v>0.3588670072016923</v>
+        <v>0.3565867767788244</v>
       </c>
       <c r="D30">
-        <v>0.3356812722307949</v>
+        <v>0.3562622086611431</v>
       </c>
       <c r="E30">
         <v>0.3535273953013034</v>
       </c>
       <c r="F30">
-        <v>0.2872594530492574</v>
+        <v>0.2979899234753539</v>
       </c>
       <c r="G30">
-        <v>0.3057347524301909</v>
+        <v>0.3354115479364118</v>
       </c>
       <c r="H30">
-        <v>0.3178684729691664</v>
+        <v>0.2948023004869919</v>
       </c>
       <c r="I30">
-        <v>0.3026385437397381</v>
+        <v>0.2838327256601128</v>
       </c>
       <c r="J30">
         <v>0.3426621262295342</v>
       </c>
       <c r="K30">
-        <v>0.3075979086290687</v>
+        <v>0.3422970929229661</v>
       </c>
       <c r="L30">
         <v>0.3419307811865785</v>
       </c>
       <c r="M30">
-        <v>0.3368669928877505</v>
+        <v>0.339673652010353</v>
       </c>
       <c r="N30">
-        <v>0.3327070031175423</v>
+        <v>0.3082140337441135</v>
       </c>
       <c r="O30">
         <v>0.3408241078835335</v>
       </c>
       <c r="P30">
-        <v>0.3220596677722229</v>
+        <v>0.3419255914062655</v>
       </c>
       <c r="Q30">
-        <v>0.3430289468597723</v>
+        <v>0.3439324684805548</v>
       </c>
       <c r="R30">
-        <v>0.2826332223222666</v>
+        <v>0.3435441299941956</v>
       </c>
       <c r="S30">
-        <v>0.3014840270429708</v>
+        <v>0.344663599372346</v>
       </c>
       <c r="T30">
-        <v>0.3127361563852001</v>
+        <v>0.3085507000242356</v>
       </c>
       <c r="U30">
-        <v>0.287734610334782</v>
+        <v>0.2989949324894421</v>
       </c>
       <c r="V30">
         <v>0.3529563532572699</v>
       </c>
       <c r="W30">
-        <v>0.3322194979061439</v>
+        <v>0.3545823824370313</v>
       </c>
       <c r="X30">
         <v>0.3561556018982641</v>
       </c>
       <c r="Y30">
-        <v>0.3553118152171761</v>
+        <v>0.3576785432394818</v>
       </c>
       <c r="Z30">
-        <v>0.356801573217121</v>
+        <v>0.3560258717619095</v>
       </c>
       <c r="AA30">
         <v>0.3605829339448161</v>
       </c>
       <c r="AB30">
-        <v>0.3526954065916848</v>
+        <v>0.36196869835958</v>
       </c>
       <c r="AC30">
-        <v>0.3625726238510595</v>
+        <v>0.3633128361516693</v>
       </c>
       <c r="AD30">
-        <v>0.3135055570223436</v>
+        <v>0.318577531598648</v>
       </c>
       <c r="AE30">
-        <v>0.3202175079158621</v>
+        <v>0.342103705188489</v>
       </c>
       <c r="AF30">
-        <v>0.3222044334049645</v>
+        <v>0.3357956377509394</v>
       </c>
       <c r="AG30">
-        <v>0.3082420970933828</v>
+        <v>0.329775777962402</v>
       </c>
       <c r="AH30">
         <v>0.3694701868767787</v>
       </c>
       <c r="AI30">
-        <v>0.356782146005407</v>
+        <v>0.3705998555381968</v>
       </c>
       <c r="AJ30">
         <v>0.3716988186212846</v>
       </c>
       <c r="AK30">
-        <v>0.3709533269549232</v>
+        <v>0.3727683112547027</v>
       </c>
     </row>
     <row r="31" spans="1:37">
@@ -3919,112 +3919,112 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.2639414653149106</v>
+        <v>0.3078356031315661</v>
       </c>
       <c r="C31">
-        <v>0.0661924600107326</v>
+        <v>0.3089924600107326</v>
       </c>
       <c r="D31">
-        <v>0.2896305809331486</v>
+        <v>0.3102115173634967</v>
       </c>
       <c r="E31">
-        <v>0.309410832880335</v>
+        <v>0.3114972304207788</v>
       </c>
       <c r="F31">
-        <v>0.2537590972832581</v>
+        <v>0.2891507711098013</v>
       </c>
       <c r="G31">
-        <v>0.08393658890855039</v>
+        <v>0.2730932023418216</v>
       </c>
       <c r="H31">
-        <v>0.1752981481099992</v>
+        <v>0.2200192354083084</v>
       </c>
       <c r="I31">
-        <v>0.2119377836265874</v>
+        <v>0.2635103816730601</v>
       </c>
       <c r="J31">
-        <v>0.1983241400379261</v>
+        <v>0.08318524696080941</v>
       </c>
       <c r="K31">
-        <v>0.3312299753027838</v>
+        <v>0.3318654660668859</v>
       </c>
       <c r="L31">
-        <v>0.2997556526453131</v>
+        <v>0.3377679508217416</v>
       </c>
       <c r="M31">
-        <v>0.3405854902128528</v>
+        <v>0.3436927668015556</v>
       </c>
       <c r="N31">
-        <v>0.3474658645030229</v>
+        <v>0.34963998214524</v>
       </c>
       <c r="O31">
-        <v>0.2416027446596797</v>
+        <v>0.355609667471055</v>
       </c>
       <c r="P31">
-        <v>0.3432208104975319</v>
+        <v>0.3630867341315745</v>
       </c>
       <c r="Q31">
-        <v>0.3703896347482481</v>
+        <v>0.3712931563690306</v>
       </c>
       <c r="R31">
-        <v>0.3792032782113772</v>
+        <v>0.3790802895586091</v>
       </c>
       <c r="S31">
-        <v>0.1440328385761411</v>
+        <v>0.3769812781600134</v>
       </c>
       <c r="T31">
-        <v>0.2086043195057028</v>
+        <v>0.3113795857787491</v>
       </c>
       <c r="U31">
-        <v>0.2528688098650957</v>
+        <v>0.3512736127008793</v>
       </c>
       <c r="V31">
-        <v>0.3520598155517392</v>
+        <v>0.4081796749814752</v>
       </c>
       <c r="W31">
-        <v>0.4134716795807076</v>
+        <v>0.4148238366651719</v>
       </c>
       <c r="X31">
-        <v>0.4147298179249349</v>
+        <v>0.4212514495067545</v>
       </c>
       <c r="Y31">
-        <v>0.425106186985169</v>
+        <v>0.4274729150074746</v>
       </c>
       <c r="Z31">
-        <v>0.4314342914625465</v>
+        <v>0.4334979795540177</v>
       </c>
       <c r="AA31">
-        <v>0.4085395580426667</v>
+        <v>0.4393357851715464</v>
       </c>
       <c r="AB31">
-        <v>0.4357216238637301</v>
+        <v>0.4449949156316253</v>
       </c>
       <c r="AC31">
-        <v>0.4497432261028891</v>
+        <v>0.4504834384034989</v>
       </c>
       <c r="AD31">
         <v>0.4558089428793609</v>
       </c>
       <c r="AE31">
-        <v>0.2365800781697468</v>
+        <v>0.3856493827657045</v>
       </c>
       <c r="AF31">
-        <v>0.2543603631402951</v>
+        <v>0.3990681416072056</v>
       </c>
       <c r="AG31">
-        <v>0.3505924728193723</v>
+        <v>0.4341788010199841</v>
       </c>
       <c r="AH31">
-        <v>0.4694478335269526</v>
+        <v>0.4756177043348034</v>
       </c>
       <c r="AI31">
-        <v>0.4795676216297817</v>
+        <v>0.4802275066868167</v>
       </c>
       <c r="AJ31">
-        <v>0.4760809334600339</v>
+        <v>0.4798369013431205</v>
       </c>
       <c r="AK31">
-        <v>0.4792276351079485</v>
+        <v>0.4798111764727966</v>
       </c>
     </row>
     <row r="32" spans="1:37">
@@ -4032,112 +4032,112 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.4529525299397351</v>
+        <v>0.45324912512432</v>
       </c>
       <c r="C32">
-        <v>0.4452988819537983</v>
+        <v>0.4355909740226651</v>
       </c>
       <c r="D32">
-        <v>0.4331628048884327</v>
+        <v>0.4011158352827517</v>
       </c>
       <c r="E32">
-        <v>0.4509926033626823</v>
+        <v>0.4557511262363081</v>
       </c>
       <c r="F32">
-        <v>0.4524618053999081</v>
+        <v>0.4346303773312243</v>
       </c>
       <c r="G32">
-        <v>0.4563177133793303</v>
+        <v>0.4507036090141946</v>
       </c>
       <c r="H32">
-        <v>0.4561122796223741</v>
+        <v>0.4213621331079807</v>
       </c>
       <c r="I32">
-        <v>0.4561996610942267</v>
+        <v>0.4334721424299077</v>
       </c>
       <c r="J32">
-        <v>0.444139439506841</v>
+        <v>0.4323030802298968</v>
       </c>
       <c r="K32">
-        <v>0.4519411960783332</v>
+        <v>0.4565555865436827</v>
       </c>
       <c r="L32">
-        <v>0.4463177056434354</v>
+        <v>0.4503965450181505</v>
       </c>
       <c r="M32">
-        <v>0.4516394988897804</v>
+        <v>0.4544154975166801</v>
       </c>
       <c r="N32">
-        <v>0.4520001908768602</v>
+        <v>0.4143629290120457</v>
       </c>
       <c r="O32">
-        <v>0.444287643315958</v>
+        <v>0.4435863549494759</v>
       </c>
       <c r="P32">
-        <v>0.4307107177716792</v>
+        <v>0.3995236601428503</v>
       </c>
       <c r="Q32">
-        <v>0.4498974595984534</v>
+        <v>0.443193606778668</v>
       </c>
       <c r="R32">
-        <v>0.4419060148088738</v>
+        <v>0.4551113920456691</v>
       </c>
       <c r="S32">
-        <v>0.4550128118505665</v>
+        <v>0.4531094540992423</v>
       </c>
       <c r="T32">
-        <v>0.4548582493817367</v>
+        <v>0.4081183702984036</v>
       </c>
       <c r="U32">
-        <v>0.4534803187851905</v>
+        <v>0.4180095732638628</v>
       </c>
       <c r="V32">
-        <v>0.4456755217099081</v>
+        <v>0.393411091573483</v>
       </c>
       <c r="W32">
-        <v>0.4523082907604025</v>
+        <v>0.4535158085137502</v>
       </c>
       <c r="X32">
-        <v>0.4473680896664545</v>
+        <v>0.4319305414567086</v>
       </c>
       <c r="Y32">
-        <v>0.4514345176700162</v>
+        <v>0.3853789370231675</v>
       </c>
       <c r="Z32">
-        <v>0.4510876169370166</v>
+        <v>0.4402084109913159</v>
       </c>
       <c r="AA32">
-        <v>0.4459740659054135</v>
+        <v>0.4321715280063434</v>
       </c>
       <c r="AB32">
-        <v>0.4395519772786601</v>
+        <v>0.3723215469703329</v>
       </c>
       <c r="AC32">
-        <v>0.4489033676214801</v>
+        <v>0.4376471779418731</v>
       </c>
       <c r="AD32">
-        <v>0.4451168450752591</v>
+        <v>0.4051626714175031</v>
       </c>
       <c r="AE32">
-        <v>0.4532667646394402</v>
+        <v>0.4116108929207425</v>
       </c>
       <c r="AF32">
-        <v>0.4526651168881566</v>
+        <v>0.3953935218490512</v>
       </c>
       <c r="AG32">
-        <v>0.4527848792824397</v>
+        <v>0.410796429933413</v>
       </c>
       <c r="AH32">
-        <v>0.4463651113509007</v>
+        <v>0.3851661449602468</v>
       </c>
       <c r="AI32">
-        <v>0.4517367484503974</v>
+        <v>0.3766583127877738</v>
       </c>
       <c r="AJ32">
-        <v>0.4476572435032823</v>
+        <v>0.4383748952386572</v>
       </c>
       <c r="AK32">
-        <v>0.4507180920957504</v>
+        <v>0.3701641774973786</v>
       </c>
     </row>
     <row r="33" spans="1:37">
@@ -4148,109 +4148,109 @@
         <v>0.3145078156154993</v>
       </c>
       <c r="C33">
-        <v>0.306103834679357</v>
+        <v>0.3131276551753936</v>
       </c>
       <c r="D33">
-        <v>0.2911977939914171</v>
+        <v>0.3117787304217652</v>
       </c>
       <c r="E33">
-        <v>0.3083735952936551</v>
+        <v>0.3104599928340989</v>
       </c>
       <c r="F33">
-        <v>0.2644909498644578</v>
+        <v>0.2880846580179306</v>
       </c>
       <c r="G33">
-        <v>0.2653550472511703</v>
+        <v>0.3027577627661618</v>
       </c>
       <c r="H33">
-        <v>0.272372101391986</v>
+        <v>0.2740825351946568</v>
       </c>
       <c r="I33">
-        <v>0.2729539671741716</v>
+        <v>0.2888941351489447</v>
       </c>
       <c r="J33">
-        <v>0.2827149965435002</v>
+        <v>0.1985947264654167</v>
       </c>
       <c r="K33">
-        <v>0.31183203265252</v>
+        <v>0.3172221762080389</v>
       </c>
       <c r="L33">
-        <v>0.3137475541743457</v>
+        <v>0.3223035284378064</v>
       </c>
       <c r="M33">
-        <v>0.323705316619634</v>
+        <v>0.3268125932083368</v>
       </c>
       <c r="N33">
-        <v>0.3291898543334733</v>
+        <v>0.3313639719756904</v>
       </c>
       <c r="O33">
-        <v>0.3266550470848036</v>
+        <v>0.3359570877674585</v>
       </c>
       <c r="P33">
-        <v>0.3228730273243679</v>
+        <v>0.3427389509584105</v>
       </c>
       <c r="Q33">
-        <v>0.3497793700957297</v>
+        <v>0.3506828917165122</v>
       </c>
       <c r="R33">
-        <v>0.3276590896996688</v>
+        <v>0.3574395107511563</v>
       </c>
       <c r="S33">
-        <v>0.3247129564896102</v>
+        <v>0.3639944894221673</v>
       </c>
       <c r="T33">
-        <v>0.3290944693433463</v>
+        <v>0.3452850993407177</v>
       </c>
       <c r="U33">
-        <v>0.3289332621887804</v>
+        <v>0.3581992181382563</v>
       </c>
       <c r="V33">
-        <v>0.3780965318916605</v>
+        <v>0.3861759510117197</v>
       </c>
       <c r="W33">
-        <v>0.391177660669439</v>
+        <v>0.3925298177539032</v>
       </c>
       <c r="X33">
-        <v>0.3921429064469514</v>
+        <v>0.3986645380287711</v>
       </c>
       <c r="Y33">
-        <v>0.4022242344313236</v>
+        <v>0.4045909624536292</v>
       </c>
       <c r="Z33">
-        <v>0.4082555586062363</v>
+        <v>0.4103192466977075</v>
       </c>
       <c r="AA33">
-        <v>0.4093439980996215</v>
+        <v>0.4158589058309893</v>
       </c>
       <c r="AB33">
-        <v>0.4119455719041379</v>
+        <v>0.4212188636720331</v>
       </c>
       <c r="AC33">
-        <v>0.4256672853617008</v>
+        <v>0.4264074976623106</v>
       </c>
       <c r="AD33">
-        <v>0.4271449311361148</v>
+        <v>0.4314326797320198</v>
       </c>
       <c r="AE33">
-        <v>0.4024616647221462</v>
+        <v>0.4210223592060109</v>
       </c>
       <c r="AF33">
-        <v>0.3930659666891405</v>
+        <v>0.4195294934512724</v>
       </c>
       <c r="AG33">
-        <v>0.4043084152796459</v>
+        <v>0.4297842876110493</v>
       </c>
       <c r="AH33">
-        <v>0.4438707626799497</v>
+        <v>0.4500406334878005</v>
       </c>
       <c r="AI33">
-        <v>0.4536914933032943</v>
+        <v>0.4543513783603293</v>
       </c>
       <c r="AJ33">
-        <v>0.4535330180221729</v>
+        <v>0.4585371647950728</v>
       </c>
       <c r="AK33">
-        <v>0.460788224849168</v>
+        <v>0.4626032091489475</v>
       </c>
     </row>
     <row r="34" spans="1:37">
@@ -4258,112 +4258,112 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.2341046711639996</v>
+        <v>0.3598334075233404</v>
       </c>
       <c r="C34">
-        <v>0.2557657927630505</v>
+        <v>0.3027040691730514</v>
       </c>
       <c r="D34">
-        <v>0.1487132611081746</v>
+        <v>0.1438088072853596</v>
       </c>
       <c r="E34">
-        <v>0.3707026934552095</v>
+        <v>0.3727890909956533</v>
       </c>
       <c r="F34">
-        <v>0.2380246396108998</v>
+        <v>0.3215047441746332</v>
       </c>
       <c r="G34">
-        <v>0.2755195769522267</v>
+        <v>0.3448671391606746</v>
       </c>
       <c r="H34">
-        <v>0.3101032167699375</v>
+        <v>0.3002006494622044</v>
       </c>
       <c r="I34">
-        <v>0.2791662582006765</v>
+        <v>0.2976907037570304</v>
       </c>
       <c r="J34">
-        <v>0.2759782264929371</v>
+        <v>0.2579191443427933</v>
       </c>
       <c r="K34">
-        <v>0.2350665837776158</v>
+        <v>0.3621016051597465</v>
       </c>
       <c r="L34">
-        <v>0.2863004243882898</v>
+        <v>0.3078064178262404</v>
       </c>
       <c r="M34">
-        <v>0.2754647758360975</v>
+        <v>0.354634449274836</v>
       </c>
       <c r="N34">
-        <v>0.2267765799424561</v>
+        <v>0.2226960405613793</v>
       </c>
       <c r="O34">
-        <v>0.2438771556563782</v>
+        <v>0.3271345173110082</v>
       </c>
       <c r="P34">
-        <v>0.1242714680964551</v>
+        <v>0.1682241137864307</v>
       </c>
       <c r="Q34">
-        <v>0.3379323581929515</v>
+        <v>0.370247195325045</v>
       </c>
       <c r="R34">
-        <v>0.2095834658834861</v>
+        <v>0.370717128843812</v>
       </c>
       <c r="S34">
-        <v>0.2575959790873496</v>
+        <v>0.3704735444450583</v>
       </c>
       <c r="T34">
-        <v>0.2920694424583474</v>
+        <v>0.3201767782052234</v>
       </c>
       <c r="U34">
-        <v>0.2346610204844971</v>
+        <v>0.3200323169435416</v>
       </c>
       <c r="V34">
-        <v>0.2948422709189019</v>
+        <v>0.1417234987342654</v>
       </c>
       <c r="W34">
-        <v>0.2629516062936552</v>
+        <v>0.3743091025390174</v>
       </c>
       <c r="X34">
-        <v>0.3083958641080481</v>
+        <v>0.146783516154998</v>
       </c>
       <c r="Y34">
-        <v>0.3009379072009463</v>
+        <v>0.1491919718000987</v>
       </c>
       <c r="Z34">
-        <v>0.2619146548444956</v>
+        <v>0.3517966805577379</v>
       </c>
       <c r="AA34">
-        <v>0.279009622171599</v>
+        <v>0.338446479414459</v>
       </c>
       <c r="AB34">
-        <v>0.1853237420849339</v>
+        <v>0.1559756650763787</v>
       </c>
       <c r="AC34">
-        <v>0.3482655401444712</v>
+        <v>0.4009007418022255</v>
       </c>
       <c r="AD34">
-        <v>0.2151055529886827</v>
+        <v>0.3418310772697182</v>
       </c>
       <c r="AE34">
-        <v>0.2689760913452883</v>
+        <v>0.3590466982418887</v>
       </c>
       <c r="AF34">
-        <v>0.2841612101270828</v>
+        <v>0.3564730784462955</v>
       </c>
       <c r="AG34">
-        <v>0.251343569574091</v>
+        <v>0.3594905580336442</v>
       </c>
       <c r="AH34">
-        <v>0.319125623750727</v>
+        <v>0.1678335220716068</v>
       </c>
       <c r="AI34">
-        <v>0.291167112255266</v>
+        <v>0.1696187975325764</v>
       </c>
       <c r="AJ34">
-        <v>0.3302478914582006</v>
+        <v>0.1713554341869997</v>
       </c>
       <c r="AK34">
-        <v>0.3230703792720959</v>
+        <v>0.1730453912850159</v>
       </c>
     </row>
     <row r="35" spans="1:37">
@@ -4371,112 +4371,112 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.4551719929544757</v>
+        <v>0.4565896618812502</v>
       </c>
       <c r="C35">
-        <v>0.448335330018522</v>
+        <v>0.4463578374472165</v>
       </c>
       <c r="D35">
-        <v>0.4381325735003103</v>
+        <v>0.4587135099306584</v>
       </c>
       <c r="E35">
-        <v>0.4566027847328461</v>
+        <v>0.4586891822732899</v>
       </c>
       <c r="F35">
-        <v>0.4549805749187109</v>
+        <v>0.4074335450892479</v>
       </c>
       <c r="G35">
-        <v>0.4563397777238672</v>
+        <v>0.4425485443886443</v>
       </c>
       <c r="H35">
-        <v>0.4566966489575338</v>
+        <v>0.3888793406121465</v>
       </c>
       <c r="I35">
-        <v>0.4568377504997256</v>
+        <v>0.4149684168026806</v>
       </c>
       <c r="J35">
-        <v>0.446332378849601</v>
+        <v>0.4094773206616633</v>
       </c>
       <c r="K35">
-        <v>0.4558016854375303</v>
+        <v>0.4586139118729461</v>
       </c>
       <c r="L35">
-        <v>0.4500640547464409</v>
+        <v>0.4586200290099016</v>
       </c>
       <c r="M35">
-        <v>0.4555832512612648</v>
+        <v>0.4586261676080455</v>
       </c>
       <c r="N35">
-        <v>0.4566412500792997</v>
+        <v>0.4586323277805172</v>
       </c>
       <c r="O35">
-        <v>0.4494157257083521</v>
+        <v>0.4560618952442251</v>
       </c>
       <c r="P35">
-        <v>0.4387954885369318</v>
+        <v>0.4586614121709744</v>
       </c>
       <c r="Q35">
-        <v>0.4577907583681677</v>
+        <v>0.4586942799889502</v>
       </c>
       <c r="R35">
-        <v>0.4469848327491369</v>
+        <v>0.4563263748855186</v>
       </c>
       <c r="S35">
-        <v>0.4561329798029716</v>
+        <v>0.4548336085188004</v>
       </c>
       <c r="T35">
-        <v>0.4560319607395396</v>
+        <v>0.3999295685760956</v>
       </c>
       <c r="U35">
-        <v>0.4547467338648224</v>
+        <v>0.4190615571237387</v>
       </c>
       <c r="V35">
-        <v>0.4496564827106302</v>
+        <v>0.3782444739870608</v>
       </c>
       <c r="W35">
-        <v>0.4575165428716393</v>
+        <v>0.4588686999561036</v>
       </c>
       <c r="X35">
-        <v>0.4523728339239284</v>
+        <v>0.458894465505748</v>
       </c>
       <c r="Y35">
-        <v>0.4565737471419026</v>
+        <v>0.4589194076207544</v>
       </c>
       <c r="Z35">
-        <v>0.4569919422157868</v>
+        <v>0.4589435651541824</v>
       </c>
       <c r="AA35">
-        <v>0.4527101442631374</v>
+        <v>0.458966974552609</v>
       </c>
       <c r="AB35">
-        <v>0.4497163782717097</v>
+        <v>0.4589896700396049</v>
       </c>
       <c r="AC35">
-        <v>0.4582714714820643</v>
+        <v>0.459011683782674</v>
       </c>
       <c r="AD35">
-        <v>0.4534171594145087</v>
+        <v>0.4031900333638218</v>
       </c>
       <c r="AE35">
-        <v>0.4557987147179111</v>
+        <v>0.4294020058641863</v>
       </c>
       <c r="AF35">
-        <v>0.4549700302783091</v>
+        <v>0.4130026215741535</v>
       </c>
       <c r="AG35">
-        <v>0.4555033464063272</v>
+        <v>0.4299613371993786</v>
       </c>
       <c r="AH35">
-        <v>0.4521429016720379</v>
+        <v>0.4002129523809927</v>
       </c>
       <c r="AI35">
-        <v>0.4584711425707855</v>
+        <v>0.4591310276278204</v>
       </c>
       <c r="AJ35">
-        <v>0.4541448792261411</v>
+        <v>0.4591490259990409</v>
       </c>
       <c r="AK35">
-        <v>0.4573515574154217</v>
+        <v>0.4591665417152011</v>
       </c>
     </row>
     <row r="36" spans="1:37">
@@ -4484,112 +4484,112 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.4274969921254478</v>
+        <v>0.4213585661232679</v>
       </c>
       <c r="C36">
-        <v>0.4186472018500678</v>
+        <v>0.4099567086537547</v>
       </c>
       <c r="D36">
-        <v>0.4108377329005004</v>
+        <v>0.4314186693308485</v>
       </c>
       <c r="E36">
-        <v>0.4282710215367772</v>
+        <v>0.4308137335420016</v>
       </c>
       <c r="F36">
-        <v>0.4221272520884569</v>
+        <v>0.4093085694948533</v>
       </c>
       <c r="G36">
-        <v>0.4219415628426693</v>
+        <v>0.423296350389034</v>
       </c>
       <c r="H36">
-        <v>0.4251532568557637</v>
+        <v>0.4012781712283094</v>
       </c>
       <c r="I36">
-        <v>0.4260341927860004</v>
+        <v>0.4133254176433903</v>
       </c>
       <c r="J36">
-        <v>0.4188569134732671</v>
+        <v>0.4244929404543311</v>
       </c>
       <c r="K36">
-        <v>0.4258989747777162</v>
+        <v>0.4287112012131319</v>
       </c>
       <c r="L36">
-        <v>0.4180881673408395</v>
+        <v>0.4248505197375419</v>
       </c>
       <c r="M36">
-        <v>0.4257326167081662</v>
+        <v>0.428839893296869</v>
       </c>
       <c r="N36">
-        <v>0.4260196511281153</v>
+        <v>0.4289045785585142</v>
       </c>
       <c r="O36">
-        <v>0.41774694340521</v>
+        <v>0.4209758793694849</v>
       </c>
       <c r="P36">
-        <v>0.409550242800465</v>
+        <v>0.4294161664345076</v>
       </c>
       <c r="Q36">
-        <v>0.4291892038733965</v>
+        <v>0.430092725494179</v>
       </c>
       <c r="R36">
-        <v>0.4150164508042253</v>
+        <v>0.4298280044665135</v>
       </c>
       <c r="S36">
-        <v>0.4226738862384641</v>
+        <v>0.4294455666684271</v>
       </c>
       <c r="T36">
-        <v>0.4267636779757766</v>
+        <v>0.4089034325651056</v>
       </c>
       <c r="U36">
-        <v>0.4273511903902321</v>
+        <v>0.4152502392543657</v>
       </c>
       <c r="V36">
-        <v>0.4262179008190249</v>
+        <v>0.4301321487639879</v>
       </c>
       <c r="W36">
-        <v>0.4323308709072038</v>
+        <v>0.433683027991668</v>
       </c>
       <c r="X36">
-        <v>0.4261952817190634</v>
+        <v>0.42508381007369</v>
       </c>
       <c r="Y36">
-        <v>0.4323600787179133</v>
+        <v>0.4347268067402189</v>
       </c>
       <c r="Z36">
-        <v>0.4331603831191804</v>
+        <v>0.4352240712106517</v>
       </c>
       <c r="AA36">
-        <v>0.4280562844702154</v>
+        <v>0.4266180528121464</v>
       </c>
       <c r="AB36">
-        <v>0.4268998134781382</v>
+        <v>0.4361731052460333</v>
       </c>
       <c r="AC36">
-        <v>0.4358860291201974</v>
+        <v>0.4366262414208071</v>
       </c>
       <c r="AD36">
-        <v>0.4276713850745655</v>
+        <v>0.4189846299358662</v>
       </c>
       <c r="AE36">
-        <v>0.4280297958388742</v>
+        <v>0.4204132426756253</v>
       </c>
       <c r="AF36">
-        <v>0.430763844599457</v>
+        <v>0.4199721125878317</v>
       </c>
       <c r="AG36">
-        <v>0.4336919945169185</v>
+        <v>0.4256911726464055</v>
       </c>
       <c r="AH36">
-        <v>0.4336719835341143</v>
+        <v>0.4387020095234059</v>
       </c>
       <c r="AI36">
-        <v>0.4384229587372392</v>
+        <v>0.4390828437942742</v>
       </c>
       <c r="AJ36">
-        <v>0.4334262300493813</v>
+        <v>0.4354168430051641</v>
       </c>
       <c r="AK36">
-        <v>0.4379988899991996</v>
+        <v>0.439813874298979</v>
       </c>
     </row>
     <row r="37" spans="1:37">
@@ -4597,109 +4597,109 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.3946518835034952</v>
+        <v>0.4005225226445981</v>
       </c>
       <c r="C37">
-        <v>0.3689450166969044</v>
+        <v>0.3549181940709409</v>
       </c>
       <c r="D37">
-        <v>0.3834487354936932</v>
+        <v>0.4040296719240414</v>
       </c>
       <c r="E37">
-        <v>0.3744020649471995</v>
+        <v>0.4025143271802402</v>
       </c>
       <c r="F37">
-        <v>0.3513979034921684</v>
+        <v>0.3637696064161633</v>
       </c>
       <c r="G37">
-        <v>0.3388521825709915</v>
+        <v>0.3642431704455175</v>
       </c>
       <c r="H37">
-        <v>0.3723960693290226</v>
+        <v>0.3236912268998719</v>
       </c>
       <c r="I37">
-        <v>0.3780112588691849</v>
+        <v>0.3517963209223987</v>
       </c>
       <c r="J37">
-        <v>0.3856884481205063</v>
+        <v>0.3964304663381689</v>
       </c>
       <c r="K37">
-        <v>0.3950349859552464</v>
+        <v>0.3961894069237627</v>
       </c>
       <c r="L37">
-        <v>0.3741052146972643</v>
+        <v>0.3959475032643573</v>
       </c>
       <c r="M37">
         <v>0.3957047509170654</v>
       </c>
       <c r="N37">
-        <v>0.3930124209183456</v>
+        <v>0.3833686806957036</v>
       </c>
       <c r="O37">
-        <v>0.3731925546196842</v>
+        <v>0.3811900961605302</v>
       </c>
       <c r="P37">
-        <v>0.3759066692935983</v>
+        <v>0.3957725929276409</v>
       </c>
       <c r="Q37">
-        <v>0.3910809725906363</v>
+        <v>0.3968222403895688</v>
       </c>
       <c r="R37">
-        <v>0.3489244874355052</v>
+        <v>0.3963775059481019</v>
       </c>
       <c r="S37">
-        <v>0.3311247187734496</v>
+        <v>0.3911908102112199</v>
       </c>
       <c r="T37">
-        <v>0.3653771409837058</v>
+        <v>0.3401410746122947</v>
       </c>
       <c r="U37">
-        <v>0.372512447966985</v>
+        <v>0.362613692234693</v>
       </c>
       <c r="V37">
-        <v>0.3934625412134743</v>
+        <v>0.4015419603335336</v>
       </c>
       <c r="W37">
-        <v>0.4021039591666649</v>
+        <v>0.4023924147153306</v>
       </c>
       <c r="X37">
-        <v>0.3903691152036135</v>
+        <v>0.4032152482788279</v>
       </c>
       <c r="Y37">
         <v>0.40401178511407</v>
       </c>
       <c r="Z37">
-        <v>0.4047265788312195</v>
+        <v>0.4047832660096923</v>
       </c>
       <c r="AA37">
-        <v>0.3948653228202123</v>
+        <v>0.3959862549567911</v>
       </c>
       <c r="AB37">
-        <v>0.3969823529680616</v>
+        <v>0.4062556447359568</v>
       </c>
       <c r="AC37">
-        <v>0.4062184504926177</v>
+        <v>0.4069586627932275</v>
       </c>
       <c r="AD37">
-        <v>0.3719215097017156</v>
+        <v>0.3826765012175662</v>
       </c>
       <c r="AE37">
-        <v>0.3406273498877803</v>
+        <v>0.3561732290411757</v>
       </c>
       <c r="AF37">
-        <v>0.3674457040704889</v>
+        <v>0.3644634177585711</v>
       </c>
       <c r="AG37">
-        <v>0.3851351078535403</v>
+        <v>0.3837839603750759</v>
       </c>
       <c r="AH37">
-        <v>0.4040092421283431</v>
+        <v>0.4101791129361939</v>
       </c>
       <c r="AI37">
-        <v>0.4107449416487606</v>
+        <v>0.4107699582143966</v>
       </c>
       <c r="AJ37">
-        <v>0.4052091463757136</v>
+        <v>0.4113447436986166</v>
       </c>
       <c r="AK37">
         <v>0.411904115392379</v>
@@ -4710,112 +4710,112 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.4264435075910884</v>
+        <v>0.426966219416</v>
       </c>
       <c r="C38">
-        <v>0.3958148722425719</v>
+        <v>0.3799621748936788</v>
       </c>
       <c r="D38">
-        <v>0.36735888957756</v>
+        <v>0.3065423295071295</v>
       </c>
       <c r="E38">
-        <v>0.3808883556585034</v>
+        <v>0.4241979122525675</v>
       </c>
       <c r="F38">
-        <v>0.4035276713213343</v>
+        <v>0.381518999350217</v>
       </c>
       <c r="G38">
-        <v>0.4178261259692442</v>
+        <v>0.4067803490150715</v>
       </c>
       <c r="H38">
-        <v>0.4189891216736938</v>
+        <v>0.3591899070689001</v>
       </c>
       <c r="I38">
-        <v>0.4175905561471498</v>
+        <v>0.3773276774377446</v>
       </c>
       <c r="J38">
-        <v>0.3953274707901381</v>
+        <v>0.3817947712095922</v>
       </c>
       <c r="K38">
-        <v>0.4028657534106749</v>
+        <v>0.4215220774915837</v>
       </c>
       <c r="L38">
-        <v>0.3985970905069126</v>
+        <v>0.4118484993805243</v>
       </c>
       <c r="M38">
-        <v>0.4036045627911018</v>
+        <v>0.4176814629783611</v>
       </c>
       <c r="N38">
-        <v>0.4010644558008151</v>
+        <v>0.3621663777152154</v>
       </c>
       <c r="O38">
-        <v>0.3906526052752564</v>
+        <v>0.4028855462839077</v>
       </c>
       <c r="P38">
-        <v>0.3620510275224373</v>
+        <v>0.3481389978319414</v>
       </c>
       <c r="Q38">
-        <v>0.384118297779215</v>
+        <v>0.4042605223655924</v>
       </c>
       <c r="R38">
-        <v>0.3881888383918154</v>
+        <v>0.4190152002266361</v>
       </c>
       <c r="S38">
-        <v>0.4118732686301944</v>
+        <v>0.4171191815565019</v>
       </c>
       <c r="T38">
-        <v>0.4139814830820578</v>
+        <v>0.3703210638102331</v>
       </c>
       <c r="U38">
-        <v>0.411088289904857</v>
+        <v>0.3828125098618261</v>
       </c>
       <c r="V38">
-        <v>0.3989313942924619</v>
+        <v>0.3611619065621247</v>
       </c>
       <c r="W38">
-        <v>0.4059633900822013</v>
+        <v>0.4193481193576552</v>
       </c>
       <c r="X38">
-        <v>0.4025850371216997</v>
+        <v>0.400782759971139</v>
       </c>
       <c r="Y38">
-        <v>0.4070302595298166</v>
+        <v>0.3629203447835908</v>
       </c>
       <c r="Z38">
-        <v>0.4052495142628837</v>
+        <v>0.4098107101984344</v>
       </c>
       <c r="AA38">
-        <v>0.3988409684259907</v>
+        <v>0.4044744793958026</v>
       </c>
       <c r="AB38">
-        <v>0.3824709541285941</v>
+        <v>0.3616664917051279</v>
       </c>
       <c r="AC38">
-        <v>0.3954166895505434</v>
+        <v>0.4104046890108953</v>
       </c>
       <c r="AD38">
-        <v>0.3945826174906142</v>
+        <v>0.3894623388221943</v>
       </c>
       <c r="AE38">
-        <v>0.4130103661064773</v>
+        <v>0.3953345148178506</v>
       </c>
       <c r="AF38">
-        <v>0.41333777529137</v>
+        <v>0.3868997974562981</v>
       </c>
       <c r="AG38">
-        <v>0.4134939663941604</v>
+        <v>0.3977743525281275</v>
       </c>
       <c r="AH38">
-        <v>0.4045118513252175</v>
+        <v>0.38483496203217</v>
       </c>
       <c r="AI38">
-        <v>0.4102355641313434</v>
+        <v>0.3822535213139333</v>
       </c>
       <c r="AJ38">
-        <v>0.4073112219212726</v>
+        <v>0.4158587251654842</v>
       </c>
       <c r="AK38">
-        <v>0.4107181549532181</v>
+        <v>0.3831604740765543</v>
       </c>
     </row>
     <row r="39" spans="1:37">
@@ -4823,112 +4823,112 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.4308890861312732</v>
+        <v>0.431088677291956</v>
       </c>
       <c r="C39">
-        <v>0.424586329714536</v>
+        <v>0.4303071663986566</v>
       </c>
       <c r="D39">
-        <v>0.4135037992176331</v>
+        <v>0.4295003594973728</v>
       </c>
       <c r="E39">
-        <v>0.4265795260331467</v>
+        <v>0.4286659235735906</v>
       </c>
       <c r="F39">
-        <v>0.4233187542603838</v>
+        <v>0.4167910029004604</v>
       </c>
       <c r="G39">
-        <v>0.382278186781342</v>
+        <v>0.3766161876924561</v>
       </c>
       <c r="H39">
-        <v>0.4083548484750666</v>
+        <v>0.3273011539524758</v>
       </c>
       <c r="I39">
-        <v>0.4066048584428424</v>
+        <v>0.3559364730333879</v>
       </c>
       <c r="J39">
-        <v>0.4155456298672421</v>
+        <v>0.4257460956602135</v>
       </c>
       <c r="K39">
-        <v>0.4243702563088594</v>
+        <v>0.4258232523153164</v>
       </c>
       <c r="L39">
-        <v>0.4176563503683912</v>
+        <v>0.4259043178450715</v>
       </c>
       <c r="M39">
-        <v>0.4240796640727482</v>
+        <v>0.4259892005162796</v>
       </c>
       <c r="N39">
         <v>0.4260778125255223</v>
       </c>
       <c r="O39">
-        <v>0.4197287663609072</v>
+        <v>0.4261700698031693</v>
       </c>
       <c r="P39">
-        <v>0.4096874680356554</v>
+        <v>0.426744763071364</v>
       </c>
       <c r="Q39">
-        <v>0.4267028489969038</v>
+        <v>0.4276063706176862</v>
       </c>
       <c r="R39">
-        <v>0.4215118047212934</v>
+        <v>0.4284347918405931</v>
       </c>
       <c r="S39">
-        <v>0.3916648889983741</v>
+        <v>0.4209019716788691</v>
       </c>
       <c r="T39">
-        <v>0.4151684128658024</v>
+        <v>0.376544866414544</v>
       </c>
       <c r="U39">
-        <v>0.4132581280145231</v>
+        <v>0.3938887278387892</v>
       </c>
       <c r="V39">
-        <v>0.423413612308656</v>
+        <v>0.4314511817902816</v>
       </c>
       <c r="W39">
-        <v>0.4315180314546963</v>
+        <v>0.4321385806290918</v>
       </c>
       <c r="X39">
-        <v>0.4262803650486856</v>
+        <v>0.4328019966305052</v>
       </c>
       <c r="Y39">
-        <v>0.4317395846420173</v>
+        <v>0.4334426242298985</v>
       </c>
       <c r="Z39">
-        <v>0.4333795512479113</v>
+        <v>0.43406158112204</v>
       </c>
       <c r="AA39">
-        <v>0.429992577018434</v>
+        <v>0.4346599142730873</v>
       </c>
       <c r="AB39">
-        <v>0.4272607619774053</v>
+        <v>0.4352386053788374</v>
       </c>
       <c r="AC39">
-        <v>0.4350583635270597</v>
+        <v>0.4357985758276695</v>
       </c>
       <c r="AD39">
-        <v>0.4347591187430728</v>
+        <v>0.4363406912196955</v>
       </c>
       <c r="AE39">
-        <v>0.4126519525683418</v>
+        <v>0.3976695408084916</v>
       </c>
       <c r="AF39">
-        <v>0.4318820140495712</v>
+        <v>0.4216467895154995</v>
       </c>
       <c r="AG39">
-        <v>0.4353842005419556</v>
+        <v>0.4303679573917151</v>
       </c>
       <c r="AH39">
-        <v>0.4321763118475802</v>
+        <v>0.4383461826554311</v>
       </c>
       <c r="AI39">
-        <v>0.4384296001301532</v>
+        <v>0.438810323550554</v>
       </c>
       <c r="AJ39">
-        <v>0.434256692255429</v>
+        <v>0.4392608390283289</v>
       </c>
       <c r="AK39">
-        <v>0.4381491121300163</v>
+        <v>0.4396983017896198</v>
       </c>
     </row>
     <row r="40" spans="1:37">
@@ -4936,112 +4936,112 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.4069027538963774</v>
+        <v>0.3878721877129075</v>
       </c>
       <c r="C40">
-        <v>0.3679883981859816</v>
+        <v>0.2677746277541466</v>
       </c>
       <c r="D40">
-        <v>0.4369403511501569</v>
+        <v>0.457521287580505</v>
       </c>
       <c r="E40">
-        <v>0.4566980309660951</v>
+        <v>0.4587844285065389</v>
       </c>
       <c r="F40">
-        <v>0.3824088512837141</v>
+        <v>0.2159746575582612</v>
       </c>
       <c r="G40">
-        <v>0.3770609982574623</v>
+        <v>0.3558008534741869</v>
       </c>
       <c r="H40">
-        <v>0.4127593667760985</v>
+        <v>0.2159085465771864</v>
       </c>
       <c r="I40">
-        <v>0.3943663501694237</v>
+        <v>0.2158945505882969</v>
       </c>
       <c r="J40">
-        <v>0.3635246699510229</v>
+        <v>0.4586922725757605</v>
       </c>
       <c r="K40">
-        <v>0.3926482454878217</v>
+        <v>0.2158899865990514</v>
       </c>
       <c r="L40">
-        <v>0.3545467709936557</v>
+        <v>0.2158876926163309</v>
       </c>
       <c r="M40">
-        <v>0.4120935428115999</v>
+        <v>0.4054440475832578</v>
       </c>
       <c r="N40">
-        <v>0.4348698691276954</v>
+        <v>0.4586830804640313</v>
       </c>
       <c r="O40">
-        <v>0.4038836852487804</v>
+        <v>0.2158807622092969</v>
       </c>
       <c r="P40">
-        <v>0.4401340763659574</v>
+        <v>0.4586947191402057</v>
       </c>
       <c r="Q40">
-        <v>0.4590964783792175</v>
+        <v>0.4587186338453353</v>
       </c>
       <c r="R40">
-        <v>0.3897606109885092</v>
+        <v>0.2159416880102458</v>
       </c>
       <c r="S40">
-        <v>0.3684027839341263</v>
+        <v>0.4318184715955993</v>
       </c>
       <c r="T40">
-        <v>0.3950015899892271</v>
+        <v>0.2159853940587756</v>
       </c>
       <c r="U40">
-        <v>0.3585678708109403</v>
+        <v>0.2160061279585583</v>
       </c>
       <c r="V40">
-        <v>0.3914669959379324</v>
+        <v>0.4588261658642737</v>
       </c>
       <c r="W40">
-        <v>0.4156382098209862</v>
+        <v>0.4588455422420621</v>
       </c>
       <c r="X40">
-        <v>0.379920425954917</v>
+        <v>0.4588642893193005</v>
       </c>
       <c r="Y40">
-        <v>0.4286788027922687</v>
+        <v>0.4588824372634729</v>
       </c>
       <c r="Z40">
-        <v>0.450290995584779</v>
+        <v>0.4589000143441606</v>
       </c>
       <c r="AA40">
-        <v>0.4278361090975037</v>
+        <v>0.458917047079983</v>
       </c>
       <c r="AB40">
-        <v>0.4507267082321048</v>
+        <v>0.4589335603720938</v>
       </c>
       <c r="AC40">
-        <v>0.4592597876993902</v>
+        <v>0.4589495776256483</v>
       </c>
       <c r="AD40">
-        <v>0.4111692237712219</v>
+        <v>0.4589651208604851</v>
       </c>
       <c r="AE40">
-        <v>0.3701129684977001</v>
+        <v>0.2161802108121257</v>
       </c>
       <c r="AF40">
-        <v>0.381756611535858</v>
+        <v>0.216194867024064</v>
       </c>
       <c r="AG40">
-        <v>0.364978421373912</v>
+        <v>0.2162091079322106</v>
       </c>
       <c r="AH40">
-        <v>0.4115065210303543</v>
+        <v>0.4590229509422592</v>
       </c>
       <c r="AI40">
-        <v>0.4318935300998507</v>
+        <v>0.4590364125006567</v>
       </c>
       <c r="AJ40">
-        <v>0.3993890243224769</v>
+        <v>0.4590495081597865</v>
       </c>
       <c r="AK40">
-        <v>0.4414379263737841</v>
+        <v>0.4590622526379085</v>
       </c>
     </row>
     <row r="41" spans="1:37">
@@ -5049,112 +5049,112 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.3408675097329461</v>
+        <v>0.4141702760994312</v>
       </c>
       <c r="C41">
-        <v>0.2907181709174399</v>
+        <v>0.3545764481257777</v>
       </c>
       <c r="D41">
-        <v>0.1880747175486755</v>
+        <v>0.2418186289954747</v>
       </c>
       <c r="E41">
-        <v>0.1873414526674159</v>
+        <v>0.4251420994432181</v>
       </c>
       <c r="F41">
-        <v>0.3196283424638544</v>
+        <v>0.3601297121499173</v>
       </c>
       <c r="G41">
-        <v>0.3907645058651306</v>
+        <v>0.3966570595881692</v>
       </c>
       <c r="H41">
-        <v>0.4049411043960763</v>
+        <v>0.3279343739664651</v>
       </c>
       <c r="I41">
-        <v>0.4003916278874762</v>
+        <v>0.3531282798073621</v>
       </c>
       <c r="J41">
-        <v>0.3323690172955244</v>
+        <v>0.3644351941436134</v>
       </c>
       <c r="K41">
-        <v>0.3413873803823833</v>
+        <v>0.4265300067332387</v>
       </c>
       <c r="L41">
-        <v>0.3461424494671441</v>
+        <v>0.4122085219871248</v>
       </c>
       <c r="M41">
-        <v>0.3523224827146092</v>
+        <v>0.4218677457711767</v>
       </c>
       <c r="N41">
-        <v>0.3389944275288561</v>
+        <v>0.3367113087354562</v>
       </c>
       <c r="O41">
-        <v>0.318831967305792</v>
+        <v>0.4002919370579043</v>
       </c>
       <c r="P41">
-        <v>0.2220220668576477</v>
+        <v>0.3160160483266307</v>
       </c>
       <c r="Q41">
-        <v>0.2566432917475386</v>
+        <v>0.402762546062269</v>
       </c>
       <c r="R41">
-        <v>0.3147916584135116</v>
+        <v>0.4255960938815951</v>
       </c>
       <c r="S41">
-        <v>0.3854186565732268</v>
+        <v>0.422313584290114</v>
       </c>
       <c r="T41">
-        <v>0.3967356399752113</v>
+        <v>0.3505441745520195</v>
       </c>
       <c r="U41">
-        <v>0.3860846597854122</v>
+        <v>0.3698780678424133</v>
       </c>
       <c r="V41">
-        <v>0.3535774443237144</v>
+        <v>0.3365409584283469</v>
       </c>
       <c r="W41">
-        <v>0.3615633041753168</v>
+        <v>0.4263274159264891</v>
       </c>
       <c r="X41">
-        <v>0.3643135111421324</v>
+        <v>0.3977469405235036</v>
       </c>
       <c r="Y41">
-        <v>0.3696281847512851</v>
+        <v>0.339438894181896</v>
       </c>
       <c r="Z41">
-        <v>0.3607047061696285</v>
+        <v>0.4117488173275418</v>
       </c>
       <c r="AA41">
-        <v>0.3477960426957108</v>
+        <v>0.4035694094829149</v>
       </c>
       <c r="AB41">
-        <v>0.2867459649639282</v>
+        <v>0.3376847489739692</v>
       </c>
       <c r="AC41">
-        <v>0.3148030491224634</v>
+        <v>0.4127829300740636</v>
       </c>
       <c r="AD41">
-        <v>0.3262202568711646</v>
+        <v>0.3805847879288891</v>
       </c>
       <c r="AE41">
-        <v>0.3892204722781962</v>
+        <v>0.389666707073501</v>
       </c>
       <c r="AF41">
-        <v>0.3928838653085777</v>
+        <v>0.3767321364296177</v>
       </c>
       <c r="AG41">
-        <v>0.3924373203996416</v>
+        <v>0.3935032654091941</v>
       </c>
       <c r="AH41">
-        <v>0.3713242375984708</v>
+        <v>0.373645921959172</v>
       </c>
       <c r="AI41">
-        <v>0.3778086570417788</v>
+        <v>0.3697216356904901</v>
       </c>
       <c r="AJ41">
-        <v>0.3792227891502948</v>
+        <v>0.4214158912590525</v>
       </c>
       <c r="AK41">
-        <v>0.3833636437673318</v>
+        <v>0.3712038869722694</v>
       </c>
     </row>
     <row r="42" spans="1:37">
@@ -5162,112 +5162,112 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.3280818628415417</v>
+        <v>0.3316478474673881</v>
       </c>
       <c r="C42">
-        <v>0.3162137001579615</v>
+        <v>0.3266482076883145</v>
       </c>
       <c r="D42">
-        <v>0.3488130332544443</v>
+        <v>0.3693939696847924</v>
       </c>
       <c r="E42">
-        <v>0.3875936663099109</v>
+        <v>0.3896800638503547</v>
       </c>
       <c r="F42">
-        <v>0.3611841299647649</v>
+        <v>0.4110046264296976</v>
       </c>
       <c r="G42">
-        <v>0.1906494926244167</v>
+        <v>0.3853684103123671</v>
       </c>
       <c r="H42">
-        <v>0.2143053281560987</v>
+        <v>0.3084127702669019</v>
       </c>
       <c r="I42">
-        <v>0.2172</v>
+        <v>0.3591774670405361</v>
       </c>
       <c r="J42">
-        <v>0.4492579817823374</v>
+        <v>0.4583036627593535</v>
       </c>
       <c r="K42">
-        <v>0.4571877735645842</v>
+        <v>0.4583006974721299</v>
       </c>
       <c r="L42">
-        <v>0.4514440257365393</v>
+        <v>0.4582977217997948</v>
       </c>
       <c r="M42">
-        <v>0.4568927234112972</v>
+        <v>0.4582947356876959</v>
       </c>
       <c r="N42">
-        <v>0.4578258823577829</v>
+        <v>0.4582917390807967</v>
       </c>
       <c r="O42">
-        <v>0.4506979593173451</v>
+        <v>0.4582887319236735</v>
       </c>
       <c r="P42">
-        <v>0.4401340763659574</v>
+        <v>0.4583068363552443</v>
       </c>
       <c r="Q42">
-        <v>0.4590964783792175</v>
+        <v>0.4583378576553706</v>
       </c>
       <c r="R42">
-        <v>0.4489197168101556</v>
+        <v>0.4583677626935037</v>
       </c>
       <c r="S42">
-        <v>0.3281750346690162</v>
+        <v>0.4463412125045844</v>
       </c>
       <c r="T42">
-        <v>0.2172</v>
+        <v>0.3232777550230897</v>
       </c>
       <c r="U42">
-        <v>0.2172</v>
+        <v>0.3744429776863311</v>
       </c>
       <c r="V42">
-        <v>0.4519205808799407</v>
+        <v>0.4584773443441912</v>
       </c>
       <c r="W42">
-        <v>0.4586478429155357</v>
+        <v>0.4585024786884146</v>
       </c>
       <c r="X42">
-        <v>0.4534783684181803</v>
+        <v>0.4585267967264731</v>
       </c>
       <c r="Y42">
-        <v>0.4576332719776943</v>
+        <v>0.4585503375905478</v>
       </c>
       <c r="Z42">
-        <v>0.4579363119085288</v>
+        <v>0.4585731379509286</v>
       </c>
       <c r="AA42">
-        <v>0.4534850922686322</v>
+        <v>0.4585952322066197</v>
       </c>
       <c r="AB42">
-        <v>0.4507267082321048</v>
+        <v>0.4586166526585076</v>
       </c>
       <c r="AC42">
-        <v>0.4592597876993902</v>
+        <v>0.4586374296669221</v>
       </c>
       <c r="AD42">
-        <v>0.4547949227170515</v>
+        <v>0.4586575917952105</v>
       </c>
       <c r="AE42">
-        <v>0.4592939703548359</v>
+        <v>0.4586771659407495</v>
       </c>
       <c r="AF42">
-        <v>0.2942734867196847</v>
+        <v>0.3222603210326694</v>
       </c>
       <c r="AG42">
-        <v>0.3682361665749853</v>
+        <v>0.3957893753700147</v>
       </c>
       <c r="AH42">
-        <v>0.4538301291921492</v>
+        <v>0.4587326069088533</v>
       </c>
       <c r="AI42">
-        <v>0.459340114942965</v>
+        <v>0.4587500687609208</v>
       </c>
       <c r="AJ42">
-        <v>0.4549958532271001</v>
+        <v>0.4587670559815458</v>
       </c>
       <c r="AK42">
-        <v>0.4581850157002205</v>
+        <v>0.458783587662728</v>
       </c>
     </row>
     <row r="43" spans="1:37">
@@ -5275,112 +5275,112 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.3723164570628583</v>
+        <v>0.3758824416887047</v>
       </c>
       <c r="C43">
-        <v>0.3019355805299988</v>
+        <v>0.3818190780141696</v>
       </c>
       <c r="D43">
-        <v>0.3675249106092392</v>
+        <v>0.3881058470395873</v>
       </c>
       <c r="E43">
-        <v>0.3926804660376024</v>
+        <v>0.3947668635780462</v>
       </c>
       <c r="F43">
-        <v>0.2343668817570709</v>
+        <v>0.3204876939556282</v>
       </c>
       <c r="G43">
-        <v>0.2231659039734867</v>
+        <v>0.3773463860701906</v>
       </c>
       <c r="H43">
-        <v>0.2801589888795084</v>
+        <v>0.3281529533727567</v>
       </c>
       <c r="I43">
-        <v>0.296800484662949</v>
+        <v>0.3657785263462821</v>
       </c>
       <c r="J43">
-        <v>0.4279784804660287</v>
+        <v>0.4387204986836912</v>
       </c>
       <c r="K43">
-        <v>0.447233153791232</v>
+        <v>0.4500453802266478</v>
       </c>
       <c r="L43">
-        <v>0.452871349938145</v>
+        <v>0.4614273242016057</v>
       </c>
       <c r="M43">
-        <v>0.469758817274859</v>
+        <v>0.4728660938635618</v>
       </c>
       <c r="N43">
-        <v>0.4821873550369302</v>
+        <v>0.4843614726791474</v>
       </c>
       <c r="O43">
-        <v>0.4866112227192224</v>
+        <v>0.4959132634018773</v>
       </c>
       <c r="P43">
-        <v>0.4878780640596744</v>
+        <v>0.507743987693717</v>
       </c>
       <c r="Q43">
-        <v>0.518467419596915</v>
+        <v>0.5193709412176974</v>
       </c>
       <c r="R43">
-        <v>0.4612322074682235</v>
+        <v>0.5226796878148017</v>
       </c>
       <c r="S43">
-        <v>0.3501986085088196</v>
+        <v>0.5140726543028835</v>
       </c>
       <c r="T43">
-        <v>0.3553292336571874</v>
+        <v>0.443365083073944</v>
       </c>
       <c r="U43">
-        <v>0.3547661994267726</v>
+        <v>0.46500782231191</v>
       </c>
       <c r="V43">
-        <v>0.513887906564656</v>
+        <v>0.5204193981019826</v>
       </c>
       <c r="W43">
-        <v>0.5200498570611262</v>
+        <v>0.5198796380685767</v>
       </c>
       <c r="X43">
-        <v>0.514325503942494</v>
+        <v>0.5193494810984001</v>
       </c>
       <c r="Y43">
-        <v>0.5179356756274135</v>
+        <v>0.5188286808019557</v>
       </c>
       <c r="Z43">
-        <v>0.517703854630439</v>
+        <v>0.5183169986582631</v>
       </c>
       <c r="AA43">
-        <v>0.5127273791152718</v>
+        <v>0.5178142037430092</v>
       </c>
       <c r="AB43">
-        <v>0.5094530878266572</v>
+        <v>0.5173200724638318</v>
       </c>
       <c r="AC43">
-        <v>0.5174793612831453</v>
+        <v>0.5168343883030658</v>
       </c>
       <c r="AD43">
-        <v>0.5125165528013343</v>
+        <v>0.5163569415681676</v>
       </c>
       <c r="AE43">
-        <v>0.383065718489096</v>
+        <v>0.4469961427466028</v>
       </c>
       <c r="AF43">
-        <v>0.3442984422539194</v>
+        <v>0.4502517465843622</v>
       </c>
       <c r="AG43">
-        <v>0.3935853325989367</v>
+        <v>0.4711846235450188</v>
       </c>
       <c r="AH43">
-        <v>0.5096441181443221</v>
+        <v>0.51452556059579</v>
       </c>
       <c r="AI43">
-        <v>0.5146971696239711</v>
+        <v>0.5140863779957628</v>
       </c>
       <c r="AJ43">
-        <v>0.5099035657519785</v>
+        <v>0.5136543050017461</v>
       </c>
       <c r="AK43">
-        <v>0.5126507905247426</v>
+        <v>0.5132291733633469</v>
       </c>
     </row>
     <row r="44" spans="1:37">
@@ -5388,112 +5388,112 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.4554999132310875</v>
+        <v>0.4564019504316019</v>
       </c>
       <c r="C44">
-        <v>0.4478665675848081</v>
+        <v>0.4109894420564072</v>
       </c>
       <c r="D44">
-        <v>0.4360237399444569</v>
+        <v>0.3391057725103057</v>
       </c>
       <c r="E44">
-        <v>0.4541484446391907</v>
+        <v>0.4567883668213831</v>
       </c>
       <c r="F44">
-        <v>0.4555432707249172</v>
+        <v>0.4153139178753739</v>
       </c>
       <c r="G44">
-        <v>0.4593500532516896</v>
+        <v>0.4417126239788464</v>
       </c>
       <c r="H44">
-        <v>0.4592225391933483</v>
+        <v>0.3950164612538746</v>
       </c>
       <c r="I44">
-        <v>0.4594207245103922</v>
+        <v>0.4138011528924873</v>
       </c>
       <c r="J44">
-        <v>0.4477775440201072</v>
+        <v>0.4186866339298171</v>
       </c>
       <c r="K44">
-        <v>0.455692936014923</v>
+        <v>0.459544915938442</v>
       </c>
       <c r="L44">
-        <v>0.4501084014730513</v>
+        <v>0.4500843097692561</v>
       </c>
       <c r="M44">
-        <v>0.4555403921880756</v>
+        <v>0.4565194124559553</v>
       </c>
       <c r="N44">
-        <v>0.4561671501048963</v>
+        <v>0.3995297828605467</v>
       </c>
       <c r="O44">
-        <v>0.4487432884113015</v>
+        <v>0.442061877566361</v>
       </c>
       <c r="P44">
-        <v>0.4363796148828702</v>
+        <v>0.3847988736716077</v>
       </c>
       <c r="Q44">
-        <v>0.4555651021389876</v>
+        <v>0.4429387429587844</v>
       </c>
       <c r="R44">
-        <v>0.446742342734291</v>
+        <v>0.4580429323463024</v>
       </c>
       <c r="S44">
-        <v>0.4589858031640635</v>
+        <v>0.455640538851775</v>
       </c>
       <c r="T44">
-        <v>0.4586658924558318</v>
+        <v>0.4056225504504521</v>
       </c>
       <c r="U44">
-        <v>0.4575146008481243</v>
+        <v>0.4183855103327273</v>
       </c>
       <c r="V44">
-        <v>0.4503141030798661</v>
+        <v>0.3946914477197075</v>
       </c>
       <c r="W44">
-        <v>0.4570217244168943</v>
+        <v>0.4567130422884644</v>
       </c>
       <c r="X44">
-        <v>0.4519957470691202</v>
+        <v>0.4363356119571666</v>
       </c>
       <c r="Y44">
-        <v>0.4561331283506682</v>
+        <v>0.3948437783286973</v>
       </c>
       <c r="Z44">
-        <v>0.4561529482669273</v>
+        <v>0.4453979569676946</v>
       </c>
       <c r="AA44">
-        <v>0.4514263862018498</v>
+        <v>0.4392168713933219</v>
       </c>
       <c r="AB44">
-        <v>0.447042783447596</v>
+        <v>0.3917820151865515</v>
       </c>
       <c r="AC44">
-        <v>0.4560139235098113</v>
+        <v>0.4450564787215491</v>
       </c>
       <c r="AD44">
-        <v>0.4519078955305507</v>
+        <v>0.4215056450940499</v>
       </c>
       <c r="AE44">
-        <v>0.4580131824461743</v>
+        <v>0.4276329942872151</v>
       </c>
       <c r="AF44">
-        <v>0.4573359216036271</v>
+        <v>0.4178120042863994</v>
       </c>
       <c r="AG44">
-        <v>0.4575930833347175</v>
+        <v>0.4296143891553122</v>
       </c>
       <c r="AH44">
-        <v>0.4520382893123924</v>
+        <v>0.4146462184715103</v>
       </c>
       <c r="AI44">
-        <v>0.4575258354285587</v>
+        <v>0.4112973983330464</v>
       </c>
       <c r="AJ44">
-        <v>0.4533144675740238</v>
+        <v>0.4491299585935994</v>
       </c>
       <c r="AK44">
-        <v>0.4564846237629497</v>
+        <v>0.4114743217662242</v>
       </c>
     </row>
     <row r="45" spans="1:37">
@@ -5501,112 +5501,112 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.4451394150286038</v>
+        <v>0.4479962953307026</v>
       </c>
       <c r="C45">
-        <v>0.4417289705562798</v>
+        <v>0.4484541993254726</v>
       </c>
       <c r="D45">
-        <v>0.4283534660031045</v>
+        <v>0.4489344024334526</v>
       </c>
       <c r="E45">
-        <v>0.4473521766570423</v>
+        <v>0.4494385741974861</v>
       </c>
       <c r="F45">
-        <v>0.447225176770659</v>
+        <v>0.44996855509204</v>
       </c>
       <c r="G45">
-        <v>0.3909687734301501</v>
+        <v>0.2077263789732924</v>
       </c>
       <c r="H45">
-        <v>0.4387663767868122</v>
+        <v>0.2907958616762708</v>
       </c>
       <c r="I45">
-        <v>0.4476246805981176</v>
+        <v>0.4049296093528045</v>
       </c>
       <c r="J45">
-        <v>0.442112195792397</v>
+        <v>0.4527105570352712</v>
       </c>
       <c r="K45">
-        <v>0.4507411959650809</v>
+        <v>0.4535534224004967</v>
       </c>
       <c r="L45">
-        <v>0.445843265408833</v>
+        <v>0.4543992396722937</v>
       </c>
       <c r="M45">
-        <v>0.4521407477965365</v>
+        <v>0.4552480243852393</v>
       </c>
       <c r="N45">
-        <v>0.4539256745408869</v>
+        <v>0.4560997921831041</v>
       </c>
       <c r="O45">
-        <v>0.4478252994293012</v>
+        <v>0.4569545588198136</v>
       </c>
       <c r="P45">
-        <v>0.4379733712944074</v>
+        <v>0.45783929492845</v>
       </c>
       <c r="Q45">
-        <v>0.4578122580194849</v>
+        <v>0.4587157796402674</v>
       </c>
       <c r="R45">
-        <v>0.4484804419757025</v>
+        <v>0.4595607251655468</v>
       </c>
       <c r="S45">
-        <v>0.4088383472147726</v>
+        <v>0.2158258845920177</v>
       </c>
       <c r="T45">
-        <v>0.455845391703141</v>
+        <v>0.3876574103725977</v>
       </c>
       <c r="U45">
-        <v>0.4588546541918441</v>
+        <v>0.4586727981961619</v>
       </c>
       <c r="V45">
-        <v>0.4519205808799407</v>
+        <v>0.4586950739038487</v>
       </c>
       <c r="W45">
-        <v>0.4586478429155357</v>
+        <v>0.4587166142052042</v>
       </c>
       <c r="X45">
-        <v>0.4534783684181803</v>
+        <v>0.4587374549267085</v>
       </c>
       <c r="Y45">
-        <v>0.4576332719776943</v>
+        <v>0.4587576296049031</v>
       </c>
       <c r="Z45">
-        <v>0.4579363119085288</v>
+        <v>0.4587771696664718</v>
       </c>
       <c r="AA45">
-        <v>0.4534850922686322</v>
+        <v>0.4587961045915919</v>
       </c>
       <c r="AB45">
-        <v>0.4507267082321048</v>
+        <v>0.4588144620623393</v>
       </c>
       <c r="AC45">
-        <v>0.4592597876993902</v>
+        <v>0.45883226809772</v>
       </c>
       <c r="AD45">
-        <v>0.4547949227170515</v>
+        <v>0.4588495471767141</v>
       </c>
       <c r="AE45">
-        <v>0.4266981933698383</v>
+        <v>0.4588663223505535</v>
       </c>
       <c r="AF45">
-        <v>0.4585272442549873</v>
+        <v>0.458882615345319</v>
       </c>
       <c r="AG45">
-        <v>0.4588465989547993</v>
+        <v>0.458898446655815</v>
       </c>
       <c r="AH45">
-        <v>0.4538301291921492</v>
+        <v>0.4589138356315757</v>
       </c>
       <c r="AI45">
-        <v>0.459340114942965</v>
+        <v>0.4589288005557614</v>
       </c>
       <c r="AJ45">
-        <v>0.4549958532271001</v>
+        <v>0.4589433587176215</v>
       </c>
       <c r="AK45">
-        <v>0.4581850157002205</v>
+        <v>0.458957526479128</v>
       </c>
     </row>
     <row r="46" spans="1:37">
@@ -5614,112 +5614,112 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.4499160244856443</v>
+        <v>0.4504794725821105</v>
       </c>
       <c r="C46">
-        <v>0.439229370821542</v>
+        <v>0.4246719426519129</v>
       </c>
       <c r="D46">
-        <v>0.4209371892116046</v>
+        <v>0.3712804019000125</v>
       </c>
       <c r="E46">
-        <v>0.4368765192383764</v>
+        <v>0.4568513293613594</v>
       </c>
       <c r="F46">
-        <v>0.4469735696314502</v>
+        <v>0.4247327284150909</v>
       </c>
       <c r="G46">
-        <v>0.4556217184131756</v>
+        <v>0.4460517839569517</v>
       </c>
       <c r="H46">
-        <v>0.4565423507720616</v>
+        <v>0.4059693768278814</v>
       </c>
       <c r="I46">
-        <v>0.4562192880795455</v>
+        <v>0.4212705395896774</v>
       </c>
       <c r="J46">
-        <v>0.4391681639388155</v>
+        <v>0.4232588364379997</v>
       </c>
       <c r="K46">
-        <v>0.4467318365717473</v>
+        <v>0.4586791924068173</v>
       </c>
       <c r="L46">
-        <v>0.441751019370752</v>
+        <v>0.449945650928627</v>
       </c>
       <c r="M46">
-        <v>0.4468295634645247</v>
+        <v>0.4557517328651158</v>
       </c>
       <c r="N46">
-        <v>0.4453774932642703</v>
+        <v>0.4000518202422199</v>
       </c>
       <c r="O46">
-        <v>0.4358206066876517</v>
+        <v>0.4409964301220061</v>
       </c>
       <c r="P46">
-        <v>0.411753807437554</v>
+        <v>0.3812411223628008</v>
       </c>
       <c r="Q46">
-        <v>0.4316666815610944</v>
+        <v>0.4408402089147179</v>
       </c>
       <c r="R46">
-        <v>0.4312018900759094</v>
+        <v>0.456862396133576</v>
       </c>
       <c r="S46">
-        <v>0.4514875271816886</v>
+        <v>0.4539928683906793</v>
       </c>
       <c r="T46">
-        <v>0.4526040849405057</v>
+        <v>0.3958023896369975</v>
       </c>
       <c r="U46">
-        <v>0.4494781739138057</v>
+        <v>0.4092039799582438</v>
       </c>
       <c r="V46">
-        <v>0.4372791756533759</v>
+        <v>0.3785259456544633</v>
       </c>
       <c r="W46">
-        <v>0.4434927372162177</v>
+        <v>0.4548441964343386</v>
       </c>
       <c r="X46">
-        <v>0.4392518263369496</v>
+        <v>0.428095237976856</v>
       </c>
       <c r="Y46">
-        <v>0.4429184124230711</v>
+        <v>0.3713538434657618</v>
       </c>
       <c r="Z46">
-        <v>0.4402267176627047</v>
+        <v>0.4387898768280619</v>
       </c>
       <c r="AA46">
-        <v>0.4327196854785214</v>
+        <v>0.4293734425789729</v>
       </c>
       <c r="AB46">
-        <v>0.4134785738695387</v>
+        <v>0.3588211606804851</v>
       </c>
       <c r="AC46">
-        <v>0.4255500011279477</v>
+        <v>0.4364218108181155</v>
       </c>
       <c r="AD46">
-        <v>0.4240020952453676</v>
+        <v>0.3990763297463225</v>
       </c>
       <c r="AE46">
-        <v>0.4447734911149364</v>
+        <v>0.4071236003161811</v>
       </c>
       <c r="AF46">
-        <v>0.4446530055992423</v>
+        <v>0.3893687376838872</v>
       </c>
       <c r="AG46">
-        <v>0.4439773043405713</v>
+        <v>0.4073678434617051</v>
       </c>
       <c r="AH46">
-        <v>0.4325242578805518</v>
+        <v>0.3796328280897875</v>
       </c>
       <c r="AI46">
-        <v>0.4372958719983373</v>
+        <v>0.3712411418621918</v>
       </c>
       <c r="AJ46">
-        <v>0.4340384522410478</v>
+        <v>0.4388546794259806</v>
       </c>
       <c r="AK46">
-        <v>0.436530997621814</v>
+        <v>0.3662929933238882</v>
       </c>
     </row>
     <row r="47" spans="1:37">
@@ -5727,112 +5727,112 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.467380937504738</v>
+        <v>0.4695274014565562</v>
       </c>
       <c r="C47">
-        <v>0.4629106626891065</v>
+        <v>0.4570912406381241</v>
       </c>
       <c r="D47">
-        <v>0.4500483953213628</v>
+        <v>0.4287987929621093</v>
       </c>
       <c r="E47">
-        <v>0.4678870307720812</v>
+        <v>0.4746354733633102</v>
       </c>
       <c r="F47">
-        <v>0.4702826034844253</v>
+        <v>0.4582687893275318</v>
       </c>
       <c r="G47">
-        <v>0.4744271565290261</v>
+        <v>0.4724656144660485</v>
       </c>
       <c r="H47">
-        <v>0.4741517698889057</v>
+        <v>0.4500086442320423</v>
       </c>
       <c r="I47">
-        <v>0.4742013174384092</v>
+        <v>0.4614023108859295</v>
       </c>
       <c r="J47">
-        <v>0.462173856308403</v>
+        <v>0.4590854796598139</v>
       </c>
       <c r="K47">
-        <v>0.4701014393903745</v>
+        <v>0.4747065912557693</v>
       </c>
       <c r="L47">
-        <v>0.4645758000111409</v>
+        <v>0.4710631748998776</v>
       </c>
       <c r="M47">
-        <v>0.4700100933611986</v>
+        <v>0.4734738461993498</v>
       </c>
       <c r="N47">
-        <v>0.4705791098744381</v>
+        <v>0.4518910432415553</v>
       </c>
       <c r="O47">
-        <v>0.4631186507405951</v>
+        <v>0.4679472431660601</v>
       </c>
       <c r="P47">
-        <v>0.4506653981718313</v>
+        <v>0.4465599738451215</v>
       </c>
       <c r="Q47">
-        <v>0.4701643141377487</v>
+        <v>0.4685731151285634</v>
       </c>
       <c r="R47">
-        <v>0.4617089507995769</v>
+        <v>0.4743862302345299</v>
       </c>
       <c r="S47">
-        <v>0.4742216861571965</v>
+        <v>0.4741164157464297</v>
       </c>
       <c r="T47">
-        <v>0.4740823539590167</v>
+        <v>0.4552917852191367</v>
       </c>
       <c r="U47">
-        <v>0.4731035514435831</v>
+        <v>0.4602155139910988</v>
       </c>
       <c r="V47">
-        <v>0.4661050552165656</v>
+        <v>0.451699966404687</v>
       </c>
       <c r="W47">
-        <v>0.4729958547471652</v>
+        <v>0.4746401152650836</v>
       </c>
       <c r="X47">
-        <v>0.4681312682163197</v>
+        <v>0.4673381850699948</v>
       </c>
       <c r="Y47">
-        <v>0.472438781183985</v>
+        <v>0.4524033566840787</v>
       </c>
       <c r="Z47">
-        <v>0.4726670692054543</v>
+        <v>0.4709369490009384</v>
       </c>
       <c r="AA47">
-        <v>0.4681569737203835</v>
+        <v>0.468843856091618</v>
       </c>
       <c r="AB47">
-        <v>0.4642797002782011</v>
+        <v>0.4519122664195826</v>
       </c>
       <c r="AC47">
-        <v>0.4733505641805509</v>
+        <v>0.471223449125074</v>
       </c>
       <c r="AD47">
-        <v>0.4693388046815417</v>
+        <v>0.4629347711851768</v>
       </c>
       <c r="AE47">
-        <v>0.4751719015856627</v>
+        <v>0.4652739753496445</v>
       </c>
       <c r="AF47">
-        <v>0.4746011664275848</v>
+        <v>0.4619334436372336</v>
       </c>
       <c r="AG47">
-        <v>0.4750059912303398</v>
+        <v>0.4662636022062141</v>
       </c>
       <c r="AH47">
-        <v>0.4697597800260158</v>
+        <v>0.4611247220196701</v>
       </c>
       <c r="AI47">
-        <v>0.4753884411370854</v>
+        <v>0.460101698589256</v>
       </c>
       <c r="AJ47">
-        <v>0.4712567605312714</v>
+        <v>0.4735003758604171</v>
       </c>
       <c r="AK47">
-        <v>0.4745586446900363</v>
+        <v>0.4604705280212895</v>
       </c>
     </row>
     <row r="48" spans="1:37">
@@ -5840,112 +5840,112 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.2673705073460513</v>
+        <v>0.3407200614753007</v>
       </c>
       <c r="C48">
-        <v>0.2423541999097057</v>
+        <v>0.2848927433497468</v>
       </c>
       <c r="D48">
-        <v>0.3394956087696918</v>
+        <v>0.3479110742700327</v>
       </c>
       <c r="E48">
-        <v>0.3421509325242784</v>
+        <v>0.3442373300647222</v>
       </c>
       <c r="F48">
-        <v>0.0975755226824204</v>
+        <v>0.2687057629985052</v>
       </c>
       <c r="G48">
-        <v>0.1365512689634048</v>
+        <v>0.2843138959527685</v>
       </c>
       <c r="H48">
-        <v>0.2020006870667983</v>
+        <v>0.1837070000705197</v>
       </c>
       <c r="I48">
-        <v>0.1944827031323106</v>
+        <v>0.2198463653733786</v>
       </c>
       <c r="J48">
-        <v>0.2412546651411942</v>
+        <v>0.2603400914784996</v>
       </c>
       <c r="K48">
-        <v>0.3002242706670382</v>
+        <v>0.327085393386455</v>
       </c>
       <c r="L48">
-        <v>0.2734856607447923</v>
+        <v>0.3161880915419992</v>
       </c>
       <c r="M48">
-        <v>0.2739358549436353</v>
+        <v>0.3210506877492443</v>
       </c>
       <c r="N48">
-        <v>0.2574285215054041</v>
+        <v>0.2522377495094059</v>
       </c>
       <c r="O48">
-        <v>0.2399007996336069</v>
+        <v>0.2996896631084017</v>
       </c>
       <c r="P48">
-        <v>0.3144475570056098</v>
+        <v>0.322997199408827</v>
       </c>
       <c r="Q48">
-        <v>0.32366388559153</v>
+        <v>0.3245674072123125</v>
       </c>
       <c r="R48">
-        <v>0.08328111308695685</v>
+        <v>0.3230091528852691</v>
       </c>
       <c r="S48">
-        <v>0.09390407874667386</v>
+        <v>0.3164512601356806</v>
       </c>
       <c r="T48">
-        <v>0.1388901670518865</v>
+        <v>0.2058508126136042</v>
       </c>
       <c r="U48">
-        <v>0.1120251927199064</v>
+        <v>0.2396691361116754</v>
       </c>
       <c r="V48">
-        <v>0.2617526048912134</v>
+        <v>0.2304888619912719</v>
       </c>
       <c r="W48">
-        <v>0.3133096998569205</v>
+        <v>0.3314316835942234</v>
       </c>
       <c r="X48">
-        <v>0.2918122586484249</v>
+        <v>0.3119526331799614</v>
       </c>
       <c r="Y48">
-        <v>0.2939215046260172</v>
+        <v>0.2675608919086768</v>
       </c>
       <c r="Z48">
-        <v>0.2834998163653129</v>
+        <v>0.3202240337020978</v>
       </c>
       <c r="AA48">
-        <v>0.2740729024926309</v>
+        <v>0.3128112886317732</v>
       </c>
       <c r="AB48">
         <v>0.3386791977471338</v>
       </c>
       <c r="AC48">
-        <v>0.3389906570596676</v>
+        <v>0.3397308693602774</v>
       </c>
       <c r="AD48">
-        <v>0.102217067814269</v>
+        <v>0.2816029050295844</v>
       </c>
       <c r="AE48">
-        <v>0.09894220373348306</v>
+        <v>0.2673796107920184</v>
       </c>
       <c r="AF48">
-        <v>0.09990451116024092</v>
+        <v>0.2479698588036316</v>
       </c>
       <c r="AG48">
-        <v>0.1274637139913428</v>
+        <v>0.2780977533175062</v>
       </c>
       <c r="AH48">
-        <v>0.2871276205564628</v>
+        <v>0.2785314383009776</v>
       </c>
       <c r="AI48">
-        <v>0.3308980431335973</v>
+        <v>0.3253366308443693</v>
       </c>
       <c r="AJ48">
-        <v>0.3116608341382002</v>
+        <v>0.3367491055234347</v>
       </c>
       <c r="AK48">
-        <v>0.3128610398700311</v>
+        <v>0.2997875253301807</v>
       </c>
     </row>
     <row r="49" spans="1:37">
@@ -5953,112 +5953,112 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.4404644095071016</v>
+        <v>0.4442525679041195</v>
       </c>
       <c r="C49">
-        <v>0.4347786876729812</v>
+        <v>0.4018458011795481</v>
       </c>
       <c r="D49">
-        <v>0.4202760680366716</v>
+        <v>0.3213978801660448</v>
       </c>
       <c r="E49">
-        <v>0.455323066744356</v>
+        <v>0.4574094642847998</v>
       </c>
       <c r="F49">
-        <v>0.4455746907461762</v>
+        <v>0.4261661074210938</v>
       </c>
       <c r="G49">
-        <v>0.4482833344216956</v>
+        <v>0.4422101788113753</v>
       </c>
       <c r="H49">
-        <v>0.4501856646461079</v>
+        <v>0.4005012610685308</v>
       </c>
       <c r="I49">
-        <v>0.449869619438814</v>
+        <v>0.4213289634075466</v>
       </c>
       <c r="J49">
-        <v>0.4395314230682135</v>
+        <v>0.4187050352415376</v>
       </c>
       <c r="K49">
-        <v>0.4453912943224696</v>
+        <v>0.4542861293147301</v>
       </c>
       <c r="L49">
-        <v>0.4380143997651563</v>
+        <v>0.4424680788404365</v>
       </c>
       <c r="M49">
-        <v>0.4418886170503922</v>
+        <v>0.4496268695253367</v>
       </c>
       <c r="N49">
-        <v>0.438306620499519</v>
+        <v>0.3776325082126426</v>
       </c>
       <c r="O49">
-        <v>0.4321658384967418</v>
+        <v>0.43356151338357</v>
       </c>
       <c r="P49">
-        <v>0.415968020165464</v>
+        <v>0.3718614874733759</v>
       </c>
       <c r="Q49">
-        <v>0.4506625438908514</v>
+        <v>0.4385682761844983</v>
       </c>
       <c r="R49">
-        <v>0.4327261908444905</v>
+        <v>0.4524962438270738</v>
       </c>
       <c r="S49">
-        <v>0.4439540803103233</v>
+        <v>0.4505048331612777</v>
       </c>
       <c r="T49">
-        <v>0.4457441267103455</v>
+        <v>0.4076275355700223</v>
       </c>
       <c r="U49">
-        <v>0.4437593075455593</v>
+        <v>0.4218300312370185</v>
       </c>
       <c r="V49">
-        <v>0.4413053790765463</v>
+        <v>0.3963570824784315</v>
       </c>
       <c r="W49">
-        <v>0.4466320484708484</v>
+        <v>0.4519853882044156</v>
       </c>
       <c r="X49">
-        <v>0.4404188893440934</v>
+        <v>0.4273282866982455</v>
       </c>
       <c r="Y49">
-        <v>0.4435755698528699</v>
+        <v>0.3742542323520031</v>
       </c>
       <c r="Z49">
-        <v>0.4405327026943477</v>
+        <v>0.4371022557662938</v>
       </c>
       <c r="AA49">
-        <v>0.4372657163107621</v>
+        <v>0.4322881603426839</v>
       </c>
       <c r="AB49">
-        <v>0.42999963490788</v>
+        <v>0.3826773693507529</v>
       </c>
       <c r="AC49">
-        <v>0.4508467477359495</v>
+        <v>0.4416297595345096</v>
       </c>
       <c r="AD49">
-        <v>0.4380012582305463</v>
+        <v>0.4266102861631138</v>
       </c>
       <c r="AE49">
-        <v>0.4434895996053267</v>
+        <v>0.42795605655968</v>
       </c>
       <c r="AF49">
-        <v>0.4433274350971421</v>
+        <v>0.4190383102231326</v>
       </c>
       <c r="AG49">
-        <v>0.4447157156055391</v>
+        <v>0.4315038384532351</v>
       </c>
       <c r="AH49">
-        <v>0.4441712786171313</v>
+        <v>0.4148967539621637</v>
       </c>
       <c r="AI49">
-        <v>0.4484703064715566</v>
+        <v>0.416581501014289</v>
       </c>
       <c r="AJ49">
-        <v>0.4432004374462639</v>
+        <v>0.4436511156174265</v>
       </c>
       <c r="AK49">
-        <v>0.4455155223285032</v>
+        <v>0.3978872055880655</v>
       </c>
     </row>
     <row r="50" spans="1:37">
@@ -6066,112 +6066,112 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.4561671290475633</v>
+        <v>0.456964145676664</v>
       </c>
       <c r="C50">
-        <v>0.448747219214957</v>
+        <v>0.4406809398453697</v>
       </c>
       <c r="D50">
-        <v>0.437623917591878</v>
+        <v>0.4120288372906228</v>
       </c>
       <c r="E50">
-        <v>0.4559946863760705</v>
+        <v>0.4587171409316052</v>
       </c>
       <c r="F50">
-        <v>0.4564149389683764</v>
+        <v>0.4420318392521841</v>
       </c>
       <c r="G50">
-        <v>0.4596759954728531</v>
+        <v>0.4566539592951203</v>
       </c>
       <c r="H50">
-        <v>0.4594265530732261</v>
+        <v>0.4335216226556763</v>
       </c>
       <c r="I50">
-        <v>0.459679023805695</v>
+        <v>0.4450866562532483</v>
       </c>
       <c r="J50">
-        <v>0.44863054783641</v>
+        <v>0.442941719357251</v>
       </c>
       <c r="K50">
-        <v>0.4565772781949955</v>
+        <v>0.4598108463911394</v>
       </c>
       <c r="L50">
-        <v>0.4509184194443933</v>
+        <v>0.4558511829020484</v>
       </c>
       <c r="M50">
-        <v>0.4563799506772661</v>
+        <v>0.4585340058667371</v>
       </c>
       <c r="N50">
-        <v>0.4572198974769036</v>
+        <v>0.4343610915848772</v>
       </c>
       <c r="O50">
-        <v>0.4500099707945768</v>
+        <v>0.4523437991320552</v>
       </c>
       <c r="P50">
-        <v>0.4388609955721248</v>
+        <v>0.4276898471365917</v>
       </c>
       <c r="Q50">
-        <v>0.4579429398147385</v>
+        <v>0.4526208892986251</v>
       </c>
       <c r="R50">
-        <v>0.4482345751883742</v>
+        <v>0.4591479262798102</v>
       </c>
       <c r="S50">
-        <v>0.4596449345693583</v>
+        <v>0.4585048140394785</v>
       </c>
       <c r="T50">
-        <v>0.4591729696328598</v>
+        <v>0.4360090839765972</v>
       </c>
       <c r="U50">
-        <v>0.4582096473199719</v>
+        <v>0.4415179176164544</v>
       </c>
       <c r="V50">
-        <v>0.4514855115892081</v>
+        <v>0.4308018915304183</v>
       </c>
       <c r="W50">
-        <v>0.458223715467273</v>
+        <v>0.4585206970958223</v>
       </c>
       <c r="X50">
-        <v>0.4531059629520389</v>
+        <v>0.4492789677210502</v>
       </c>
       <c r="Y50">
-        <v>0.457270409852611</v>
+        <v>0.430285012640934</v>
       </c>
       <c r="Z50">
-        <v>0.4575209244624852</v>
+        <v>0.453296345641564</v>
       </c>
       <c r="AA50">
-        <v>0.4530233555791394</v>
+        <v>0.450395223858285</v>
       </c>
       <c r="AB50">
-        <v>0.4499311361140181</v>
+        <v>0.4282639011302724</v>
       </c>
       <c r="AC50">
-        <v>0.4585848707539695</v>
+        <v>0.4530018067184657</v>
       </c>
       <c r="AD50">
-        <v>0.4542169534784594</v>
+        <v>0.4418528526755423</v>
       </c>
       <c r="AE50">
-        <v>0.459047111989031</v>
+        <v>0.4446399660485295</v>
       </c>
       <c r="AF50">
-        <v>0.4583061894480302</v>
+        <v>0.4398462031462773</v>
       </c>
       <c r="AG50">
-        <v>0.4586226837252798</v>
+        <v>0.4453878444372528</v>
       </c>
       <c r="AH50">
-        <v>0.4535220091039371</v>
+        <v>0.4380447618825379</v>
       </c>
       <c r="AI50">
-        <v>0.4590398008025302</v>
+        <v>0.4362668632412929</v>
       </c>
       <c r="AJ50">
-        <v>0.4547279525891604</v>
+        <v>0.4546677253465377</v>
       </c>
       <c r="AK50">
-        <v>0.4579242355420821</v>
+        <v>0.436037547839996</v>
       </c>
     </row>
     <row r="51" spans="1:37">
@@ -6179,112 +6179,112 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.4376085756570213</v>
+        <v>0.4415971039285566</v>
       </c>
       <c r="C51">
-        <v>0.4146245646803597</v>
+        <v>0.4124577647898137</v>
       </c>
       <c r="D51">
-        <v>0.3902200966781582</v>
+        <v>0.3642984585134403</v>
       </c>
       <c r="E51">
-        <v>0.4061153562783336</v>
+        <v>0.4429003964879933</v>
       </c>
       <c r="F51">
-        <v>0.4260137825162916</v>
+        <v>0.4150026867280348</v>
       </c>
       <c r="G51">
-        <v>0.4392372920604651</v>
+        <v>0.4348786779894243</v>
       </c>
       <c r="H51">
-        <v>0.4411618714851321</v>
+        <v>0.401073481148757</v>
       </c>
       <c r="I51">
-        <v>0.4410039075376896</v>
+        <v>0.4160835205796328</v>
       </c>
       <c r="J51">
-        <v>0.4223151019209396</v>
+        <v>0.4174382838307125</v>
       </c>
       <c r="K51">
-        <v>0.4308465241834893</v>
+        <v>0.445457811458152</v>
       </c>
       <c r="L51">
-        <v>0.4270635091880651</v>
+        <v>0.4393521240391673</v>
       </c>
       <c r="M51">
-        <v>0.4330470268622763</v>
+        <v>0.444063686905747</v>
       </c>
       <c r="N51">
-        <v>0.4323793293888383</v>
+        <v>0.4054219701923539</v>
       </c>
       <c r="O51">
-        <v>0.4238567548545901</v>
+        <v>0.4348191697058813</v>
       </c>
       <c r="P51">
-        <v>0.4017696023864361</v>
+        <v>0.395944123279329</v>
       </c>
       <c r="Q51">
-        <v>0.423612699033213</v>
+        <v>0.4364395177523241</v>
       </c>
       <c r="R51">
-        <v>0.4235233401210242</v>
+        <v>0.4473951456483014</v>
       </c>
       <c r="S51">
-        <v>0.4432633247009672</v>
+        <v>0.446496195531649</v>
       </c>
       <c r="T51">
-        <v>0.4448184473141212</v>
+        <v>0.4120994694372704</v>
       </c>
       <c r="U51">
-        <v>0.4430735166135242</v>
+        <v>0.4213842751160947</v>
       </c>
       <c r="V51">
-        <v>0.4335135670700843</v>
+        <v>0.4052979565177847</v>
       </c>
       <c r="W51">
-        <v>0.4408864294969766</v>
+        <v>0.4489640066124128</v>
       </c>
       <c r="X51">
-        <v>0.4372220696641583</v>
+        <v>0.4351525921498872</v>
       </c>
       <c r="Y51">
-        <v>0.4419724148538426</v>
+        <v>0.4064515301568064</v>
       </c>
       <c r="Z51">
-        <v>0.4415143551317587</v>
+        <v>0.4423116040216663</v>
       </c>
       <c r="AA51">
-        <v>0.4364086558366451</v>
+        <v>0.438344767137819</v>
       </c>
       <c r="AB51">
-        <v>0.4266633918555766</v>
+        <v>0.40520988388532</v>
       </c>
       <c r="AC51">
-        <v>0.4381370795317567</v>
+        <v>0.4431981178502508</v>
       </c>
       <c r="AD51">
-        <v>0.4361072151458515</v>
+        <v>0.4268404914548939</v>
       </c>
       <c r="AE51">
-        <v>0.448292156978226</v>
+        <v>0.4315001338072809</v>
       </c>
       <c r="AF51">
-        <v>0.4484251425869026</v>
+        <v>0.4248016544278127</v>
       </c>
       <c r="AG51">
-        <v>0.4489920690390065</v>
+        <v>0.4335088079733132</v>
       </c>
       <c r="AH51">
-        <v>0.4423580135428607</v>
+        <v>0.4230757215531066</v>
       </c>
       <c r="AI51">
-        <v>0.4483268118257574</v>
+        <v>0.4209232274507864</v>
       </c>
       <c r="AJ51">
-        <v>0.4450026555698404</v>
+        <v>0.4483748132893761</v>
       </c>
       <c r="AK51">
-        <v>0.4486247609440523</v>
+        <v>0.4215149427311411</v>
       </c>
     </row>
   </sheetData>
